--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9694470717956365</v>
+        <v>0.9694470717956362</v>
       </c>
       <c r="D2">
-        <v>0.9942188804021724</v>
+        <v>0.9942188804021721</v>
       </c>
       <c r="E2">
-        <v>0.9747437421477533</v>
+        <v>0.9747437421477527</v>
       </c>
       <c r="F2">
-        <v>0.9253415121608268</v>
+        <v>0.9253415121608269</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033585130197616</v>
       </c>
       <c r="J2">
-        <v>0.99258166543459</v>
+        <v>0.9925816654345896</v>
       </c>
       <c r="K2">
         <v>1.00575934732838</v>
       </c>
       <c r="L2">
-        <v>0.9865665230321476</v>
+        <v>0.9865665230321474</v>
       </c>
       <c r="M2">
-        <v>0.9379492135117746</v>
+        <v>0.9379492135117745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789299179885239</v>
+        <v>0.9789299179885244</v>
       </c>
       <c r="D3">
         <v>1.001186007730503</v>
       </c>
       <c r="E3">
-        <v>0.9834865105158193</v>
+        <v>0.9834865105158195</v>
       </c>
       <c r="F3">
-        <v>0.9405029381503728</v>
+        <v>0.9405029381503729</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036612324760036</v>
       </c>
       <c r="J3">
-        <v>1.000011933467479</v>
+        <v>1.00001193346748</v>
       </c>
       <c r="K3">
         <v>1.011803735825708</v>
       </c>
       <c r="L3">
-        <v>0.9943351378860648</v>
+        <v>0.9943351378860652</v>
       </c>
       <c r="M3">
-        <v>0.9519582902780616</v>
+        <v>0.9519582902780617</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9847983554542661</v>
+        <v>0.9847983554542667</v>
       </c>
       <c r="D4">
         <v>1.00549948041822</v>
       </c>
       <c r="E4">
-        <v>0.9888926410626191</v>
+        <v>0.9888926410626196</v>
       </c>
       <c r="F4">
-        <v>0.9498140510631258</v>
+        <v>0.9498140510631263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038465838583325</v>
       </c>
       <c r="J4">
-        <v>1.00459907985535</v>
+        <v>1.004599079855351</v>
       </c>
       <c r="K4">
-        <v>1.015531981627602</v>
+        <v>1.015531981627603</v>
       </c>
       <c r="L4">
-        <v>0.9991269968474987</v>
+        <v>0.9991269968474992</v>
       </c>
       <c r="M4">
-        <v>0.9605584496537291</v>
+        <v>0.9605584496537294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9872067701209336</v>
+        <v>0.9872067701209367</v>
       </c>
       <c r="D5">
-        <v>1.00726998940494</v>
+        <v>1.007269989404942</v>
       </c>
       <c r="E5">
-        <v>0.9911104645516349</v>
+        <v>0.9911104645516378</v>
       </c>
       <c r="F5">
-        <v>0.9536210317363584</v>
+        <v>0.9536210317363618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039221682705537</v>
+        <v>1.039221682705538</v>
       </c>
       <c r="J5">
-        <v>1.006479033720202</v>
+        <v>1.006479033720205</v>
       </c>
       <c r="K5">
-        <v>1.017059037527257</v>
+        <v>1.01705903752726</v>
       </c>
       <c r="L5">
-        <v>1.001090048747987</v>
+        <v>1.00109004874799</v>
       </c>
       <c r="M5">
-        <v>0.9640738186225057</v>
+        <v>0.9640738186225088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.987607855069135</v>
+        <v>0.9876078550691377</v>
       </c>
       <c r="D6">
-        <v>1.007564850374441</v>
+        <v>1.007564850374444</v>
       </c>
       <c r="E6">
-        <v>0.9914797632324824</v>
+        <v>0.9914797632324851</v>
       </c>
       <c r="F6">
-        <v>0.9542542579024121</v>
+        <v>0.954254257902415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039347270041065</v>
+        <v>1.039347270041067</v>
       </c>
       <c r="J6">
-        <v>1.006791958292963</v>
+        <v>1.006791958292965</v>
       </c>
       <c r="K6">
-        <v>1.017313165761637</v>
+        <v>1.017313165761639</v>
       </c>
       <c r="L6">
-        <v>1.00141676345247</v>
+        <v>1.001416763452472</v>
       </c>
       <c r="M6">
-        <v>0.9646584817485848</v>
+        <v>0.9646584817485878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9848307608213768</v>
+        <v>0.9848307608213779</v>
       </c>
       <c r="D7">
         <v>1.005523301965543</v>
       </c>
       <c r="E7">
-        <v>0.9889224852215732</v>
+        <v>0.9889224852215742</v>
       </c>
       <c r="F7">
-        <v>0.949865327622444</v>
+        <v>0.9498653276224456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038476027823707</v>
+        <v>1.038476027823708</v>
       </c>
       <c r="J7">
-        <v>1.00462438510045</v>
+        <v>1.004624385100451</v>
       </c>
       <c r="K7">
-        <v>1.015552540339559</v>
+        <v>1.01555254033956</v>
       </c>
       <c r="L7">
-        <v>0.9991534235716046</v>
+        <v>0.9991534235716053</v>
       </c>
       <c r="M7">
-        <v>0.9606058023334869</v>
+        <v>0.9606058023334886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9727107579146254</v>
+        <v>0.9727107579146264</v>
       </c>
       <c r="D8">
-        <v>0.9966162076546262</v>
+        <v>0.9966162076546272</v>
       </c>
       <c r="E8">
-        <v>0.977753758510475</v>
+        <v>0.9777537585104757</v>
       </c>
       <c r="F8">
-        <v>0.9305767657318716</v>
+        <v>0.9305767657318715</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.034631176959076</v>
       </c>
       <c r="J8">
-        <v>0.9951413055455025</v>
+        <v>0.9951413055455033</v>
       </c>
       <c r="K8">
         <v>1.007842210494788</v>
       </c>
       <c r="L8">
-        <v>0.9892437464665709</v>
+        <v>0.9892437464665715</v>
       </c>
       <c r="M8">
         <v>0.9427871573287647</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9490093660022184</v>
+        <v>0.949009366002218</v>
       </c>
       <c r="D9">
-        <v>0.9792246571820696</v>
+        <v>0.9792246571820692</v>
       </c>
       <c r="E9">
-        <v>0.9558648894850883</v>
+        <v>0.9558648894850881</v>
       </c>
       <c r="F9">
-        <v>0.8920778182248115</v>
+        <v>0.8920778182248106</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026949353532064</v>
       </c>
       <c r="J9">
-        <v>0.9765007839048899</v>
+        <v>0.9765007839048894</v>
       </c>
       <c r="K9">
-        <v>0.9926640398162777</v>
+        <v>0.9926640398162774</v>
       </c>
       <c r="L9">
-        <v>0.9697170572084611</v>
+        <v>0.9697170572084607</v>
       </c>
       <c r="M9">
-        <v>0.9072036007449877</v>
+        <v>0.9072036007449871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9311009844994752</v>
+        <v>0.931100984499475</v>
       </c>
       <c r="D10">
-        <v>0.9661212539867348</v>
+        <v>0.9661212539867341</v>
       </c>
       <c r="E10">
         <v>0.9392684348770393</v>
       </c>
       <c r="F10">
-        <v>0.8620909528956152</v>
+        <v>0.862090952895615</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021037570191167</v>
+        <v>1.021037570191166</v>
       </c>
       <c r="J10">
-        <v>0.9623425293020309</v>
+        <v>0.9623425293020308</v>
       </c>
       <c r="K10">
-        <v>0.9811303812404376</v>
+        <v>0.9811303812404369</v>
       </c>
       <c r="L10">
         <v>0.9548281995772717</v>
       </c>
       <c r="M10">
-        <v>0.879493654287164</v>
+        <v>0.8794936542871638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9226753463608189</v>
+        <v>0.9226753463608218</v>
       </c>
       <c r="D11">
-        <v>0.9599705474149919</v>
+        <v>0.9599705474149944</v>
       </c>
       <c r="E11">
-        <v>0.9314370362183405</v>
+        <v>0.9314370362183435</v>
       </c>
       <c r="F11">
-        <v>0.847641302266339</v>
+        <v>0.847641302266343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018231753265405</v>
+        <v>1.018231753265406</v>
       </c>
       <c r="J11">
-        <v>0.9556604960175336</v>
+        <v>0.9556604960175363</v>
       </c>
       <c r="K11">
-        <v>0.9756890149826483</v>
+        <v>0.9756890149826507</v>
       </c>
       <c r="L11">
-        <v>0.947779130463275</v>
+        <v>0.947779130463278</v>
       </c>
       <c r="M11">
-        <v>0.8661494566233283</v>
+        <v>0.8661494566233322</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9194240958483333</v>
+        <v>0.9194240958483326</v>
       </c>
       <c r="D12">
-        <v>0.9575998427291024</v>
+        <v>0.9575998427291019</v>
       </c>
       <c r="E12">
-        <v>0.9284103802189738</v>
+        <v>0.928410380218973</v>
       </c>
       <c r="F12">
-        <v>0.8419978402682479</v>
+        <v>0.8419978402682469</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017145495501697</v>
       </c>
       <c r="J12">
-        <v>0.9530784805965408</v>
+        <v>0.95307848059654</v>
       </c>
       <c r="K12">
-        <v>0.9735870849016056</v>
+        <v>0.9735870849016052</v>
       </c>
       <c r="L12">
-        <v>0.9450508705319874</v>
+        <v>0.9450508705319868</v>
       </c>
       <c r="M12">
-        <v>0.8609398640497408</v>
+        <v>0.8609398640497397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9201274158545543</v>
+        <v>0.9201274158545549</v>
       </c>
       <c r="D13">
-        <v>0.9581125486453959</v>
+        <v>0.9581125486453961</v>
       </c>
       <c r="E13">
-        <v>0.9290653532582115</v>
+        <v>0.929065353258212</v>
       </c>
       <c r="F13">
-        <v>0.8432220313070304</v>
+        <v>0.8432220313070315</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017380636516933</v>
       </c>
       <c r="J13">
-        <v>0.953637200641226</v>
+        <v>0.9536372006412268</v>
       </c>
       <c r="K13">
-        <v>0.9740418818604708</v>
+        <v>0.9740418818604714</v>
       </c>
       <c r="L13">
-        <v>0.9456414568162144</v>
+        <v>0.9456414568162149</v>
       </c>
       <c r="M13">
-        <v>0.8620698261227607</v>
+        <v>0.8620698261227618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9224092234613662</v>
+        <v>0.9224092234613676</v>
       </c>
       <c r="D14">
-        <v>0.9597764412951811</v>
+        <v>0.9597764412951818</v>
       </c>
       <c r="E14">
-        <v>0.9311894009094412</v>
+        <v>0.9311894009094427</v>
       </c>
       <c r="F14">
-        <v>0.8471808518381483</v>
+        <v>0.8471808518381492</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018142911515133</v>
       </c>
       <c r="J14">
-        <v>0.9554492272156035</v>
+        <v>0.955449227215605</v>
       </c>
       <c r="K14">
-        <v>0.975517012078555</v>
+        <v>0.975517012078556</v>
       </c>
       <c r="L14">
-        <v>0.9475559920473039</v>
+        <v>0.947555992047305</v>
       </c>
       <c r="M14">
-        <v>0.8657243568159954</v>
+        <v>0.8657243568159964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9237982654975363</v>
+        <v>0.9237982654975354</v>
       </c>
       <c r="D15">
-        <v>0.9607897006839908</v>
+        <v>0.9607897006839902</v>
       </c>
       <c r="E15">
-        <v>0.9324817474865043</v>
+        <v>0.9324817474865038</v>
       </c>
       <c r="F15">
-        <v>0.8495813546258716</v>
+        <v>0.8495813546258703</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018606482661072</v>
       </c>
       <c r="J15">
-        <v>0.9565518079279299</v>
+        <v>0.9565518079279293</v>
       </c>
       <c r="K15">
-        <v>0.976414699679288</v>
+        <v>0.9764146996792872</v>
       </c>
       <c r="L15">
-        <v>0.9487203331763759</v>
+        <v>0.9487203331763756</v>
       </c>
       <c r="M15">
-        <v>0.8679406545599404</v>
+        <v>0.8679406545599391</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9316444065597557</v>
+        <v>0.9316444065597559</v>
       </c>
       <c r="D16">
-        <v>0.9665182855022667</v>
+        <v>0.966518285502267</v>
       </c>
       <c r="E16">
-        <v>0.9397729710093389</v>
+        <v>0.939772971009339</v>
       </c>
       <c r="F16">
-        <v>0.8630147430118674</v>
+        <v>0.863014743011868</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021218047453626</v>
       </c>
       <c r="J16">
-        <v>0.9627730397766678</v>
+        <v>0.9627730397766682</v>
       </c>
       <c r="K16">
-        <v>0.9814810269719603</v>
+        <v>0.9814810269719606</v>
       </c>
       <c r="L16">
-        <v>0.9552818257780831</v>
+        <v>0.9552818257780832</v>
       </c>
       <c r="M16">
-        <v>0.8803470022703119</v>
+        <v>0.8803470022703125</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9363737437530236</v>
+        <v>0.9363737437530261</v>
       </c>
       <c r="D17">
-        <v>0.9699752317241169</v>
+        <v>0.9699752317241185</v>
       </c>
       <c r="E17">
-        <v>0.9441612589533119</v>
+        <v>0.9441612589533145</v>
       </c>
       <c r="F17">
-        <v>0.8710154568582982</v>
+        <v>0.8710154568583001</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022786039328687</v>
+        <v>1.022786039328688</v>
       </c>
       <c r="J17">
-        <v>0.9665173974892917</v>
+        <v>0.9665173974892941</v>
       </c>
       <c r="K17">
-        <v>0.9845310131303426</v>
+        <v>0.9845310131303443</v>
       </c>
       <c r="L17">
-        <v>0.9592246989352754</v>
+        <v>0.9592246989352777</v>
       </c>
       <c r="M17">
-        <v>0.887738603728217</v>
+        <v>0.8877386037282188</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9390692144070982</v>
+        <v>0.9390692144070981</v>
       </c>
       <c r="D18">
-        <v>0.9719467744424111</v>
+        <v>0.971946774442411</v>
       </c>
       <c r="E18">
-        <v>0.9466603392452594</v>
+        <v>0.9466603392452592</v>
       </c>
       <c r="F18">
-        <v>0.8755454231604244</v>
+        <v>0.8755454231604242</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023677467203378</v>
       </c>
       <c r="J18">
-        <v>0.9686496144373764</v>
+        <v>0.9686496144373763</v>
       </c>
       <c r="K18">
-        <v>0.9862679746165111</v>
+        <v>0.9862679746165109</v>
       </c>
       <c r="L18">
-        <v>0.9614680090546249</v>
+        <v>0.9614680090546247</v>
       </c>
       <c r="M18">
-        <v>0.891924374997781</v>
+        <v>0.8919243749977805</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9399781272500257</v>
+        <v>0.9399781272500238</v>
       </c>
       <c r="D19">
-        <v>0.9726117791941946</v>
+        <v>0.9726117791941929</v>
       </c>
       <c r="E19">
-        <v>0.9475027165077983</v>
+        <v>0.9475027165077965</v>
       </c>
       <c r="F19">
-        <v>0.8770682160135478</v>
+        <v>0.8770682160135448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023977672860146</v>
+        <v>1.023977672860145</v>
       </c>
       <c r="J19">
-        <v>0.9693682912392811</v>
+        <v>0.9693682912392793</v>
       </c>
       <c r="K19">
-        <v>0.9868534448875348</v>
+        <v>0.9868534448875332</v>
       </c>
       <c r="L19">
-        <v>0.9622238246456287</v>
+        <v>0.9622238246456268</v>
       </c>
       <c r="M19">
-        <v>0.8933315588160147</v>
+        <v>0.8933315588160117</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9358729829779783</v>
+        <v>0.9358729829779797</v>
       </c>
       <c r="D20">
-        <v>0.9696090609059222</v>
+        <v>0.9696090609059235</v>
       </c>
       <c r="E20">
-        <v>0.943696826664543</v>
+        <v>0.9436968266645444</v>
       </c>
       <c r="F20">
-        <v>0.8701715363951378</v>
+        <v>0.8701715363951393</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022620247605433</v>
       </c>
       <c r="J20">
-        <v>0.9661211276173843</v>
+        <v>0.9661211276173857</v>
       </c>
       <c r="K20">
-        <v>0.9842082111864414</v>
+        <v>0.9842082111864425</v>
       </c>
       <c r="L20">
-        <v>0.958807629838719</v>
+        <v>0.9588076298387204</v>
       </c>
       <c r="M20">
-        <v>0.8869588565303294</v>
+        <v>0.8869588565303308</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9217408476052232</v>
+        <v>0.9217408476052239</v>
       </c>
       <c r="D21">
-        <v>0.9592889831600333</v>
+        <v>0.9592889831600331</v>
       </c>
       <c r="E21">
-        <v>0.9305673766616624</v>
+        <v>0.9305673766616629</v>
       </c>
       <c r="F21">
-        <v>0.8460232662096612</v>
+        <v>0.8460232662096618</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017919726116237</v>
       </c>
       <c r="J21">
-        <v>0.954918559886839</v>
+        <v>0.9549185598868395</v>
       </c>
       <c r="K21">
-        <v>0.9750849855960152</v>
+        <v>0.9750849855960154</v>
       </c>
       <c r="L21">
-        <v>0.9469954354581144</v>
+        <v>0.946995435458115</v>
       </c>
       <c r="M21">
-        <v>0.8646556811002468</v>
+        <v>0.8646556811002474</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9121354985352718</v>
+        <v>0.9121354985352713</v>
       </c>
       <c r="D22">
-        <v>0.9522910109239836</v>
+        <v>0.9522910109239831</v>
       </c>
       <c r="E22">
-        <v>0.921614526429231</v>
+        <v>0.9216145264292308</v>
       </c>
       <c r="F22">
-        <v>0.829195113930991</v>
+        <v>0.8291951139309912</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014703816878274</v>
       </c>
       <c r="J22">
-        <v>0.9472827404089618</v>
+        <v>0.9472827404089613</v>
       </c>
       <c r="K22">
-        <v>0.9688707807471383</v>
+        <v>0.9688707807471377</v>
       </c>
       <c r="L22">
-        <v>0.9389169907348951</v>
+        <v>0.9389169907348949</v>
       </c>
       <c r="M22">
-        <v>0.8491267365243107</v>
+        <v>0.8491267365243108</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.917304760838446</v>
+        <v>0.917304760838447</v>
       </c>
       <c r="D23">
-        <v>0.9560553374053583</v>
+        <v>0.9560553374053592</v>
       </c>
       <c r="E23">
-        <v>0.926435908378002</v>
+        <v>0.926435908378003</v>
       </c>
       <c r="F23">
-        <v>0.8382973382473163</v>
+        <v>0.8382973382473173</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016436423400677</v>
       </c>
       <c r="J23">
-        <v>0.9513942978731806</v>
+        <v>0.9513942978731817</v>
       </c>
       <c r="K23">
-        <v>0.9722162996703003</v>
+        <v>0.9722162996703012</v>
       </c>
       <c r="L23">
-        <v>0.9432698742900197</v>
+        <v>0.9432698742900206</v>
       </c>
       <c r="M23">
-        <v>0.8575245996213999</v>
+        <v>0.8575245996214008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9360994486461786</v>
+        <v>0.9360994486461773</v>
       </c>
       <c r="D24">
-        <v>0.9697746552636518</v>
+        <v>0.9697746552636508</v>
       </c>
       <c r="E24">
-        <v>0.9439068692105401</v>
+        <v>0.9439068692105391</v>
       </c>
       <c r="F24">
-        <v>0.8705532862565508</v>
+        <v>0.8705532862565499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022695232799029</v>
+        <v>1.022695232799028</v>
       </c>
       <c r="J24">
-        <v>0.9663003437802545</v>
+        <v>0.9663003437802533</v>
       </c>
       <c r="K24">
-        <v>0.984354200450049</v>
+        <v>0.9843542004500477</v>
       </c>
       <c r="L24">
-        <v>0.958996258631542</v>
+        <v>0.958996258631541</v>
       </c>
       <c r="M24">
-        <v>0.8873115753557496</v>
+        <v>0.8873115753557484</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9554617311335328</v>
+        <v>0.9554617311335336</v>
       </c>
       <c r="D25">
-        <v>0.9839545245559482</v>
+        <v>0.9839545245559488</v>
       </c>
       <c r="E25">
-        <v>0.9618312132238039</v>
+        <v>0.9618312132238046</v>
       </c>
       <c r="F25">
-        <v>0.9026768164703678</v>
+        <v>0.9026768164703681</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029058794457897</v>
       </c>
       <c r="J25">
-        <v>0.9815869210926602</v>
+        <v>0.9815869210926608</v>
       </c>
       <c r="K25">
-        <v>0.9968071397824027</v>
+        <v>0.996807139782403</v>
       </c>
       <c r="L25">
-        <v>0.9750524338235877</v>
+        <v>0.9750524338235883</v>
       </c>
       <c r="M25">
-        <v>0.9170005701323592</v>
+        <v>0.9170005701323598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9694470717956362</v>
+        <v>0.9694470717956365</v>
       </c>
       <c r="D2">
-        <v>0.9942188804021721</v>
+        <v>0.9942188804021724</v>
       </c>
       <c r="E2">
-        <v>0.9747437421477527</v>
+        <v>0.9747437421477533</v>
       </c>
       <c r="F2">
-        <v>0.9253415121608269</v>
+        <v>0.9253415121608268</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033585130197616</v>
       </c>
       <c r="J2">
-        <v>0.9925816654345896</v>
+        <v>0.99258166543459</v>
       </c>
       <c r="K2">
         <v>1.00575934732838</v>
       </c>
       <c r="L2">
-        <v>0.9865665230321474</v>
+        <v>0.9865665230321476</v>
       </c>
       <c r="M2">
-        <v>0.9379492135117745</v>
+        <v>0.9379492135117746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789299179885244</v>
+        <v>0.9789299179885239</v>
       </c>
       <c r="D3">
         <v>1.001186007730503</v>
       </c>
       <c r="E3">
-        <v>0.9834865105158195</v>
+        <v>0.9834865105158193</v>
       </c>
       <c r="F3">
-        <v>0.9405029381503729</v>
+        <v>0.9405029381503728</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036612324760036</v>
       </c>
       <c r="J3">
-        <v>1.00001193346748</v>
+        <v>1.000011933467479</v>
       </c>
       <c r="K3">
         <v>1.011803735825708</v>
       </c>
       <c r="L3">
-        <v>0.9943351378860652</v>
+        <v>0.9943351378860648</v>
       </c>
       <c r="M3">
-        <v>0.9519582902780617</v>
+        <v>0.9519582902780616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9847983554542667</v>
+        <v>0.9847983554542661</v>
       </c>
       <c r="D4">
         <v>1.00549948041822</v>
       </c>
       <c r="E4">
-        <v>0.9888926410626196</v>
+        <v>0.9888926410626191</v>
       </c>
       <c r="F4">
-        <v>0.9498140510631263</v>
+        <v>0.9498140510631258</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038465838583325</v>
       </c>
       <c r="J4">
-        <v>1.004599079855351</v>
+        <v>1.00459907985535</v>
       </c>
       <c r="K4">
-        <v>1.015531981627603</v>
+        <v>1.015531981627602</v>
       </c>
       <c r="L4">
-        <v>0.9991269968474992</v>
+        <v>0.9991269968474987</v>
       </c>
       <c r="M4">
-        <v>0.9605584496537294</v>
+        <v>0.9605584496537291</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9872067701209367</v>
+        <v>0.9872067701209336</v>
       </c>
       <c r="D5">
-        <v>1.007269989404942</v>
+        <v>1.00726998940494</v>
       </c>
       <c r="E5">
-        <v>0.9911104645516378</v>
+        <v>0.9911104645516349</v>
       </c>
       <c r="F5">
-        <v>0.9536210317363618</v>
+        <v>0.9536210317363584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039221682705538</v>
+        <v>1.039221682705537</v>
       </c>
       <c r="J5">
-        <v>1.006479033720205</v>
+        <v>1.006479033720202</v>
       </c>
       <c r="K5">
-        <v>1.01705903752726</v>
+        <v>1.017059037527257</v>
       </c>
       <c r="L5">
-        <v>1.00109004874799</v>
+        <v>1.001090048747987</v>
       </c>
       <c r="M5">
-        <v>0.9640738186225088</v>
+        <v>0.9640738186225057</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9876078550691377</v>
+        <v>0.987607855069135</v>
       </c>
       <c r="D6">
-        <v>1.007564850374444</v>
+        <v>1.007564850374441</v>
       </c>
       <c r="E6">
-        <v>0.9914797632324851</v>
+        <v>0.9914797632324824</v>
       </c>
       <c r="F6">
-        <v>0.954254257902415</v>
+        <v>0.9542542579024121</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039347270041067</v>
+        <v>1.039347270041065</v>
       </c>
       <c r="J6">
-        <v>1.006791958292965</v>
+        <v>1.006791958292963</v>
       </c>
       <c r="K6">
-        <v>1.017313165761639</v>
+        <v>1.017313165761637</v>
       </c>
       <c r="L6">
-        <v>1.001416763452472</v>
+        <v>1.00141676345247</v>
       </c>
       <c r="M6">
-        <v>0.9646584817485878</v>
+        <v>0.9646584817485848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9848307608213779</v>
+        <v>0.9848307608213768</v>
       </c>
       <c r="D7">
         <v>1.005523301965543</v>
       </c>
       <c r="E7">
-        <v>0.9889224852215742</v>
+        <v>0.9889224852215732</v>
       </c>
       <c r="F7">
-        <v>0.9498653276224456</v>
+        <v>0.949865327622444</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038476027823708</v>
+        <v>1.038476027823707</v>
       </c>
       <c r="J7">
-        <v>1.004624385100451</v>
+        <v>1.00462438510045</v>
       </c>
       <c r="K7">
-        <v>1.01555254033956</v>
+        <v>1.015552540339559</v>
       </c>
       <c r="L7">
-        <v>0.9991534235716053</v>
+        <v>0.9991534235716046</v>
       </c>
       <c r="M7">
-        <v>0.9606058023334886</v>
+        <v>0.9606058023334869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9727107579146264</v>
+        <v>0.9727107579146254</v>
       </c>
       <c r="D8">
-        <v>0.9966162076546272</v>
+        <v>0.9966162076546262</v>
       </c>
       <c r="E8">
-        <v>0.9777537585104757</v>
+        <v>0.977753758510475</v>
       </c>
       <c r="F8">
-        <v>0.9305767657318715</v>
+        <v>0.9305767657318716</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.034631176959076</v>
       </c>
       <c r="J8">
-        <v>0.9951413055455033</v>
+        <v>0.9951413055455025</v>
       </c>
       <c r="K8">
         <v>1.007842210494788</v>
       </c>
       <c r="L8">
-        <v>0.9892437464665715</v>
+        <v>0.9892437464665709</v>
       </c>
       <c r="M8">
         <v>0.9427871573287647</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.949009366002218</v>
+        <v>0.9490093660022184</v>
       </c>
       <c r="D9">
-        <v>0.9792246571820692</v>
+        <v>0.9792246571820696</v>
       </c>
       <c r="E9">
-        <v>0.9558648894850881</v>
+        <v>0.9558648894850883</v>
       </c>
       <c r="F9">
-        <v>0.8920778182248106</v>
+        <v>0.8920778182248115</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026949353532064</v>
       </c>
       <c r="J9">
-        <v>0.9765007839048894</v>
+        <v>0.9765007839048899</v>
       </c>
       <c r="K9">
-        <v>0.9926640398162774</v>
+        <v>0.9926640398162777</v>
       </c>
       <c r="L9">
-        <v>0.9697170572084607</v>
+        <v>0.9697170572084611</v>
       </c>
       <c r="M9">
-        <v>0.9072036007449871</v>
+        <v>0.9072036007449877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.931100984499475</v>
+        <v>0.9311009844994752</v>
       </c>
       <c r="D10">
-        <v>0.9661212539867341</v>
+        <v>0.9661212539867348</v>
       </c>
       <c r="E10">
         <v>0.9392684348770393</v>
       </c>
       <c r="F10">
-        <v>0.862090952895615</v>
+        <v>0.8620909528956152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021037570191166</v>
+        <v>1.021037570191167</v>
       </c>
       <c r="J10">
-        <v>0.9623425293020308</v>
+        <v>0.9623425293020309</v>
       </c>
       <c r="K10">
-        <v>0.9811303812404369</v>
+        <v>0.9811303812404376</v>
       </c>
       <c r="L10">
         <v>0.9548281995772717</v>
       </c>
       <c r="M10">
-        <v>0.8794936542871638</v>
+        <v>0.879493654287164</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9226753463608218</v>
+        <v>0.9226753463608189</v>
       </c>
       <c r="D11">
-        <v>0.9599705474149944</v>
+        <v>0.9599705474149919</v>
       </c>
       <c r="E11">
-        <v>0.9314370362183435</v>
+        <v>0.9314370362183405</v>
       </c>
       <c r="F11">
-        <v>0.847641302266343</v>
+        <v>0.847641302266339</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018231753265406</v>
+        <v>1.018231753265405</v>
       </c>
       <c r="J11">
-        <v>0.9556604960175363</v>
+        <v>0.9556604960175336</v>
       </c>
       <c r="K11">
-        <v>0.9756890149826507</v>
+        <v>0.9756890149826483</v>
       </c>
       <c r="L11">
-        <v>0.947779130463278</v>
+        <v>0.947779130463275</v>
       </c>
       <c r="M11">
-        <v>0.8661494566233322</v>
+        <v>0.8661494566233283</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9194240958483326</v>
+        <v>0.9194240958483333</v>
       </c>
       <c r="D12">
-        <v>0.9575998427291019</v>
+        <v>0.9575998427291024</v>
       </c>
       <c r="E12">
-        <v>0.928410380218973</v>
+        <v>0.9284103802189738</v>
       </c>
       <c r="F12">
-        <v>0.8419978402682469</v>
+        <v>0.8419978402682479</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017145495501697</v>
       </c>
       <c r="J12">
-        <v>0.95307848059654</v>
+        <v>0.9530784805965408</v>
       </c>
       <c r="K12">
-        <v>0.9735870849016052</v>
+        <v>0.9735870849016056</v>
       </c>
       <c r="L12">
-        <v>0.9450508705319868</v>
+        <v>0.9450508705319874</v>
       </c>
       <c r="M12">
-        <v>0.8609398640497397</v>
+        <v>0.8609398640497408</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9201274158545549</v>
+        <v>0.9201274158545543</v>
       </c>
       <c r="D13">
-        <v>0.9581125486453961</v>
+        <v>0.9581125486453959</v>
       </c>
       <c r="E13">
-        <v>0.929065353258212</v>
+        <v>0.9290653532582115</v>
       </c>
       <c r="F13">
-        <v>0.8432220313070315</v>
+        <v>0.8432220313070304</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017380636516933</v>
       </c>
       <c r="J13">
-        <v>0.9536372006412268</v>
+        <v>0.953637200641226</v>
       </c>
       <c r="K13">
-        <v>0.9740418818604714</v>
+        <v>0.9740418818604708</v>
       </c>
       <c r="L13">
-        <v>0.9456414568162149</v>
+        <v>0.9456414568162144</v>
       </c>
       <c r="M13">
-        <v>0.8620698261227618</v>
+        <v>0.8620698261227607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9224092234613676</v>
+        <v>0.9224092234613662</v>
       </c>
       <c r="D14">
-        <v>0.9597764412951818</v>
+        <v>0.9597764412951811</v>
       </c>
       <c r="E14">
-        <v>0.9311894009094427</v>
+        <v>0.9311894009094412</v>
       </c>
       <c r="F14">
-        <v>0.8471808518381492</v>
+        <v>0.8471808518381483</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018142911515133</v>
       </c>
       <c r="J14">
-        <v>0.955449227215605</v>
+        <v>0.9554492272156035</v>
       </c>
       <c r="K14">
-        <v>0.975517012078556</v>
+        <v>0.975517012078555</v>
       </c>
       <c r="L14">
-        <v>0.947555992047305</v>
+        <v>0.9475559920473039</v>
       </c>
       <c r="M14">
-        <v>0.8657243568159964</v>
+        <v>0.8657243568159954</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9237982654975354</v>
+        <v>0.9237982654975363</v>
       </c>
       <c r="D15">
-        <v>0.9607897006839902</v>
+        <v>0.9607897006839908</v>
       </c>
       <c r="E15">
-        <v>0.9324817474865038</v>
+        <v>0.9324817474865043</v>
       </c>
       <c r="F15">
-        <v>0.8495813546258703</v>
+        <v>0.8495813546258716</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018606482661072</v>
       </c>
       <c r="J15">
-        <v>0.9565518079279293</v>
+        <v>0.9565518079279299</v>
       </c>
       <c r="K15">
-        <v>0.9764146996792872</v>
+        <v>0.976414699679288</v>
       </c>
       <c r="L15">
-        <v>0.9487203331763756</v>
+        <v>0.9487203331763759</v>
       </c>
       <c r="M15">
-        <v>0.8679406545599391</v>
+        <v>0.8679406545599404</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9316444065597559</v>
+        <v>0.9316444065597557</v>
       </c>
       <c r="D16">
-        <v>0.966518285502267</v>
+        <v>0.9665182855022667</v>
       </c>
       <c r="E16">
-        <v>0.939772971009339</v>
+        <v>0.9397729710093389</v>
       </c>
       <c r="F16">
-        <v>0.863014743011868</v>
+        <v>0.8630147430118674</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021218047453626</v>
       </c>
       <c r="J16">
-        <v>0.9627730397766682</v>
+        <v>0.9627730397766678</v>
       </c>
       <c r="K16">
-        <v>0.9814810269719606</v>
+        <v>0.9814810269719603</v>
       </c>
       <c r="L16">
-        <v>0.9552818257780832</v>
+        <v>0.9552818257780831</v>
       </c>
       <c r="M16">
-        <v>0.8803470022703125</v>
+        <v>0.8803470022703119</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9363737437530261</v>
+        <v>0.9363737437530236</v>
       </c>
       <c r="D17">
-        <v>0.9699752317241185</v>
+        <v>0.9699752317241169</v>
       </c>
       <c r="E17">
-        <v>0.9441612589533145</v>
+        <v>0.9441612589533119</v>
       </c>
       <c r="F17">
-        <v>0.8710154568583001</v>
+        <v>0.8710154568582982</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022786039328688</v>
+        <v>1.022786039328687</v>
       </c>
       <c r="J17">
-        <v>0.9665173974892941</v>
+        <v>0.9665173974892917</v>
       </c>
       <c r="K17">
-        <v>0.9845310131303443</v>
+        <v>0.9845310131303426</v>
       </c>
       <c r="L17">
-        <v>0.9592246989352777</v>
+        <v>0.9592246989352754</v>
       </c>
       <c r="M17">
-        <v>0.8877386037282188</v>
+        <v>0.887738603728217</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9390692144070981</v>
+        <v>0.9390692144070982</v>
       </c>
       <c r="D18">
-        <v>0.971946774442411</v>
+        <v>0.9719467744424111</v>
       </c>
       <c r="E18">
-        <v>0.9466603392452592</v>
+        <v>0.9466603392452594</v>
       </c>
       <c r="F18">
-        <v>0.8755454231604242</v>
+        <v>0.8755454231604244</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023677467203378</v>
       </c>
       <c r="J18">
-        <v>0.9686496144373763</v>
+        <v>0.9686496144373764</v>
       </c>
       <c r="K18">
-        <v>0.9862679746165109</v>
+        <v>0.9862679746165111</v>
       </c>
       <c r="L18">
-        <v>0.9614680090546247</v>
+        <v>0.9614680090546249</v>
       </c>
       <c r="M18">
-        <v>0.8919243749977805</v>
+        <v>0.891924374997781</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9399781272500238</v>
+        <v>0.9399781272500257</v>
       </c>
       <c r="D19">
-        <v>0.9726117791941929</v>
+        <v>0.9726117791941946</v>
       </c>
       <c r="E19">
-        <v>0.9475027165077965</v>
+        <v>0.9475027165077983</v>
       </c>
       <c r="F19">
-        <v>0.8770682160135448</v>
+        <v>0.8770682160135478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023977672860145</v>
+        <v>1.023977672860146</v>
       </c>
       <c r="J19">
-        <v>0.9693682912392793</v>
+        <v>0.9693682912392811</v>
       </c>
       <c r="K19">
-        <v>0.9868534448875332</v>
+        <v>0.9868534448875348</v>
       </c>
       <c r="L19">
-        <v>0.9622238246456268</v>
+        <v>0.9622238246456287</v>
       </c>
       <c r="M19">
-        <v>0.8933315588160117</v>
+        <v>0.8933315588160147</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9358729829779797</v>
+        <v>0.9358729829779783</v>
       </c>
       <c r="D20">
-        <v>0.9696090609059235</v>
+        <v>0.9696090609059222</v>
       </c>
       <c r="E20">
-        <v>0.9436968266645444</v>
+        <v>0.943696826664543</v>
       </c>
       <c r="F20">
-        <v>0.8701715363951393</v>
+        <v>0.8701715363951378</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022620247605433</v>
       </c>
       <c r="J20">
-        <v>0.9661211276173857</v>
+        <v>0.9661211276173843</v>
       </c>
       <c r="K20">
-        <v>0.9842082111864425</v>
+        <v>0.9842082111864414</v>
       </c>
       <c r="L20">
-        <v>0.9588076298387204</v>
+        <v>0.958807629838719</v>
       </c>
       <c r="M20">
-        <v>0.8869588565303308</v>
+        <v>0.8869588565303294</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9217408476052239</v>
+        <v>0.9217408476052232</v>
       </c>
       <c r="D21">
-        <v>0.9592889831600331</v>
+        <v>0.9592889831600333</v>
       </c>
       <c r="E21">
-        <v>0.9305673766616629</v>
+        <v>0.9305673766616624</v>
       </c>
       <c r="F21">
-        <v>0.8460232662096618</v>
+        <v>0.8460232662096612</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017919726116237</v>
       </c>
       <c r="J21">
-        <v>0.9549185598868395</v>
+        <v>0.954918559886839</v>
       </c>
       <c r="K21">
-        <v>0.9750849855960154</v>
+        <v>0.9750849855960152</v>
       </c>
       <c r="L21">
-        <v>0.946995435458115</v>
+        <v>0.9469954354581144</v>
       </c>
       <c r="M21">
-        <v>0.8646556811002474</v>
+        <v>0.8646556811002468</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9121354985352713</v>
+        <v>0.9121354985352718</v>
       </c>
       <c r="D22">
-        <v>0.9522910109239831</v>
+        <v>0.9522910109239836</v>
       </c>
       <c r="E22">
-        <v>0.9216145264292308</v>
+        <v>0.921614526429231</v>
       </c>
       <c r="F22">
-        <v>0.8291951139309912</v>
+        <v>0.829195113930991</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014703816878274</v>
       </c>
       <c r="J22">
-        <v>0.9472827404089613</v>
+        <v>0.9472827404089618</v>
       </c>
       <c r="K22">
-        <v>0.9688707807471377</v>
+        <v>0.9688707807471383</v>
       </c>
       <c r="L22">
-        <v>0.9389169907348949</v>
+        <v>0.9389169907348951</v>
       </c>
       <c r="M22">
-        <v>0.8491267365243108</v>
+        <v>0.8491267365243107</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.917304760838447</v>
+        <v>0.917304760838446</v>
       </c>
       <c r="D23">
-        <v>0.9560553374053592</v>
+        <v>0.9560553374053583</v>
       </c>
       <c r="E23">
-        <v>0.926435908378003</v>
+        <v>0.926435908378002</v>
       </c>
       <c r="F23">
-        <v>0.8382973382473173</v>
+        <v>0.8382973382473163</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016436423400677</v>
       </c>
       <c r="J23">
-        <v>0.9513942978731817</v>
+        <v>0.9513942978731806</v>
       </c>
       <c r="K23">
-        <v>0.9722162996703012</v>
+        <v>0.9722162996703003</v>
       </c>
       <c r="L23">
-        <v>0.9432698742900206</v>
+        <v>0.9432698742900197</v>
       </c>
       <c r="M23">
-        <v>0.8575245996214008</v>
+        <v>0.8575245996213999</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9360994486461773</v>
+        <v>0.9360994486461786</v>
       </c>
       <c r="D24">
-        <v>0.9697746552636508</v>
+        <v>0.9697746552636518</v>
       </c>
       <c r="E24">
-        <v>0.9439068692105391</v>
+        <v>0.9439068692105401</v>
       </c>
       <c r="F24">
-        <v>0.8705532862565499</v>
+        <v>0.8705532862565508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022695232799028</v>
+        <v>1.022695232799029</v>
       </c>
       <c r="J24">
-        <v>0.9663003437802533</v>
+        <v>0.9663003437802545</v>
       </c>
       <c r="K24">
-        <v>0.9843542004500477</v>
+        <v>0.984354200450049</v>
       </c>
       <c r="L24">
-        <v>0.958996258631541</v>
+        <v>0.958996258631542</v>
       </c>
       <c r="M24">
-        <v>0.8873115753557484</v>
+        <v>0.8873115753557496</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9554617311335336</v>
+        <v>0.9554617311335328</v>
       </c>
       <c r="D25">
-        <v>0.9839545245559488</v>
+        <v>0.9839545245559482</v>
       </c>
       <c r="E25">
-        <v>0.9618312132238046</v>
+        <v>0.9618312132238039</v>
       </c>
       <c r="F25">
-        <v>0.9026768164703681</v>
+        <v>0.9026768164703678</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029058794457897</v>
       </c>
       <c r="J25">
-        <v>0.9815869210926608</v>
+        <v>0.9815869210926602</v>
       </c>
       <c r="K25">
-        <v>0.996807139782403</v>
+        <v>0.9968071397824027</v>
       </c>
       <c r="L25">
-        <v>0.9750524338235883</v>
+        <v>0.9750524338235877</v>
       </c>
       <c r="M25">
-        <v>0.9170005701323598</v>
+        <v>0.9170005701323592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9694470717956365</v>
+        <v>0.9718425927762103</v>
       </c>
       <c r="D2">
-        <v>0.9942188804021724</v>
+        <v>0.9960149204725051</v>
       </c>
       <c r="E2">
-        <v>0.9747437421477533</v>
+        <v>0.9768390911431158</v>
       </c>
       <c r="F2">
-        <v>0.9253415121608268</v>
+        <v>0.9276965002655093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033585130197616</v>
+        <v>1.034496064855537</v>
       </c>
       <c r="J2">
-        <v>0.99258166543459</v>
+        <v>0.9948993888741298</v>
       </c>
       <c r="K2">
-        <v>1.00575934732838</v>
+        <v>1.007530054402752</v>
       </c>
       <c r="L2">
-        <v>0.9865665230321476</v>
+        <v>0.9886308110406941</v>
       </c>
       <c r="M2">
-        <v>0.9379492135117746</v>
+        <v>0.9402643372464509</v>
+      </c>
+      <c r="N2">
+        <v>0.996312260122886</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9789299179885239</v>
+        <v>0.9812983691166927</v>
       </c>
       <c r="D3">
-        <v>1.001186007730503</v>
+        <v>1.002964887599148</v>
       </c>
       <c r="E3">
-        <v>0.9834865105158193</v>
+        <v>0.9855568842853274</v>
       </c>
       <c r="F3">
-        <v>0.9405029381503728</v>
+        <v>0.9427960585967657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036612324760036</v>
+        <v>1.03751570947982</v>
       </c>
       <c r="J3">
-        <v>1.000011933467479</v>
+        <v>1.00231217647586</v>
       </c>
       <c r="K3">
-        <v>1.011803735825708</v>
+        <v>1.013559972179794</v>
       </c>
       <c r="L3">
-        <v>0.9943351378860648</v>
+        <v>0.9963779651017707</v>
       </c>
       <c r="M3">
-        <v>0.9519582902780616</v>
+        <v>0.9542172674812084</v>
+      </c>
+      <c r="N3">
+        <v>1.003735574733269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9847983554542661</v>
+        <v>0.9871515998169873</v>
       </c>
       <c r="D4">
-        <v>1.00549948041822</v>
+        <v>1.007268805501025</v>
       </c>
       <c r="E4">
-        <v>0.9888926410626191</v>
+        <v>0.9909490570059704</v>
       </c>
       <c r="F4">
-        <v>0.9498140510631258</v>
+        <v>0.9520725715089523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038465838583325</v>
+        <v>1.039365104598226</v>
       </c>
       <c r="J4">
-        <v>1.00459907985535</v>
+        <v>1.006889778845797</v>
       </c>
       <c r="K4">
-        <v>1.015531981627602</v>
+        <v>1.017280286970107</v>
       </c>
       <c r="L4">
-        <v>0.9991269968474987</v>
+        <v>1.001157960499897</v>
       </c>
       <c r="M4">
-        <v>0.9605584496537291</v>
+        <v>0.9627860578263203</v>
+      </c>
+      <c r="N4">
+        <v>1.00831967782363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9872067701209336</v>
+        <v>0.9895540976171524</v>
       </c>
       <c r="D5">
-        <v>1.00726998940494</v>
+        <v>1.009035617162754</v>
       </c>
       <c r="E5">
-        <v>0.9911104645516349</v>
+        <v>0.9931614644447965</v>
       </c>
       <c r="F5">
-        <v>0.9536210317363584</v>
+        <v>0.9558661022741025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039221682705537</v>
+        <v>1.040119375758916</v>
       </c>
       <c r="J5">
-        <v>1.006479033720202</v>
+        <v>1.008766082961655</v>
       </c>
       <c r="K5">
-        <v>1.017059037527257</v>
+        <v>1.018804303676278</v>
       </c>
       <c r="L5">
-        <v>1.001090048747987</v>
+        <v>1.003116439383975</v>
       </c>
       <c r="M5">
-        <v>0.9640738186225057</v>
+        <v>0.9662892416281142</v>
+      </c>
+      <c r="N5">
+        <v>1.010198646506548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.987607855069135</v>
+        <v>0.9899542150823637</v>
       </c>
       <c r="D6">
-        <v>1.007564850374441</v>
+        <v>1.009329874782506</v>
       </c>
       <c r="E6">
-        <v>0.9914797632324824</v>
+        <v>0.9935298783504779</v>
       </c>
       <c r="F6">
-        <v>0.9542542579024121</v>
+        <v>0.9564971293391782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039347270041065</v>
+        <v>1.040244707657783</v>
       </c>
       <c r="J6">
-        <v>1.006791958292963</v>
+        <v>1.009078414471753</v>
       </c>
       <c r="K6">
-        <v>1.017313165761637</v>
+        <v>1.019057937714088</v>
       </c>
       <c r="L6">
-        <v>1.00141676345247</v>
+        <v>1.003442408813454</v>
       </c>
       <c r="M6">
-        <v>0.9646584817485848</v>
+        <v>0.9668719129943445</v>
+      </c>
+      <c r="N6">
+        <v>1.010511421563215</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9848307608213768</v>
+        <v>0.9871839243414018</v>
       </c>
       <c r="D7">
-        <v>1.005523301965543</v>
+        <v>1.007292576448697</v>
       </c>
       <c r="E7">
-        <v>0.9889224852215732</v>
+        <v>0.9909788271076073</v>
       </c>
       <c r="F7">
-        <v>0.949865327622444</v>
+        <v>0.9521236642786219</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038476027823707</v>
+        <v>1.039375272226653</v>
       </c>
       <c r="J7">
-        <v>1.00462438510045</v>
+        <v>1.006915033968265</v>
       </c>
       <c r="K7">
-        <v>1.015552540339559</v>
+        <v>1.017300803968671</v>
       </c>
       <c r="L7">
-        <v>0.9991534235716046</v>
+        <v>1.001184324571631</v>
       </c>
       <c r="M7">
-        <v>0.9606058023334869</v>
+        <v>0.9628332439616882</v>
+      </c>
+      <c r="N7">
+        <v>1.008344968811269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9727107579146254</v>
+        <v>0.9750966004441238</v>
       </c>
       <c r="D8">
-        <v>0.9966162076546262</v>
+        <v>0.9984060928555296</v>
       </c>
       <c r="E8">
-        <v>0.977753758510475</v>
+        <v>0.9798401596371238</v>
       </c>
       <c r="F8">
-        <v>0.9305767657318716</v>
+        <v>0.9329095805015817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034631176959076</v>
+        <v>1.035539384409423</v>
       </c>
       <c r="J8">
-        <v>0.9951413055455025</v>
+        <v>0.9974527144944199</v>
       </c>
       <c r="K8">
-        <v>1.007842210494788</v>
+        <v>1.009607698001449</v>
       </c>
       <c r="L8">
-        <v>0.9892437464665709</v>
+        <v>0.9913003153444547</v>
       </c>
       <c r="M8">
-        <v>0.9427871573287647</v>
+        <v>0.9450821519417727</v>
+      </c>
+      <c r="N8">
+        <v>0.9988692117584277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9490093660022184</v>
+        <v>0.9514751630951447</v>
       </c>
       <c r="D9">
-        <v>0.9792246571820696</v>
+        <v>0.9810658697558421</v>
       </c>
       <c r="E9">
-        <v>0.9558648894850883</v>
+        <v>0.9580257854606552</v>
       </c>
       <c r="F9">
-        <v>0.8920778182248115</v>
+        <v>0.8945963948335511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026949353532064</v>
+        <v>1.027880761107338</v>
       </c>
       <c r="J9">
-        <v>0.9765007839048899</v>
+        <v>0.9788660319531322</v>
       </c>
       <c r="K9">
-        <v>0.9926640398162777</v>
+        <v>0.9944737961492099</v>
       </c>
       <c r="L9">
-        <v>0.9697170572084611</v>
+        <v>0.9718386695078466</v>
       </c>
       <c r="M9">
-        <v>0.9072036007449877</v>
+        <v>0.9096673153596692</v>
+      </c>
+      <c r="N9">
+        <v>0.9802561339960089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9311009844994752</v>
+        <v>0.9336448762603918</v>
       </c>
       <c r="D10">
-        <v>0.9661212539867348</v>
+        <v>0.96801336233371</v>
       </c>
       <c r="E10">
-        <v>0.9392684348770393</v>
+        <v>0.9415032935565711</v>
       </c>
       <c r="F10">
-        <v>0.8620909528956152</v>
+        <v>0.864798137832842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021037570191167</v>
+        <v>1.021992647286118</v>
       </c>
       <c r="J10">
-        <v>0.9623425293020309</v>
+        <v>0.9647631216272182</v>
       </c>
       <c r="K10">
-        <v>0.9811303812404376</v>
+        <v>0.9829852026957719</v>
       </c>
       <c r="L10">
-        <v>0.9548281995772717</v>
+        <v>0.9570156443052342</v>
       </c>
       <c r="M10">
-        <v>0.879493654287164</v>
+        <v>0.8821286247327125</v>
+      </c>
+      <c r="N10">
+        <v>0.9661331959198058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9226753463608189</v>
+        <v>0.9252627531336592</v>
       </c>
       <c r="D11">
-        <v>0.9599705474149919</v>
+        <v>0.9618912494090316</v>
       </c>
       <c r="E11">
-        <v>0.9314370362183405</v>
+        <v>0.9337136006990308</v>
       </c>
       <c r="F11">
-        <v>0.847641302266339</v>
+        <v>0.8504571443400673</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018231753265405</v>
+        <v>1.019200301315109</v>
       </c>
       <c r="J11">
-        <v>0.9556604960175336</v>
+        <v>0.9581127871489953</v>
       </c>
       <c r="K11">
-        <v>0.9756890149826483</v>
+        <v>0.9775694946088983</v>
       </c>
       <c r="L11">
-        <v>0.947779130463275</v>
+        <v>0.9500040718591458</v>
       </c>
       <c r="M11">
-        <v>0.8661494566233283</v>
+        <v>0.8688829884340329</v>
+      </c>
+      <c r="N11">
+        <v>0.9594734172038195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9194240958483333</v>
+        <v>0.9220296724124053</v>
       </c>
       <c r="D12">
-        <v>0.9575998427291024</v>
+        <v>0.9595325268187683</v>
       </c>
       <c r="E12">
-        <v>0.9284103802189738</v>
+        <v>0.9307044614432592</v>
       </c>
       <c r="F12">
-        <v>0.8419978402682479</v>
+        <v>0.8448598430773324</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017145495501697</v>
+        <v>1.018119716468658</v>
       </c>
       <c r="J12">
-        <v>0.9530784805965408</v>
+        <v>0.9555441622204257</v>
       </c>
       <c r="K12">
-        <v>0.9735870849016056</v>
+        <v>0.9754783748741265</v>
       </c>
       <c r="L12">
-        <v>0.9450508705319874</v>
+        <v>0.9472916263083179</v>
       </c>
       <c r="M12">
-        <v>0.8609398640497408</v>
+        <v>0.8637152409378486</v>
+      </c>
+      <c r="N12">
+        <v>0.9569011445332259</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9201274158545543</v>
+        <v>0.922728992056834</v>
       </c>
       <c r="D13">
-        <v>0.9581125486453959</v>
+        <v>0.9600425926275326</v>
       </c>
       <c r="E13">
-        <v>0.9290653532582115</v>
+        <v>0.9313555727598081</v>
       </c>
       <c r="F13">
-        <v>0.8432220313070304</v>
+        <v>0.8460738306461482</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017380636516933</v>
+        <v>1.01835360624545</v>
       </c>
       <c r="J13">
-        <v>0.953637200641226</v>
+        <v>0.9560999267632042</v>
       </c>
       <c r="K13">
-        <v>0.9740418818604708</v>
+        <v>0.9759307871736796</v>
       </c>
       <c r="L13">
-        <v>0.9456414568162144</v>
+        <v>0.9478787230840843</v>
       </c>
       <c r="M13">
-        <v>0.8620698261227607</v>
+        <v>0.8648359549066132</v>
+      </c>
+      <c r="N13">
+        <v>0.9574576983254025</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9224092234613662</v>
+        <v>0.92499808699437</v>
       </c>
       <c r="D14">
-        <v>0.9597764412951811</v>
+        <v>0.9616981030572855</v>
       </c>
       <c r="E14">
-        <v>0.9311894009094412</v>
+        <v>0.9334673675811079</v>
       </c>
       <c r="F14">
-        <v>0.8471808518381483</v>
+        <v>0.8500003774983733</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018142911515133</v>
+        <v>1.019111913405424</v>
       </c>
       <c r="J14">
-        <v>0.9554492272156035</v>
+        <v>0.9579025887205064</v>
       </c>
       <c r="K14">
-        <v>0.975517012078555</v>
+        <v>0.9773983564237019</v>
       </c>
       <c r="L14">
-        <v>0.9475559920473039</v>
+        <v>0.9497821980184045</v>
       </c>
       <c r="M14">
-        <v>0.8657243568159954</v>
+        <v>0.8684612284304245</v>
+      </c>
+      <c r="N14">
+        <v>0.9592629202694521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9237982654975363</v>
+        <v>0.9263795835327998</v>
       </c>
       <c r="D15">
-        <v>0.9607897006839908</v>
+        <v>0.9627063929099093</v>
       </c>
       <c r="E15">
-        <v>0.9324817474865043</v>
+        <v>0.9347524554950738</v>
       </c>
       <c r="F15">
-        <v>0.8495813546258716</v>
+        <v>0.8523818332009874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018606482661072</v>
+        <v>1.019573135733365</v>
       </c>
       <c r="J15">
-        <v>0.9565518079279299</v>
+        <v>0.9589996314760343</v>
       </c>
       <c r="K15">
-        <v>0.976414699679288</v>
+        <v>0.9782915689576462</v>
       </c>
       <c r="L15">
-        <v>0.9487203331763759</v>
+        <v>0.9509399954812414</v>
       </c>
       <c r="M15">
-        <v>0.8679406545599404</v>
+        <v>0.8706602556089936</v>
+      </c>
+      <c r="N15">
+        <v>0.9603615209515255</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9316444065597557</v>
+        <v>0.9341856555696252</v>
       </c>
       <c r="D16">
-        <v>0.9665182855022667</v>
+        <v>0.9684086622293302</v>
       </c>
       <c r="E16">
-        <v>0.9397729710093389</v>
+        <v>0.9420053080539764</v>
       </c>
       <c r="F16">
-        <v>0.8630147430118674</v>
+        <v>0.8657154136479951</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021218047453626</v>
+        <v>1.02217231214307</v>
       </c>
       <c r="J16">
-        <v>0.9627730397766678</v>
+        <v>0.965191724973939</v>
       </c>
       <c r="K16">
-        <v>0.9814810269719603</v>
+        <v>0.9833343014879236</v>
       </c>
       <c r="L16">
-        <v>0.9552818257780831</v>
+        <v>0.95746701104826</v>
       </c>
       <c r="M16">
-        <v>0.8803470022703119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8829760610468919</v>
+      </c>
+      <c r="N16">
+        <v>0.9665624079324403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9363737437530236</v>
+        <v>0.9388927650767184</v>
       </c>
       <c r="D17">
-        <v>0.9699752317241169</v>
+        <v>0.971851068087906</v>
       </c>
       <c r="E17">
-        <v>0.9441612589533119</v>
+        <v>0.9463724384199721</v>
       </c>
       <c r="F17">
-        <v>0.8710154568582982</v>
+        <v>0.8736617118320594</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022786039328687</v>
+        <v>1.023733499713853</v>
       </c>
       <c r="J17">
-        <v>0.9665173974892917</v>
+        <v>0.9689201304418036</v>
       </c>
       <c r="K17">
-        <v>0.9845310131303426</v>
+        <v>0.9863713326106025</v>
       </c>
       <c r="L17">
-        <v>0.9592246989352754</v>
+        <v>0.9613909645228021</v>
       </c>
       <c r="M17">
-        <v>0.887738603728217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8903182702241818</v>
+      </c>
+      <c r="N17">
+        <v>0.9702961081637235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9390692144070982</v>
+        <v>0.9415761592820725</v>
       </c>
       <c r="D18">
-        <v>0.9719467744424111</v>
+        <v>0.9738147297093542</v>
       </c>
       <c r="E18">
-        <v>0.9466603392452594</v>
+        <v>0.9488600624126606</v>
       </c>
       <c r="F18">
-        <v>0.8755454231604244</v>
+        <v>0.87816239025068</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023677467203378</v>
+        <v>1.024621253638504</v>
       </c>
       <c r="J18">
-        <v>0.9686496144373764</v>
+        <v>0.971043749736116</v>
       </c>
       <c r="K18">
-        <v>0.9862679746165111</v>
+        <v>0.9881012997292611</v>
       </c>
       <c r="L18">
-        <v>0.9614680090546249</v>
+        <v>0.9636240602439879</v>
       </c>
       <c r="M18">
-        <v>0.891924374997781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8944774501017536</v>
+      </c>
+      <c r="N18">
+        <v>0.9724227432410163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9399781272500257</v>
+        <v>0.9424810924921605</v>
       </c>
       <c r="D19">
-        <v>0.9726117791941946</v>
+        <v>0.9744771403932531</v>
       </c>
       <c r="E19">
-        <v>0.9475027165077983</v>
+        <v>0.9496986704185594</v>
       </c>
       <c r="F19">
-        <v>0.8770682160135478</v>
+        <v>0.8796755735218669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023977672860146</v>
+        <v>1.024920252366215</v>
       </c>
       <c r="J19">
-        <v>0.9693682912392811</v>
+        <v>0.9717596045390261</v>
       </c>
       <c r="K19">
-        <v>0.9868534448875348</v>
+        <v>0.9886844723088711</v>
       </c>
       <c r="L19">
-        <v>0.9622238246456287</v>
+        <v>0.9643765201049609</v>
       </c>
       <c r="M19">
-        <v>0.8933315588160147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8958759080860943</v>
+      </c>
+      <c r="N19">
+        <v>0.9731396146398561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9358729829779783</v>
+        <v>0.9383942940846586</v>
       </c>
       <c r="D20">
-        <v>0.9696090609059222</v>
+        <v>0.9714863931116187</v>
       </c>
       <c r="E20">
-        <v>0.943696826664543</v>
+        <v>0.9459101814161036</v>
       </c>
       <c r="F20">
-        <v>0.8701715363951378</v>
+        <v>0.8728233663188852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022620247605433</v>
+        <v>1.023568406477046</v>
       </c>
       <c r="J20">
-        <v>0.9661211276173843</v>
+        <v>0.9685254963936853</v>
       </c>
       <c r="K20">
-        <v>0.9842082111864414</v>
+        <v>0.9860498604596855</v>
       </c>
       <c r="L20">
-        <v>0.958807629838719</v>
+        <v>0.9609758373716589</v>
       </c>
       <c r="M20">
-        <v>0.8869588565303294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8895435841542424</v>
+      </c>
+      <c r="N20">
+        <v>0.9699009136899915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9217408476052232</v>
+        <v>0.9243333934328111</v>
       </c>
       <c r="D21">
-        <v>0.9592889831600333</v>
+        <v>0.9612130716576492</v>
       </c>
       <c r="E21">
-        <v>0.9305673766616624</v>
+        <v>0.9328488894133465</v>
       </c>
       <c r="F21">
-        <v>0.8460232662096612</v>
+        <v>0.8488521164256511</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017919726116237</v>
+        <v>1.018889875969909</v>
       </c>
       <c r="J21">
-        <v>0.954918559886839</v>
+        <v>0.9573746295294369</v>
       </c>
       <c r="K21">
-        <v>0.9750849855960152</v>
+        <v>0.9769685172905562</v>
       </c>
       <c r="L21">
-        <v>0.9469954354581144</v>
+        <v>0.949224840545787</v>
       </c>
       <c r="M21">
-        <v>0.8646556811002468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.867401006561653</v>
+      </c>
+      <c r="N21">
+        <v>0.9587342113157733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9121354985352718</v>
+        <v>0.9147849742829333</v>
       </c>
       <c r="D22">
-        <v>0.9522910109239836</v>
+        <v>0.9542527404227433</v>
       </c>
       <c r="E22">
-        <v>0.921614526429231</v>
+        <v>0.9239511745447514</v>
       </c>
       <c r="F22">
-        <v>0.829195113930991</v>
+        <v>0.8321706016766767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014703816878274</v>
+        <v>1.015691846818841</v>
       </c>
       <c r="J22">
-        <v>0.9472827404089618</v>
+        <v>0.9497811139763943</v>
       </c>
       <c r="K22">
-        <v>0.9688707807471383</v>
+        <v>0.9707884000938033</v>
       </c>
       <c r="L22">
-        <v>0.9389169907348951</v>
+        <v>0.9411963180344792</v>
       </c>
       <c r="M22">
-        <v>0.8491267365243107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8520049168875745</v>
+      </c>
+      <c r="N22">
+        <v>0.9511299120996572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.917304760838446</v>
+        <v>0.9199226335610747</v>
       </c>
       <c r="D23">
-        <v>0.9560553374053583</v>
+        <v>0.9579961436930104</v>
       </c>
       <c r="E23">
-        <v>0.926435908378002</v>
+        <v>0.9287418777142019</v>
       </c>
       <c r="F23">
-        <v>0.8382973382473163</v>
+        <v>0.8411908478296204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016436423400677</v>
+        <v>1.017414498078621</v>
       </c>
       <c r="J23">
-        <v>0.9513942978731806</v>
+        <v>0.953869089358131</v>
       </c>
       <c r="K23">
-        <v>0.9722162996703003</v>
+        <v>0.9741149352727488</v>
       </c>
       <c r="L23">
-        <v>0.9432698742900197</v>
+        <v>0.9455213828958249</v>
       </c>
       <c r="M23">
-        <v>0.8575245996213999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8603285280914003</v>
+      </c>
+      <c r="N23">
+        <v>0.9552236928753334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9360994486461786</v>
+        <v>0.9386197223899843</v>
       </c>
       <c r="D24">
-        <v>0.9697746552636518</v>
+        <v>0.9716513097340768</v>
       </c>
       <c r="E24">
-        <v>0.9439068692105401</v>
+        <v>0.9461192383497677</v>
       </c>
       <c r="F24">
-        <v>0.8705532862565508</v>
+        <v>0.8732025896411355</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022695232799029</v>
+        <v>1.023643075156006</v>
       </c>
       <c r="J24">
-        <v>0.9663003437802545</v>
+        <v>0.9687039712441911</v>
       </c>
       <c r="K24">
-        <v>0.984354200450049</v>
+        <v>0.9861952471343463</v>
       </c>
       <c r="L24">
-        <v>0.958996258631542</v>
+        <v>0.9611635861817814</v>
       </c>
       <c r="M24">
-        <v>0.8873115753557496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8898940093244215</v>
+      </c>
+      <c r="N24">
+        <v>0.9700796419952564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9554617311335328</v>
+        <v>0.9579034116897877</v>
       </c>
       <c r="D25">
-        <v>0.9839545245559482</v>
+        <v>0.9857801538106242</v>
       </c>
       <c r="E25">
-        <v>0.9618312132238039</v>
+        <v>0.9639695044502742</v>
       </c>
       <c r="F25">
-        <v>0.9026768164703678</v>
+        <v>0.9051386744941895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029058794457897</v>
+        <v>1.029983065008502</v>
       </c>
       <c r="J25">
-        <v>0.9815869210926602</v>
+        <v>0.9839355697369381</v>
       </c>
       <c r="K25">
-        <v>0.9968071397824027</v>
+        <v>0.9986032997631924</v>
       </c>
       <c r="L25">
-        <v>0.9750524338235877</v>
+        <v>0.9771541441410744</v>
       </c>
       <c r="M25">
-        <v>0.9170005701323592</v>
+        <v>0.9194127601837262</v>
+      </c>
+      <c r="N25">
+        <v>0.9853328711049517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9718425927762103</v>
+        <v>1.006803515540075</v>
       </c>
       <c r="D2">
-        <v>0.9960149204725051</v>
+        <v>1.027595045208485</v>
       </c>
       <c r="E2">
-        <v>0.9768390911431158</v>
+        <v>1.009867759219358</v>
       </c>
       <c r="F2">
-        <v>0.9276965002655093</v>
+        <v>1.028393802976793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034496064855537</v>
+        <v>1.049992819019462</v>
       </c>
       <c r="J2">
-        <v>0.9948993888741298</v>
+        <v>1.028782621543517</v>
       </c>
       <c r="K2">
-        <v>1.007530054402752</v>
+        <v>1.038682871128147</v>
       </c>
       <c r="L2">
-        <v>0.9886308110406941</v>
+        <v>1.021191311181749</v>
       </c>
       <c r="M2">
-        <v>0.9402643372464509</v>
+        <v>1.039471247105761</v>
       </c>
       <c r="N2">
-        <v>0.996312260122886</v>
+        <v>1.030243610869124</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9812983691166927</v>
+        <v>1.015756988721732</v>
       </c>
       <c r="D3">
-        <v>1.002964887599148</v>
+        <v>1.034882391339888</v>
       </c>
       <c r="E3">
-        <v>0.9855568842853274</v>
+        <v>1.017642072433212</v>
       </c>
       <c r="F3">
-        <v>0.9427960585967657</v>
+        <v>1.03668666134396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03751570947982</v>
+        <v>1.053484149473671</v>
       </c>
       <c r="J3">
-        <v>1.00231217647586</v>
+        <v>1.035827128413314</v>
       </c>
       <c r="K3">
-        <v>1.013559972179794</v>
+        <v>1.045087582622461</v>
       </c>
       <c r="L3">
-        <v>0.9963779651017707</v>
+        <v>1.028054088331043</v>
       </c>
       <c r="M3">
-        <v>0.9542172674812084</v>
+        <v>1.046870699646821</v>
       </c>
       <c r="N3">
-        <v>1.003735574733269</v>
+        <v>1.037298121746693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9871515998169873</v>
+        <v>1.021340658007247</v>
       </c>
       <c r="D4">
-        <v>1.007268805501025</v>
+        <v>1.039430423349733</v>
       </c>
       <c r="E4">
-        <v>0.9909490570059704</v>
+        <v>1.022490558802167</v>
       </c>
       <c r="F4">
-        <v>0.9520725715089523</v>
+        <v>1.04186789285248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039365104598226</v>
+        <v>1.055646351068375</v>
       </c>
       <c r="J4">
-        <v>1.006889778845797</v>
+        <v>1.04021378457924</v>
       </c>
       <c r="K4">
-        <v>1.017280286970107</v>
+        <v>1.049075155789515</v>
       </c>
       <c r="L4">
-        <v>1.001157960499897</v>
+        <v>1.032324913783718</v>
       </c>
       <c r="M4">
-        <v>0.9627860578263203</v>
+        <v>1.051485963674344</v>
       </c>
       <c r="N4">
-        <v>1.00831967782363</v>
+        <v>1.041691007467531</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9895540976171524</v>
+        <v>1.023641184841873</v>
       </c>
       <c r="D5">
-        <v>1.009035617162754</v>
+        <v>1.041304941390935</v>
       </c>
       <c r="E5">
-        <v>0.9931614644447965</v>
+        <v>1.024488134595014</v>
       </c>
       <c r="F5">
-        <v>0.9558661022741025</v>
+        <v>1.044004767774984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040119375758916</v>
+        <v>1.056533504966818</v>
       </c>
       <c r="J5">
-        <v>1.008766082961655</v>
+        <v>1.042019496060262</v>
       </c>
       <c r="K5">
-        <v>1.018804303676278</v>
+        <v>1.050716395948879</v>
       </c>
       <c r="L5">
-        <v>1.003116439383975</v>
+        <v>1.034082303837692</v>
       </c>
       <c r="M5">
-        <v>0.9662892416281142</v>
+        <v>1.05338755977267</v>
       </c>
       <c r="N5">
-        <v>1.010198646506548</v>
+        <v>1.043499283265974</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9899542150823637</v>
+        <v>1.024024798105797</v>
       </c>
       <c r="D6">
-        <v>1.009329874782506</v>
+        <v>1.041617554150518</v>
       </c>
       <c r="E6">
-        <v>0.9935298783504779</v>
+        <v>1.024821225377656</v>
       </c>
       <c r="F6">
-        <v>0.9564971293391782</v>
+        <v>1.044361215278892</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040244707657783</v>
+        <v>1.056681218704605</v>
       </c>
       <c r="J6">
-        <v>1.009078414471753</v>
+        <v>1.042320500721676</v>
       </c>
       <c r="K6">
-        <v>1.019057937714088</v>
+        <v>1.050989971649729</v>
       </c>
       <c r="L6">
-        <v>1.003442408813454</v>
+        <v>1.034375215756422</v>
       </c>
       <c r="M6">
-        <v>0.9668719129943445</v>
+        <v>1.05370465177932</v>
       </c>
       <c r="N6">
-        <v>1.010511421563215</v>
+        <v>1.043800715388533</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9871839243414018</v>
+        <v>1.021371577627839</v>
       </c>
       <c r="D7">
-        <v>1.007292576448697</v>
+        <v>1.039455614771039</v>
       </c>
       <c r="E7">
-        <v>0.9909788271076073</v>
+        <v>1.02251740699595</v>
       </c>
       <c r="F7">
-        <v>0.9521236642786219</v>
+        <v>1.041896604573411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039375272226653</v>
+        <v>1.055658289358074</v>
       </c>
       <c r="J7">
-        <v>1.006915033968265</v>
+        <v>1.0402380603297</v>
       </c>
       <c r="K7">
-        <v>1.017300803968671</v>
+        <v>1.049097221217019</v>
       </c>
       <c r="L7">
-        <v>1.001184324571631</v>
+        <v>1.032348542450949</v>
       </c>
       <c r="M7">
-        <v>0.9628332439616882</v>
+        <v>1.05151152147043</v>
       </c>
       <c r="N7">
-        <v>1.008344968811269</v>
+        <v>1.041715317692341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9750966004441238</v>
+        <v>1.009874985274694</v>
       </c>
       <c r="D8">
-        <v>0.9984060928555296</v>
+        <v>1.030094142729808</v>
       </c>
       <c r="E8">
-        <v>0.9798401596371238</v>
+        <v>1.012534623318756</v>
       </c>
       <c r="F8">
-        <v>0.9329095805015817</v>
+        <v>1.031236540201374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035539384409423</v>
+        <v>1.051193669371074</v>
       </c>
       <c r="J8">
-        <v>0.9974527144944199</v>
+        <v>1.031200562289607</v>
       </c>
       <c r="K8">
-        <v>1.009607698001449</v>
+        <v>1.040881334020912</v>
       </c>
       <c r="L8">
-        <v>0.9913003153444547</v>
+        <v>1.023547440410866</v>
       </c>
       <c r="M8">
-        <v>0.9450821519417727</v>
+        <v>1.042009384610552</v>
       </c>
       <c r="N8">
-        <v>0.9988692117584277</v>
+        <v>1.032664985368415</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9514751630951447</v>
+        <v>0.9878353617052612</v>
       </c>
       <c r="D9">
-        <v>0.9810658697558421</v>
+        <v>1.012183089888828</v>
       </c>
       <c r="E9">
-        <v>0.9580257854606552</v>
+        <v>0.9934035253189286</v>
       </c>
       <c r="F9">
-        <v>0.8945963948335511</v>
+        <v>1.010886543330197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027880761107338</v>
+        <v>1.042513898238463</v>
       </c>
       <c r="J9">
-        <v>0.9788660319531322</v>
+        <v>1.013825120796594</v>
       </c>
       <c r="K9">
-        <v>0.9944737961492099</v>
+        <v>1.02508154972097</v>
       </c>
       <c r="L9">
-        <v>0.9718386695078466</v>
+        <v>1.006604540109268</v>
       </c>
       <c r="M9">
-        <v>0.9096673153596692</v>
+        <v>1.023805429156253</v>
       </c>
       <c r="N9">
-        <v>0.9802561339960089</v>
+        <v>1.015264868755491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336448762603918</v>
+        <v>0.9716584335586101</v>
       </c>
       <c r="D10">
-        <v>0.96801336233371</v>
+        <v>0.9990728848360969</v>
       </c>
       <c r="E10">
-        <v>0.9415032935565711</v>
+        <v>0.9793742625490757</v>
       </c>
       <c r="F10">
-        <v>0.864798137832842</v>
+        <v>0.996020955446004</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021992647286118</v>
+        <v>1.03606592184832</v>
       </c>
       <c r="J10">
-        <v>0.9647631216272182</v>
+        <v>1.001043459770165</v>
       </c>
       <c r="K10">
-        <v>0.9829852026957719</v>
+        <v>1.013458898834008</v>
       </c>
       <c r="L10">
-        <v>0.9570156443052342</v>
+        <v>0.9941261819603052</v>
       </c>
       <c r="M10">
-        <v>0.8821286247327125</v>
+        <v>1.01046242634964</v>
       </c>
       <c r="N10">
-        <v>0.9661331959198058</v>
+        <v>1.002465056304328</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9252627531336592</v>
+        <v>0.9642217245146795</v>
       </c>
       <c r="D11">
-        <v>0.9618912494090316</v>
+        <v>0.9930579342320597</v>
       </c>
       <c r="E11">
-        <v>0.9337136006990308</v>
+        <v>0.9729302502172962</v>
       </c>
       <c r="F11">
-        <v>0.8504571443400673</v>
+        <v>0.9892073650368552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019200301315109</v>
+        <v>1.033084942684826</v>
       </c>
       <c r="J11">
-        <v>0.9581127871489953</v>
+        <v>0.9951625713486179</v>
       </c>
       <c r="K11">
-        <v>0.9775694946088983</v>
+        <v>1.008111966051314</v>
       </c>
       <c r="L11">
-        <v>0.9500040718591458</v>
+        <v>0.9883813781420902</v>
       </c>
       <c r="M11">
-        <v>0.8688829884340329</v>
+        <v>1.004335725702634</v>
       </c>
       <c r="N11">
-        <v>0.9594734172038195</v>
+        <v>0.9965758163466754</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9220296724124053</v>
+        <v>0.961386130794493</v>
       </c>
       <c r="D12">
-        <v>0.9595325268187683</v>
+        <v>0.9907665828880912</v>
       </c>
       <c r="E12">
-        <v>0.9307044614432592</v>
+        <v>0.9704742204458134</v>
       </c>
       <c r="F12">
-        <v>0.8448598430773324</v>
+        <v>0.9866127525425563</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018119716468658</v>
+        <v>1.031945943541707</v>
       </c>
       <c r="J12">
-        <v>0.9555441622204257</v>
+        <v>0.9929196271787977</v>
       </c>
       <c r="K12">
-        <v>0.9754783748741265</v>
+        <v>1.006072844652475</v>
       </c>
       <c r="L12">
-        <v>0.9472916263083179</v>
+        <v>0.9861898252195991</v>
       </c>
       <c r="M12">
-        <v>0.8637152409378486</v>
+        <v>1.002001005290438</v>
       </c>
       <c r="N12">
-        <v>0.9569011445332259</v>
+        <v>0.9943296869388648</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.922728992056834</v>
+        <v>0.9619978424063043</v>
       </c>
       <c r="D13">
-        <v>0.9600425926275326</v>
+        <v>0.9912607852399005</v>
       </c>
       <c r="E13">
-        <v>0.9313555727598081</v>
+        <v>0.9710039984597695</v>
       </c>
       <c r="F13">
-        <v>0.8460738306461482</v>
+        <v>0.9871723194260639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01835360624545</v>
+        <v>1.032191759014843</v>
       </c>
       <c r="J13">
-        <v>0.9560999267632042</v>
+        <v>0.9934035118324297</v>
       </c>
       <c r="K13">
-        <v>0.9759307871736796</v>
+        <v>1.006512748207993</v>
       </c>
       <c r="L13">
-        <v>0.9478787230840843</v>
+        <v>0.9866626457378497</v>
       </c>
       <c r="M13">
-        <v>0.8648359549066132</v>
+        <v>1.002504598546405</v>
       </c>
       <c r="N13">
-        <v>0.9574576983254025</v>
+        <v>0.994814258764207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.92499808699437</v>
+        <v>0.9639888821094109</v>
       </c>
       <c r="D14">
-        <v>0.9616981030572855</v>
+        <v>0.9928697366347349</v>
       </c>
       <c r="E14">
-        <v>0.9334673675811079</v>
+        <v>0.9727285525763389</v>
       </c>
       <c r="F14">
-        <v>0.8500003774983733</v>
+        <v>0.9889942399208601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019111913405424</v>
+        <v>1.032991461481169</v>
       </c>
       <c r="J14">
-        <v>0.9579025887205064</v>
+        <v>0.9949784044895117</v>
       </c>
       <c r="K14">
-        <v>0.9773983564237019</v>
+        <v>1.007944530990899</v>
       </c>
       <c r="L14">
-        <v>0.9497821980184045</v>
+        <v>0.9882014412501574</v>
       </c>
       <c r="M14">
-        <v>0.8684612284304245</v>
+        <v>1.0041439825457</v>
       </c>
       <c r="N14">
-        <v>0.9592629202694521</v>
+        <v>0.996391387949505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9263795835327998</v>
+        <v>0.9652056416864153</v>
       </c>
       <c r="D15">
-        <v>0.9627063929099093</v>
+        <v>0.9938532852254227</v>
       </c>
       <c r="E15">
-        <v>0.9347524554950738</v>
+        <v>0.9737826037805158</v>
       </c>
       <c r="F15">
-        <v>0.8523818332009874</v>
+        <v>0.990108102711175</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019573135733365</v>
+        <v>1.033479869551484</v>
       </c>
       <c r="J15">
-        <v>0.9589996314760343</v>
+        <v>0.9959407789194989</v>
       </c>
       <c r="K15">
-        <v>0.9782915689576462</v>
+        <v>1.008819479967587</v>
       </c>
       <c r="L15">
-        <v>0.9509399954812414</v>
+        <v>0.9891416911203528</v>
       </c>
       <c r="M15">
-        <v>0.8706602556089936</v>
+        <v>1.005146028032023</v>
       </c>
       <c r="N15">
-        <v>0.9603615209515255</v>
+        <v>0.9973551290615688</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9341856555696252</v>
+        <v>0.9721422021165241</v>
       </c>
       <c r="D16">
-        <v>0.9684086622293302</v>
+        <v>0.9994644384095409</v>
       </c>
       <c r="E16">
-        <v>0.9420053080539764</v>
+        <v>0.9797935848423548</v>
       </c>
       <c r="F16">
-        <v>0.8657154136479951</v>
+        <v>0.9964646333699503</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02217231214307</v>
+        <v>1.036259506710319</v>
       </c>
       <c r="J16">
-        <v>0.965191724973939</v>
+        <v>1.001425930661595</v>
       </c>
       <c r="K16">
-        <v>0.9833343014879236</v>
+        <v>1.013806663123148</v>
       </c>
       <c r="L16">
-        <v>0.95746701104826</v>
+        <v>0.9944997319434529</v>
       </c>
       <c r="M16">
-        <v>0.8829760610468919</v>
+        <v>1.010861148287503</v>
       </c>
       <c r="N16">
-        <v>0.9665624079324403</v>
+        <v>1.002848070348294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9388927650767184</v>
+        <v>0.9763722226929675</v>
       </c>
       <c r="D17">
-        <v>0.971851068087906</v>
+        <v>1.002889512322969</v>
       </c>
       <c r="E17">
-        <v>0.9463724384199721</v>
+        <v>0.9834607216270178</v>
       </c>
       <c r="F17">
-        <v>0.8736617118320594</v>
+        <v>1.000346409214927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023733499713853</v>
+        <v>1.037950331973007</v>
       </c>
       <c r="J17">
-        <v>0.9689201304418036</v>
+        <v>1.004769671291891</v>
       </c>
       <c r="K17">
-        <v>0.9863713326106025</v>
+        <v>1.016847066897206</v>
       </c>
       <c r="L17">
-        <v>0.9613909645228021</v>
+        <v>0.9977650949981092</v>
       </c>
       <c r="M17">
-        <v>0.8903182702241818</v>
+        <v>1.014348367347935</v>
       </c>
       <c r="N17">
-        <v>0.9702961081637235</v>
+        <v>1.006196559473817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9415761592820725</v>
+        <v>0.978798479926866</v>
       </c>
       <c r="D18">
-        <v>0.9738147297093542</v>
+        <v>1.004855156197328</v>
       </c>
       <c r="E18">
-        <v>0.9488600624126606</v>
+        <v>0.9855646040152355</v>
       </c>
       <c r="F18">
-        <v>0.87816239025068</v>
+        <v>1.002574782855031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024621253638504</v>
+        <v>1.038918584223363</v>
       </c>
       <c r="J18">
-        <v>0.971043749736116</v>
+        <v>1.006687096018779</v>
       </c>
       <c r="K18">
-        <v>0.9881012997292611</v>
+        <v>1.018590606302438</v>
       </c>
       <c r="L18">
-        <v>0.9636240602439879</v>
+        <v>0.9996372519599809</v>
       </c>
       <c r="M18">
-        <v>0.8944774501017536</v>
+        <v>1.016349219708614</v>
       </c>
       <c r="N18">
-        <v>0.9724227432410163</v>
+        <v>1.008116707163749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9424810924921605</v>
+        <v>0.9796190393416019</v>
       </c>
       <c r="D19">
-        <v>0.9744771403932531</v>
+        <v>1.005520111972507</v>
       </c>
       <c r="E19">
-        <v>0.9496986704185594</v>
+        <v>0.9862762120887497</v>
       </c>
       <c r="F19">
-        <v>0.8796755735218669</v>
+        <v>1.003328724969601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024920252366215</v>
+        <v>1.039245775872551</v>
       </c>
       <c r="J19">
-        <v>0.9717596045390261</v>
+        <v>1.00733548244062</v>
       </c>
       <c r="K19">
-        <v>0.9886844723088711</v>
+        <v>1.019180200710216</v>
       </c>
       <c r="L19">
-        <v>0.9643765201049609</v>
+        <v>1.000270275812827</v>
       </c>
       <c r="M19">
-        <v>0.8958759080860943</v>
+        <v>1.017026010211642</v>
       </c>
       <c r="N19">
-        <v>0.9731396146398561</v>
+        <v>1.008766014368681</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9383942940846586</v>
+        <v>0.9759226823191953</v>
       </c>
       <c r="D20">
-        <v>0.9714863931116187</v>
+        <v>1.002525401213848</v>
       </c>
       <c r="E20">
-        <v>0.9459101814161036</v>
+        <v>0.983070949071621</v>
       </c>
       <c r="F20">
-        <v>0.8728233663188852</v>
+        <v>0.9999336819943122</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023568406477046</v>
+        <v>1.037770804164525</v>
       </c>
       <c r="J20">
-        <v>0.9685254963936853</v>
+        <v>1.004414368058748</v>
       </c>
       <c r="K20">
-        <v>0.9860498604596855</v>
+        <v>1.016523989364534</v>
       </c>
       <c r="L20">
-        <v>0.9609758373716589</v>
+        <v>0.9974181536901395</v>
       </c>
       <c r="M20">
-        <v>0.8895435841542424</v>
+        <v>1.013977697624555</v>
       </c>
       <c r="N20">
-        <v>0.9699009136899915</v>
+        <v>1.005840751669329</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9243333934328111</v>
+        <v>0.9634046681937433</v>
       </c>
       <c r="D21">
-        <v>0.9612130716576492</v>
+        <v>0.992397574324854</v>
       </c>
       <c r="E21">
-        <v>0.9328488894133465</v>
+        <v>0.9722225002987643</v>
       </c>
       <c r="F21">
-        <v>0.8488521164256511</v>
+        <v>0.9884595533568498</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018889875969909</v>
+        <v>1.032756874886494</v>
       </c>
       <c r="J21">
-        <v>0.9573746295294369</v>
+        <v>0.9945163114330696</v>
       </c>
       <c r="K21">
-        <v>0.9769685172905562</v>
+        <v>1.007524422748801</v>
       </c>
       <c r="L21">
-        <v>0.949224840545787</v>
+        <v>0.9877499534472898</v>
       </c>
       <c r="M21">
-        <v>0.867401006561653</v>
+        <v>1.003662911880631</v>
       </c>
       <c r="N21">
-        <v>0.9587342113157733</v>
+        <v>0.9959286386679198</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9147849742829333</v>
+        <v>0.9551048071531771</v>
       </c>
       <c r="D22">
-        <v>0.9542527404227433</v>
+        <v>0.9856952149057772</v>
       </c>
       <c r="E22">
-        <v>0.9239511745447514</v>
+        <v>0.9650359514723822</v>
       </c>
       <c r="F22">
-        <v>0.8321706016766767</v>
+        <v>0.9808719467696555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015691846818841</v>
+        <v>1.029418695582478</v>
       </c>
       <c r="J22">
-        <v>0.9497811139763943</v>
+        <v>0.9879502717967197</v>
       </c>
       <c r="K22">
-        <v>0.9707884000938033</v>
+        <v>1.00155548032602</v>
       </c>
       <c r="L22">
-        <v>0.9411963180344792</v>
+        <v>0.9813333985751658</v>
       </c>
       <c r="M22">
-        <v>0.8520049168875745</v>
+        <v>0.9968321023513402</v>
       </c>
       <c r="N22">
-        <v>0.9511299120996572</v>
+        <v>0.9893532745021512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9199226335610747</v>
+        <v>0.9595486399277973</v>
       </c>
       <c r="D23">
-        <v>0.9579961436930104</v>
+        <v>0.9892824136488679</v>
       </c>
       <c r="E23">
-        <v>0.9287418777142019</v>
+        <v>0.9688830212665959</v>
       </c>
       <c r="F23">
-        <v>0.8411908478296204</v>
+        <v>0.9849324229735159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017414498078621</v>
+        <v>1.031207217880502</v>
       </c>
       <c r="J23">
-        <v>0.953869089358131</v>
+        <v>0.9914660396725182</v>
       </c>
       <c r="K23">
-        <v>0.9741149352727488</v>
+        <v>1.004751407826244</v>
       </c>
       <c r="L23">
-        <v>0.9455213828958249</v>
+        <v>0.9847694004182059</v>
       </c>
       <c r="M23">
-        <v>0.8603285280914003</v>
+        <v>1.00048851176648</v>
       </c>
       <c r="N23">
-        <v>0.9552236928753334</v>
+        <v>0.9928740351715977</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9386197223899843</v>
+        <v>0.9761259364839219</v>
       </c>
       <c r="D24">
-        <v>0.9716513097340768</v>
+        <v>1.002690026221299</v>
       </c>
       <c r="E24">
-        <v>0.9461192383497677</v>
+        <v>0.9832471784602077</v>
       </c>
       <c r="F24">
-        <v>0.8732025896411355</v>
+        <v>1.000120285770373</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023643075156006</v>
+        <v>1.037851980364384</v>
       </c>
       <c r="J24">
-        <v>0.9687039712441911</v>
+        <v>1.004575015561409</v>
       </c>
       <c r="K24">
-        <v>0.9861952471343463</v>
+        <v>1.016670066096161</v>
       </c>
       <c r="L24">
-        <v>0.9611635861817814</v>
+        <v>0.9975750214218921</v>
       </c>
       <c r="M24">
-        <v>0.8898940093244215</v>
+        <v>1.014145289384759</v>
       </c>
       <c r="N24">
-        <v>0.9700796419952564</v>
+        <v>1.006001627309871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9579034116897877</v>
+        <v>0.9937710343836987</v>
       </c>
       <c r="D25">
-        <v>0.9857801538106242</v>
+        <v>1.017001680786606</v>
       </c>
       <c r="E25">
-        <v>0.9639695044502742</v>
+        <v>0.9985543776974999</v>
       </c>
       <c r="F25">
-        <v>0.9051386744941895</v>
+        <v>1.016356150829145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029983065008502</v>
+        <v>1.044864923595176</v>
       </c>
       <c r="J25">
-        <v>0.9839355697369381</v>
+        <v>1.018509861985808</v>
       </c>
       <c r="K25">
-        <v>0.9986032997631924</v>
+        <v>1.029341678521552</v>
       </c>
       <c r="L25">
-        <v>0.9771541441410744</v>
+        <v>1.011175176618409</v>
       </c>
       <c r="M25">
-        <v>0.9194127601837262</v>
+        <v>1.028705755807956</v>
       </c>
       <c r="N25">
-        <v>0.9853328711049517</v>
+        <v>1.019956262814542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006803515540075</v>
+        <v>1.03043767572562</v>
       </c>
       <c r="D2">
-        <v>1.027595045208485</v>
+        <v>1.047733159708305</v>
       </c>
       <c r="E2">
-        <v>1.009867759219358</v>
+        <v>1.042993669845476</v>
       </c>
       <c r="F2">
-        <v>1.028393802976793</v>
+        <v>1.054690146568888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049992819019462</v>
+        <v>1.058000901778149</v>
       </c>
       <c r="J2">
-        <v>1.028782621543517</v>
+        <v>1.051744610101727</v>
       </c>
       <c r="K2">
-        <v>1.038682871128147</v>
+        <v>1.058565260998162</v>
       </c>
       <c r="L2">
-        <v>1.021191311181749</v>
+        <v>1.053884847702844</v>
       </c>
       <c r="M2">
-        <v>1.039471247105761</v>
+        <v>1.06543672631673</v>
       </c>
       <c r="N2">
-        <v>1.030243610869124</v>
+        <v>1.020600151357787</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015756988721732</v>
+        <v>1.035102404863081</v>
       </c>
       <c r="D3">
-        <v>1.034882391339888</v>
+        <v>1.051361985798829</v>
       </c>
       <c r="E3">
-        <v>1.017642072433212</v>
+        <v>1.046861840319087</v>
       </c>
       <c r="F3">
-        <v>1.03668666134396</v>
+        <v>1.05876526840993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053484149473671</v>
+        <v>1.05954616311559</v>
       </c>
       <c r="J3">
-        <v>1.035827128413314</v>
+        <v>1.054679826404014</v>
       </c>
       <c r="K3">
-        <v>1.045087582622461</v>
+        <v>1.061377297664735</v>
       </c>
       <c r="L3">
-        <v>1.028054088331043</v>
+        <v>1.056928271144673</v>
       </c>
       <c r="M3">
-        <v>1.046870699646821</v>
+        <v>1.068697646616702</v>
       </c>
       <c r="N3">
-        <v>1.037298121746693</v>
+        <v>1.021611228707138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021340658007247</v>
+        <v>1.03806083699235</v>
       </c>
       <c r="D4">
-        <v>1.039430423349733</v>
+        <v>1.05366647411121</v>
       </c>
       <c r="E4">
-        <v>1.022490558802167</v>
+        <v>1.04932051371348</v>
       </c>
       <c r="F4">
-        <v>1.04186789285248</v>
+        <v>1.0613553652859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055646351068375</v>
+        <v>1.060518134910214</v>
       </c>
       <c r="J4">
-        <v>1.04021378457924</v>
+        <v>1.05653862703313</v>
       </c>
       <c r="K4">
-        <v>1.049075155789515</v>
+        <v>1.063157623809428</v>
       </c>
       <c r="L4">
-        <v>1.032324913783718</v>
+        <v>1.058858007509943</v>
       </c>
       <c r="M4">
-        <v>1.051485963674344</v>
+        <v>1.07076565860763</v>
       </c>
       <c r="N4">
-        <v>1.041691007467531</v>
+        <v>1.022251109117255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023641184841873</v>
+        <v>1.039290716654505</v>
       </c>
       <c r="D5">
-        <v>1.041304941390935</v>
+        <v>1.054625178223268</v>
       </c>
       <c r="E5">
-        <v>1.024488134595014</v>
+        <v>1.050343894101373</v>
       </c>
       <c r="F5">
-        <v>1.044004767774984</v>
+        <v>1.062433420388702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056533504966818</v>
+        <v>1.060920237105431</v>
       </c>
       <c r="J5">
-        <v>1.042019496060262</v>
+        <v>1.057310674186368</v>
       </c>
       <c r="K5">
-        <v>1.050716395948879</v>
+        <v>1.063896957233143</v>
       </c>
       <c r="L5">
-        <v>1.034082303837692</v>
+        <v>1.059660094623037</v>
       </c>
       <c r="M5">
-        <v>1.05338755977267</v>
+        <v>1.071625305900053</v>
       </c>
       <c r="N5">
-        <v>1.043499283265974</v>
+        <v>1.02251677727826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024024798105797</v>
+        <v>1.039496421315205</v>
       </c>
       <c r="D6">
-        <v>1.041617554150518</v>
+        <v>1.054785565915897</v>
       </c>
       <c r="E6">
-        <v>1.024821225377656</v>
+        <v>1.050515133432919</v>
       </c>
       <c r="F6">
-        <v>1.044361215278892</v>
+        <v>1.062613806646963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056681218704605</v>
+        <v>1.060987374546369</v>
       </c>
       <c r="J6">
-        <v>1.042320500721676</v>
+        <v>1.057439761924172</v>
       </c>
       <c r="K6">
-        <v>1.050989971649729</v>
+        <v>1.064020567932941</v>
       </c>
       <c r="L6">
-        <v>1.034375215756422</v>
+        <v>1.059794238985767</v>
       </c>
       <c r="M6">
-        <v>1.05370465177932</v>
+        <v>1.071769081898438</v>
       </c>
       <c r="N6">
-        <v>1.043800715388533</v>
+        <v>1.022561191200504</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021371577627839</v>
+        <v>1.038077324450274</v>
       </c>
       <c r="D7">
-        <v>1.039455614771039</v>
+        <v>1.053679323624997</v>
       </c>
       <c r="E7">
-        <v>1.02251740699595</v>
+        <v>1.049334227969818</v>
       </c>
       <c r="F7">
-        <v>1.041896604573411</v>
+        <v>1.061369812344908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055658289358074</v>
+        <v>1.060523533200544</v>
       </c>
       <c r="J7">
-        <v>1.0402380603297</v>
+        <v>1.056548979686261</v>
       </c>
       <c r="K7">
-        <v>1.049097221217019</v>
+        <v>1.063167538274694</v>
       </c>
       <c r="L7">
-        <v>1.032348542450949</v>
+        <v>1.058868760701195</v>
       </c>
       <c r="M7">
-        <v>1.05151152147043</v>
+        <v>1.070777183140864</v>
       </c>
       <c r="N7">
-        <v>1.041715317692341</v>
+        <v>1.022254671974909</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009874985274694</v>
+        <v>1.032026872479932</v>
       </c>
       <c r="D8">
-        <v>1.030094142729808</v>
+        <v>1.04896877474583</v>
       </c>
       <c r="E8">
-        <v>1.012534623318756</v>
+        <v>1.044310327747735</v>
       </c>
       <c r="F8">
-        <v>1.031236540201374</v>
+        <v>1.056077272052339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051193669371074</v>
+        <v>1.058529014196123</v>
       </c>
       <c r="J8">
-        <v>1.031200562289607</v>
+        <v>1.052745146355185</v>
       </c>
       <c r="K8">
-        <v>1.040881334020912</v>
+        <v>1.059523902244757</v>
       </c>
       <c r="L8">
-        <v>1.023547440410866</v>
+        <v>1.054921762028049</v>
       </c>
       <c r="M8">
-        <v>1.042009384610552</v>
+        <v>1.066547664976573</v>
       </c>
       <c r="N8">
-        <v>1.032664985368415</v>
+        <v>1.02094488291226</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878353617052612</v>
+        <v>1.02088177498834</v>
       </c>
       <c r="D9">
-        <v>1.012183089888828</v>
+        <v>1.040318278962267</v>
       </c>
       <c r="E9">
-        <v>0.9934035253189286</v>
+        <v>1.035101401318254</v>
       </c>
       <c r="F9">
-        <v>1.010886543330197</v>
+        <v>1.046374972935832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042513898238463</v>
+        <v>1.054792617426351</v>
       </c>
       <c r="J9">
-        <v>1.013825120796594</v>
+        <v>1.045718096970498</v>
       </c>
       <c r="K9">
-        <v>1.02508154972097</v>
+        <v>1.052789416558128</v>
       </c>
       <c r="L9">
-        <v>1.006604540109268</v>
+        <v>1.047649543284746</v>
       </c>
       <c r="M9">
-        <v>1.023805429156253</v>
+        <v>1.058757930721582</v>
       </c>
       <c r="N9">
-        <v>1.015264868755491</v>
+        <v>1.018522232574116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9716584335586101</v>
+        <v>1.013090657498185</v>
       </c>
       <c r="D10">
-        <v>0.9990728848360969</v>
+        <v>1.034292371865881</v>
       </c>
       <c r="E10">
-        <v>0.9793742625490757</v>
+        <v>1.028697505786492</v>
       </c>
       <c r="F10">
-        <v>0.996020955446004</v>
+        <v>1.039627329033844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03606592184832</v>
+        <v>1.052140667146297</v>
       </c>
       <c r="J10">
-        <v>1.001043459770165</v>
+        <v>1.040794353530717</v>
       </c>
       <c r="K10">
-        <v>1.013458898834008</v>
+        <v>1.048068892362791</v>
       </c>
       <c r="L10">
-        <v>0.9941261819603052</v>
+        <v>1.042567253876736</v>
       </c>
       <c r="M10">
-        <v>1.01046242634964</v>
+        <v>1.053316153973338</v>
       </c>
       <c r="N10">
-        <v>1.002465056304328</v>
+        <v>1.016823073168504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9642217245146795</v>
+        <v>1.009622657215593</v>
       </c>
       <c r="D11">
-        <v>0.9930579342320597</v>
+        <v>1.031615974987925</v>
       </c>
       <c r="E11">
-        <v>0.9729302502172962</v>
+        <v>1.02585572514163</v>
       </c>
       <c r="F11">
-        <v>0.9892073650368552</v>
+        <v>1.03663284965447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033084942684826</v>
+        <v>1.050951276078256</v>
       </c>
       <c r="J11">
-        <v>0.9951625713486179</v>
+        <v>1.038600530103061</v>
       </c>
       <c r="K11">
-        <v>1.008111966051314</v>
+        <v>1.045965313915258</v>
       </c>
       <c r="L11">
-        <v>0.9883813781420902</v>
+        <v>1.040305975121155</v>
       </c>
       <c r="M11">
-        <v>1.004335725702634</v>
+        <v>1.050895481479428</v>
       </c>
       <c r="N11">
-        <v>0.9965758163466754</v>
+        <v>1.016065691575498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.961386130794493</v>
+        <v>1.008319502555133</v>
       </c>
       <c r="D12">
-        <v>0.9907665828880912</v>
+        <v>1.030611231963855</v>
       </c>
       <c r="E12">
-        <v>0.9704742204458134</v>
+        <v>1.02478926114299</v>
       </c>
       <c r="F12">
-        <v>0.9866127525425563</v>
+        <v>1.035509057119509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031945943541707</v>
+        <v>1.050503047194081</v>
       </c>
       <c r="J12">
-        <v>0.9929196271787977</v>
+        <v>1.037775892338038</v>
       </c>
       <c r="K12">
-        <v>1.006072844652475</v>
+        <v>1.045174563801229</v>
       </c>
       <c r="L12">
-        <v>0.9861898252195991</v>
+        <v>1.039456464692398</v>
       </c>
       <c r="M12">
-        <v>1.002001005290438</v>
+        <v>1.049986177054218</v>
       </c>
       <c r="N12">
-        <v>0.9943296869388648</v>
+        <v>1.015780960700357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9619978424063043</v>
+        <v>1.008599725275539</v>
       </c>
       <c r="D13">
-        <v>0.9912607852399005</v>
+        <v>1.030827241669183</v>
       </c>
       <c r="E13">
-        <v>0.9710039984597695</v>
+        <v>1.025018523885474</v>
       </c>
       <c r="F13">
-        <v>0.9871723194260639</v>
+        <v>1.035750645116852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032191759014843</v>
+        <v>1.050599489503378</v>
       </c>
       <c r="J13">
-        <v>0.9934035118324297</v>
+        <v>1.037953229196269</v>
       </c>
       <c r="K13">
-        <v>1.006512748207993</v>
+        <v>1.045344614567489</v>
       </c>
       <c r="L13">
-        <v>0.9866626457378497</v>
+        <v>1.039639128466306</v>
       </c>
       <c r="M13">
-        <v>1.002504598546405</v>
+        <v>1.050181693909478</v>
       </c>
       <c r="N13">
-        <v>0.994814258764207</v>
+        <v>1.01584219316342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9639888821094109</v>
+        <v>1.009515248578064</v>
       </c>
       <c r="D14">
-        <v>0.9928697366347349</v>
+        <v>1.03153314220749</v>
       </c>
       <c r="E14">
-        <v>0.9727285525763389</v>
+        <v>1.02576779660149</v>
       </c>
       <c r="F14">
-        <v>0.9889942399208601</v>
+        <v>1.036540194935035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032991461481169</v>
+        <v>1.050914358226061</v>
       </c>
       <c r="J14">
-        <v>0.9949784044895117</v>
+        <v>1.038532567086877</v>
       </c>
       <c r="K14">
-        <v>1.007944530990899</v>
+        <v>1.045900144409921</v>
       </c>
       <c r="L14">
-        <v>0.9882014412501574</v>
+        <v>1.04023595236221</v>
       </c>
       <c r="M14">
-        <v>1.0041439825457</v>
+        <v>1.050820528289506</v>
       </c>
       <c r="N14">
-        <v>0.996391387949505</v>
+        <v>1.016042226042252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9652056416864153</v>
+        <v>1.01007732206872</v>
       </c>
       <c r="D15">
-        <v>0.9938532852254227</v>
+        <v>1.031966648649376</v>
       </c>
       <c r="E15">
-        <v>0.9737826037805158</v>
+        <v>1.026227986615297</v>
       </c>
       <c r="F15">
-        <v>0.990108102711175</v>
+        <v>1.037025119300498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033479869551484</v>
+        <v>1.051107498179493</v>
       </c>
       <c r="J15">
-        <v>0.9959407789194989</v>
+        <v>1.038888209237993</v>
       </c>
       <c r="K15">
-        <v>1.008819479967587</v>
+        <v>1.046241167115269</v>
       </c>
       <c r="L15">
-        <v>0.9891416911203528</v>
+        <v>1.0406023926156</v>
       </c>
       <c r="M15">
-        <v>1.005146028032023</v>
+        <v>1.051212773823161</v>
       </c>
       <c r="N15">
-        <v>0.9973551290615688</v>
+        <v>1.016165016795652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9721422021165241</v>
+        <v>1.013318761182491</v>
       </c>
       <c r="D16">
-        <v>0.9994644384095409</v>
+        <v>1.034468537103574</v>
       </c>
       <c r="E16">
-        <v>0.9797935848423548</v>
+        <v>1.028884608172591</v>
       </c>
       <c r="F16">
-        <v>0.9964646333699503</v>
+        <v>1.039824481786216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036259506710319</v>
+        <v>1.052218715463702</v>
       </c>
       <c r="J16">
-        <v>1.001425930661595</v>
+        <v>1.040938608893825</v>
       </c>
       <c r="K16">
-        <v>1.013806663123148</v>
+        <v>1.04820720825905</v>
       </c>
       <c r="L16">
-        <v>0.9944997319434529</v>
+        <v>1.042716011519304</v>
       </c>
       <c r="M16">
-        <v>1.010861148287503</v>
+        <v>1.05347540911476</v>
       </c>
       <c r="N16">
-        <v>1.002848070348294</v>
+        <v>1.016872869263493</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9763722226929675</v>
+        <v>1.015326208529663</v>
       </c>
       <c r="D17">
-        <v>1.002889512322969</v>
+        <v>1.03601957205728</v>
       </c>
       <c r="E17">
-        <v>0.9834607216270178</v>
+        <v>1.030532222201047</v>
       </c>
       <c r="F17">
-        <v>1.000346409214927</v>
+        <v>1.041560580834775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037950331973007</v>
+        <v>1.052904573585297</v>
       </c>
       <c r="J17">
-        <v>1.004769671291891</v>
+        <v>1.042207901775965</v>
       </c>
       <c r="K17">
-        <v>1.016847066897206</v>
+        <v>1.049424207140926</v>
       </c>
       <c r="L17">
-        <v>0.9977650949981092</v>
+        <v>1.044025282740346</v>
       </c>
       <c r="M17">
-        <v>1.014348367347935</v>
+        <v>1.054877136193961</v>
       </c>
       <c r="N17">
-        <v>1.006196559473817</v>
+        <v>1.017310987935024</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.978798479926866</v>
+        <v>1.01648806800211</v>
       </c>
       <c r="D18">
-        <v>1.004855156197328</v>
+        <v>1.036917823665594</v>
       </c>
       <c r="E18">
-        <v>0.9855646040152355</v>
+        <v>1.031486643870578</v>
       </c>
       <c r="F18">
-        <v>1.002574782855031</v>
+        <v>1.042566244680114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038918584223363</v>
+        <v>1.053300678275479</v>
       </c>
       <c r="J18">
-        <v>1.006687096018779</v>
+        <v>1.042942328310611</v>
       </c>
       <c r="K18">
-        <v>1.018590606302438</v>
+        <v>1.050128346486769</v>
       </c>
       <c r="L18">
-        <v>0.9996372519599809</v>
+        <v>1.044783143104991</v>
       </c>
       <c r="M18">
-        <v>1.016349219708614</v>
+        <v>1.055688566203982</v>
       </c>
       <c r="N18">
-        <v>1.008116707163749</v>
+        <v>1.017564458780333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9796190393416019</v>
+        <v>1.016882720393305</v>
       </c>
       <c r="D19">
-        <v>1.005520111972507</v>
+        <v>1.037223027090348</v>
       </c>
       <c r="E19">
-        <v>0.9862762120887497</v>
+        <v>1.031810973168375</v>
       </c>
       <c r="F19">
-        <v>1.003328724969601</v>
+        <v>1.042907984432677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039245775872551</v>
+        <v>1.053435078377335</v>
       </c>
       <c r="J19">
-        <v>1.00733548244062</v>
+        <v>1.043191756545804</v>
       </c>
       <c r="K19">
-        <v>1.019180200710216</v>
+        <v>1.050367483208921</v>
       </c>
       <c r="L19">
-        <v>1.000270275812827</v>
+        <v>1.045040581101458</v>
       </c>
       <c r="M19">
-        <v>1.017026010211642</v>
+        <v>1.055964210090337</v>
       </c>
       <c r="N19">
-        <v>1.008766014368681</v>
+        <v>1.01765053814456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9759226823191953</v>
+        <v>1.015111770198902</v>
       </c>
       <c r="D20">
-        <v>1.002525401213848</v>
+        <v>1.035853830561271</v>
       </c>
       <c r="E20">
-        <v>0.983070949071621</v>
+        <v>1.03035613576182</v>
       </c>
       <c r="F20">
-        <v>0.9999336819943122</v>
+        <v>1.041375039238018</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037770804164525</v>
+        <v>1.052831397377329</v>
       </c>
       <c r="J20">
-        <v>1.004414368058748</v>
+        <v>1.042072335363879</v>
       </c>
       <c r="K20">
-        <v>1.016523989364534</v>
+        <v>1.049294228939839</v>
       </c>
       <c r="L20">
-        <v>0.9974181536901395</v>
+        <v>1.043885415097322</v>
       </c>
       <c r="M20">
-        <v>1.013977697624555</v>
+        <v>1.05472738616327</v>
       </c>
       <c r="N20">
-        <v>1.005840751669329</v>
+        <v>1.017264197804563</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9634046681937433</v>
+        <v>1.00924607017806</v>
       </c>
       <c r="D21">
-        <v>0.992397574324854</v>
+        <v>1.031325569361317</v>
       </c>
       <c r="E21">
-        <v>0.9722225002987643</v>
+        <v>1.025547460012578</v>
       </c>
       <c r="F21">
-        <v>0.9884595533568498</v>
+        <v>1.036308014821396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032756874886494</v>
+        <v>1.050821817117423</v>
       </c>
       <c r="J21">
-        <v>0.9945163114330696</v>
+        <v>1.038362239696652</v>
       </c>
       <c r="K21">
-        <v>1.007524422748801</v>
+        <v>1.045736817534062</v>
       </c>
       <c r="L21">
-        <v>0.9877499534472898</v>
+        <v>1.04006047068955</v>
       </c>
       <c r="M21">
-        <v>1.003662911880631</v>
+        <v>1.050632692036556</v>
       </c>
       <c r="N21">
-        <v>0.9959286386679198</v>
+        <v>1.015983416658398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9551048071531771</v>
+        <v>1.005470933407641</v>
       </c>
       <c r="D22">
-        <v>0.9856952149057772</v>
+        <v>1.028416799984331</v>
       </c>
       <c r="E22">
-        <v>0.9650359514723822</v>
+        <v>1.022460686632534</v>
       </c>
       <c r="F22">
-        <v>0.9808719467696555</v>
+        <v>1.033055264857702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029418695582478</v>
+        <v>1.04952093259585</v>
       </c>
       <c r="J22">
-        <v>0.9879502717967197</v>
+        <v>1.035972865636665</v>
       </c>
       <c r="K22">
-        <v>1.00155548032602</v>
+        <v>1.043445579269089</v>
       </c>
       <c r="L22">
-        <v>0.9813333985751658</v>
+        <v>1.037599949045699</v>
       </c>
       <c r="M22">
-        <v>0.9968321023513402</v>
+        <v>1.047999150963902</v>
       </c>
       <c r="N22">
-        <v>0.9893532745021512</v>
+        <v>1.015158349904404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9595486399277973</v>
+        <v>1.007480747861041</v>
       </c>
       <c r="D23">
-        <v>0.9892824136488679</v>
+        <v>1.0299648235031</v>
       </c>
       <c r="E23">
-        <v>0.9688830212665959</v>
+        <v>1.024103245786374</v>
       </c>
       <c r="F23">
-        <v>0.9849324229735159</v>
+        <v>1.034786157834153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031207217880502</v>
+        <v>1.050214192562233</v>
       </c>
       <c r="J23">
-        <v>0.9914660396725182</v>
+        <v>1.037245056334912</v>
       </c>
       <c r="K23">
-        <v>1.004751407826244</v>
+        <v>1.044665533595398</v>
       </c>
       <c r="L23">
-        <v>0.9847694004182059</v>
+        <v>1.038909754396016</v>
       </c>
       <c r="M23">
-        <v>1.00048851176648</v>
+        <v>1.049401010607927</v>
       </c>
       <c r="N23">
-        <v>0.9928740351715977</v>
+        <v>1.015597663863873</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9761259364839219</v>
+        <v>1.015208693560665</v>
       </c>
       <c r="D24">
-        <v>1.002690026221299</v>
+        <v>1.035928741875336</v>
       </c>
       <c r="E24">
-        <v>0.9832471784602077</v>
+        <v>1.030435722011407</v>
       </c>
       <c r="F24">
-        <v>1.000120285770373</v>
+        <v>1.041458899006387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037851980364384</v>
+        <v>1.052864474727049</v>
       </c>
       <c r="J24">
-        <v>1.004575015561409</v>
+        <v>1.042133610283216</v>
       </c>
       <c r="K24">
-        <v>1.016670066096161</v>
+        <v>1.049352978124814</v>
       </c>
       <c r="L24">
-        <v>0.9975750214218921</v>
+        <v>1.043948633202282</v>
       </c>
       <c r="M24">
-        <v>1.014145289384759</v>
+        <v>1.054795070799114</v>
       </c>
       <c r="N24">
-        <v>1.006001627309871</v>
+        <v>1.017285346655777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9937710343836987</v>
+        <v>1.023823904278533</v>
       </c>
       <c r="D25">
-        <v>1.017001680786606</v>
+        <v>1.042598450562735</v>
       </c>
       <c r="E25">
-        <v>0.9985543776974999</v>
+        <v>1.037526830840236</v>
       </c>
       <c r="F25">
-        <v>1.016356150829145</v>
+        <v>1.04893045865096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044864923595176</v>
+        <v>1.05578602798522</v>
       </c>
       <c r="J25">
-        <v>1.018509861985808</v>
+        <v>1.047575264907181</v>
       </c>
       <c r="K25">
-        <v>1.029341678521552</v>
+        <v>1.054569606914922</v>
       </c>
       <c r="L25">
-        <v>1.011175176618409</v>
+        <v>1.049569239924495</v>
       </c>
       <c r="M25">
-        <v>1.028705755807956</v>
+        <v>1.060813873551433</v>
       </c>
       <c r="N25">
-        <v>1.019956262814542</v>
+        <v>1.019162822415006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03043767572562</v>
+        <v>1.056680474601468</v>
       </c>
       <c r="D2">
-        <v>1.047733159708305</v>
+        <v>1.063156687288193</v>
       </c>
       <c r="E2">
-        <v>1.042993669845476</v>
+        <v>1.063321178223701</v>
       </c>
       <c r="F2">
-        <v>1.054690146568888</v>
+        <v>1.074901414098865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058000901778149</v>
+        <v>1.050713376927185</v>
       </c>
       <c r="J2">
-        <v>1.051744610101727</v>
+        <v>1.061680846436217</v>
       </c>
       <c r="K2">
-        <v>1.058565260998162</v>
+        <v>1.065876088249257</v>
       </c>
       <c r="L2">
-        <v>1.053884847702844</v>
+        <v>1.066040134039477</v>
       </c>
       <c r="M2">
-        <v>1.06543672631673</v>
+        <v>1.077589401630622</v>
       </c>
       <c r="N2">
-        <v>1.020600151357787</v>
+        <v>1.024283042918393</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035102404863081</v>
+        <v>1.057671467213246</v>
       </c>
       <c r="D3">
-        <v>1.051361985798829</v>
+        <v>1.063950906507674</v>
       </c>
       <c r="E3">
-        <v>1.046861840319087</v>
+        <v>1.064189142821644</v>
       </c>
       <c r="F3">
-        <v>1.05876526840993</v>
+        <v>1.075816918658263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05954616311559</v>
+        <v>1.050991991129252</v>
       </c>
       <c r="J3">
-        <v>1.054679826404014</v>
+        <v>1.062323809802936</v>
       </c>
       <c r="K3">
-        <v>1.061377297664735</v>
+        <v>1.066485315557876</v>
       </c>
       <c r="L3">
-        <v>1.056928271144673</v>
+        <v>1.06672295364499</v>
       </c>
       <c r="M3">
-        <v>1.068697646616702</v>
+        <v>1.078321877910922</v>
       </c>
       <c r="N3">
-        <v>1.021611228707138</v>
+        <v>1.024501637001314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03806083699235</v>
+        <v>1.058313229880396</v>
       </c>
       <c r="D4">
-        <v>1.05366647411121</v>
+        <v>1.064465279099526</v>
       </c>
       <c r="E4">
-        <v>1.04932051371348</v>
+        <v>1.064751564188039</v>
       </c>
       <c r="F4">
-        <v>1.0613553652859</v>
+        <v>1.076410145136492</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060518134910214</v>
+        <v>1.051171388272868</v>
       </c>
       <c r="J4">
-        <v>1.05653862703313</v>
+        <v>1.062739737547908</v>
       </c>
       <c r="K4">
-        <v>1.063157623809428</v>
+        <v>1.066879327129088</v>
       </c>
       <c r="L4">
-        <v>1.058858007509943</v>
+        <v>1.067164929440821</v>
       </c>
       <c r="M4">
-        <v>1.07076565860763</v>
+        <v>1.078796036208186</v>
       </c>
       <c r="N4">
-        <v>1.022251109117255</v>
+        <v>1.024642939986186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039290716654505</v>
+        <v>1.05858315153497</v>
       </c>
       <c r="D5">
-        <v>1.054625178223268</v>
+        <v>1.064681630122715</v>
       </c>
       <c r="E5">
-        <v>1.050343894101373</v>
+        <v>1.064988194043055</v>
       </c>
       <c r="F5">
-        <v>1.062433420388702</v>
+        <v>1.076659735838593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060920237105431</v>
+        <v>1.051246594474671</v>
       </c>
       <c r="J5">
-        <v>1.057310674186368</v>
+        <v>1.062914565729982</v>
       </c>
       <c r="K5">
-        <v>1.063896957233143</v>
+        <v>1.067044920957239</v>
       </c>
       <c r="L5">
-        <v>1.059660094623037</v>
+        <v>1.067350769978704</v>
       </c>
       <c r="M5">
-        <v>1.071625305900053</v>
+        <v>1.078995418462022</v>
       </c>
       <c r="N5">
-        <v>1.02251677727826</v>
+        <v>1.024702309367839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039496421315205</v>
+        <v>1.058628479851921</v>
       </c>
       <c r="D6">
-        <v>1.054785565915897</v>
+        <v>1.064717962754279</v>
       </c>
       <c r="E6">
-        <v>1.050515133432919</v>
+        <v>1.065027936219321</v>
       </c>
       <c r="F6">
-        <v>1.062613806646963</v>
+        <v>1.076701654805112</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060987374546369</v>
+        <v>1.051259209459187</v>
       </c>
       <c r="J6">
-        <v>1.057439761924172</v>
+        <v>1.062943918492331</v>
       </c>
       <c r="K6">
-        <v>1.064020567932941</v>
+        <v>1.067072722010328</v>
       </c>
       <c r="L6">
-        <v>1.059794238985767</v>
+        <v>1.067381975382309</v>
       </c>
       <c r="M6">
-        <v>1.071769081898438</v>
+        <v>1.079028898291617</v>
       </c>
       <c r="N6">
-        <v>1.022561191200504</v>
+        <v>1.024712275719886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038077324450274</v>
+        <v>1.058316836098109</v>
       </c>
       <c r="D7">
-        <v>1.053679323624997</v>
+        <v>1.064468169566604</v>
       </c>
       <c r="E7">
-        <v>1.049334227969818</v>
+        <v>1.064754725310964</v>
       </c>
       <c r="F7">
-        <v>1.061369812344908</v>
+        <v>1.076413479402178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060523533200544</v>
+        <v>1.051172394016876</v>
       </c>
       <c r="J7">
-        <v>1.056548979686261</v>
+        <v>1.062742073721152</v>
       </c>
       <c r="K7">
-        <v>1.063167538274694</v>
+        <v>1.066881539994204</v>
       </c>
       <c r="L7">
-        <v>1.058868760701195</v>
+        <v>1.067167412519181</v>
       </c>
       <c r="M7">
-        <v>1.070777183140864</v>
+        <v>1.078798700183825</v>
       </c>
       <c r="N7">
-        <v>1.022254671974909</v>
+        <v>1.024643733418407</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032026872479932</v>
+        <v>1.05701527613995</v>
       </c>
       <c r="D8">
-        <v>1.04896877474583</v>
+        <v>1.063425001463481</v>
       </c>
       <c r="E8">
-        <v>1.044310327747735</v>
+        <v>1.063614346536102</v>
       </c>
       <c r="F8">
-        <v>1.056077272052339</v>
+        <v>1.075210639707813</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058529014196123</v>
+        <v>1.050807718809315</v>
       </c>
       <c r="J8">
-        <v>1.052745146355185</v>
+        <v>1.061898161679331</v>
       </c>
       <c r="K8">
-        <v>1.059523902244757</v>
+        <v>1.066082020158347</v>
       </c>
       <c r="L8">
-        <v>1.054921762028049</v>
+        <v>1.066270865318219</v>
       </c>
       <c r="M8">
-        <v>1.066547664976573</v>
+        <v>1.077836903935206</v>
       </c>
       <c r="N8">
-        <v>1.02094488291226</v>
+        <v>1.024356946976098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.02088177498834</v>
+        <v>1.054725813850599</v>
       </c>
       <c r="D9">
-        <v>1.040318278962267</v>
+        <v>1.06159038178578</v>
       </c>
       <c r="E9">
-        <v>1.035101401318254</v>
+        <v>1.061610961793768</v>
       </c>
       <c r="F9">
-        <v>1.046374972935832</v>
+        <v>1.073097527022051</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054792617426351</v>
+        <v>1.05015836027081</v>
       </c>
       <c r="J9">
-        <v>1.045718096970498</v>
+        <v>1.060410258531516</v>
       </c>
       <c r="K9">
-        <v>1.052789416558128</v>
+        <v>1.064671679640514</v>
       </c>
       <c r="L9">
-        <v>1.047649543284746</v>
+        <v>1.064692196005017</v>
       </c>
       <c r="M9">
-        <v>1.058757930721582</v>
+        <v>1.076143654524518</v>
       </c>
       <c r="N9">
-        <v>1.018522232574116</v>
+        <v>1.023850522573919</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013090657498185</v>
+        <v>1.053202280309503</v>
       </c>
       <c r="D10">
-        <v>1.034292371865881</v>
+        <v>1.060369780196602</v>
       </c>
       <c r="E10">
-        <v>1.028697505786492</v>
+        <v>1.060279553781436</v>
       </c>
       <c r="F10">
-        <v>1.039627329033844</v>
+        <v>1.071693196305571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052140667146297</v>
+        <v>1.04972094382439</v>
       </c>
       <c r="J10">
-        <v>1.040794353530717</v>
+        <v>1.059417822916556</v>
       </c>
       <c r="K10">
-        <v>1.048068892362791</v>
+        <v>1.06373050982645</v>
       </c>
       <c r="L10">
-        <v>1.042567253876736</v>
+        <v>1.063640589717172</v>
       </c>
       <c r="M10">
-        <v>1.053316153973338</v>
+        <v>1.075015933938505</v>
       </c>
       <c r="N10">
-        <v>1.016823073168504</v>
+        <v>1.023512210246773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009622657215593</v>
+        <v>1.052543241622474</v>
       </c>
       <c r="D11">
-        <v>1.031615974987925</v>
+        <v>1.059841849406636</v>
       </c>
       <c r="E11">
-        <v>1.02585572514163</v>
+        <v>1.059704046831899</v>
       </c>
       <c r="F11">
-        <v>1.03663284965447</v>
+        <v>1.071086168066576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050951276078256</v>
+        <v>1.049530474044087</v>
       </c>
       <c r="J11">
-        <v>1.038600530103061</v>
+        <v>1.05898797954601</v>
       </c>
       <c r="K11">
-        <v>1.045965313915258</v>
+        <v>1.063322760696779</v>
       </c>
       <c r="L11">
-        <v>1.040305975121155</v>
+        <v>1.06318544401363</v>
       </c>
       <c r="M11">
-        <v>1.050895481479428</v>
+        <v>1.074527895670464</v>
       </c>
       <c r="N11">
-        <v>1.016065691575498</v>
+        <v>1.023365557023962</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008319502555133</v>
+        <v>1.052298545425799</v>
       </c>
       <c r="D12">
-        <v>1.030611231963855</v>
+        <v>1.059645843422153</v>
       </c>
       <c r="E12">
-        <v>1.02478926114299</v>
+        <v>1.059490429617683</v>
       </c>
       <c r="F12">
-        <v>1.035509057119509</v>
+        <v>1.070860850715792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050503047194081</v>
+        <v>1.049459565469169</v>
       </c>
       <c r="J12">
-        <v>1.037775892338038</v>
+        <v>1.058828300557671</v>
       </c>
       <c r="K12">
-        <v>1.045174563801229</v>
+        <v>1.063171272888628</v>
       </c>
       <c r="L12">
-        <v>1.039456464692398</v>
+        <v>1.063016414648362</v>
       </c>
       <c r="M12">
-        <v>1.049986177054218</v>
+        <v>1.074346658464358</v>
       </c>
       <c r="N12">
-        <v>1.015780960700357</v>
+        <v>1.023311059563185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008599725275539</v>
+        <v>1.052351029048101</v>
       </c>
       <c r="D13">
-        <v>1.030827241669183</v>
+        <v>1.059687883233005</v>
       </c>
       <c r="E13">
-        <v>1.025018523885474</v>
+        <v>1.059536244351215</v>
       </c>
       <c r="F13">
-        <v>1.035750645116852</v>
+        <v>1.070909174793082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050599489503378</v>
+        <v>1.049474782814621</v>
       </c>
       <c r="J13">
-        <v>1.037953229196269</v>
+        <v>1.058862552954291</v>
       </c>
       <c r="K13">
-        <v>1.045344614567489</v>
+        <v>1.063203768954657</v>
       </c>
       <c r="L13">
-        <v>1.039639128466306</v>
+        <v>1.06305267055698</v>
       </c>
       <c r="M13">
-        <v>1.050181693909478</v>
+        <v>1.074385532545796</v>
       </c>
       <c r="N13">
-        <v>1.01584219316342</v>
+        <v>1.02332275053007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009515248578064</v>
+        <v>1.052523012911843</v>
       </c>
       <c r="D14">
-        <v>1.03153314220749</v>
+        <v>1.059825645627083</v>
       </c>
       <c r="E14">
-        <v>1.02576779660149</v>
+        <v>1.059686386064778</v>
       </c>
       <c r="F14">
-        <v>1.036540194935035</v>
+        <v>1.071067539993428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050914358226061</v>
+        <v>1.049524615972576</v>
       </c>
       <c r="J14">
-        <v>1.038532567086877</v>
+        <v>1.058974780753019</v>
       </c>
       <c r="K14">
-        <v>1.045900144409921</v>
+        <v>1.063310239307347</v>
       </c>
       <c r="L14">
-        <v>1.04023595236221</v>
+        <v>1.063171471334974</v>
       </c>
       <c r="M14">
-        <v>1.050820528289506</v>
+        <v>1.074512913684933</v>
       </c>
       <c r="N14">
-        <v>1.016042226042252</v>
+        <v>1.023361052732713</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.01007732206872</v>
+        <v>1.052628991135262</v>
       </c>
       <c r="D15">
-        <v>1.031966648649376</v>
+        <v>1.05991053768171</v>
       </c>
       <c r="E15">
-        <v>1.026227986615297</v>
+        <v>1.05977891346709</v>
       </c>
       <c r="F15">
-        <v>1.037025119300498</v>
+        <v>1.071165135255292</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051107498179493</v>
+        <v>1.049555298689167</v>
       </c>
       <c r="J15">
-        <v>1.038888209237993</v>
+        <v>1.059043925905799</v>
       </c>
       <c r="K15">
-        <v>1.046241167115269</v>
+        <v>1.063375835041288</v>
       </c>
       <c r="L15">
-        <v>1.0406023926156</v>
+        <v>1.063244672685931</v>
       </c>
       <c r="M15">
-        <v>1.051212773823161</v>
+        <v>1.074591402997122</v>
       </c>
       <c r="N15">
-        <v>1.016165016795652</v>
+        <v>1.023384648825016</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013318761182491</v>
+        <v>1.053246032535178</v>
       </c>
       <c r="D16">
-        <v>1.034468537103574</v>
+        <v>1.060404829921771</v>
       </c>
       <c r="E16">
-        <v>1.028884608172591</v>
+        <v>1.060317769487506</v>
       </c>
       <c r="F16">
-        <v>1.039824481786216</v>
+        <v>1.071733505133212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052218715463702</v>
+        <v>1.049733562266271</v>
       </c>
       <c r="J16">
-        <v>1.040938608893825</v>
+        <v>1.059446347912683</v>
       </c>
       <c r="K16">
-        <v>1.04820720825905</v>
+        <v>1.063757566309589</v>
       </c>
       <c r="L16">
-        <v>1.042716011519304</v>
+        <v>1.063670800675838</v>
       </c>
       <c r="M16">
-        <v>1.05347540911476</v>
+        <v>1.075048329254726</v>
       </c>
       <c r="N16">
-        <v>1.016872869263493</v>
+        <v>1.023521939762445</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.015326208529663</v>
+        <v>1.053633263902979</v>
       </c>
       <c r="D17">
-        <v>1.03601957205728</v>
+        <v>1.060715047275115</v>
       </c>
       <c r="E17">
-        <v>1.030532222201047</v>
+        <v>1.060656048629486</v>
       </c>
       <c r="F17">
-        <v>1.041560580834775</v>
+        <v>1.072090312225895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052904573585297</v>
+        <v>1.049845097346996</v>
       </c>
       <c r="J17">
-        <v>1.042207901775965</v>
+        <v>1.059698747155148</v>
       </c>
       <c r="K17">
-        <v>1.049424207140926</v>
+        <v>1.063996958938424</v>
       </c>
       <c r="L17">
-        <v>1.044025282740346</v>
+        <v>1.063938155531724</v>
       </c>
       <c r="M17">
-        <v>1.054877136193961</v>
+        <v>1.075335020632478</v>
       </c>
       <c r="N17">
-        <v>1.017310987935024</v>
+        <v>1.02360801570087</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01648806800211</v>
+        <v>1.053859193172354</v>
       </c>
       <c r="D18">
-        <v>1.036917823665594</v>
+        <v>1.060896049402034</v>
       </c>
       <c r="E18">
-        <v>1.031486643870578</v>
+        <v>1.060853457678228</v>
       </c>
       <c r="F18">
-        <v>1.042566244680114</v>
+        <v>1.072298533591221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053300678275479</v>
+        <v>1.049910051028413</v>
       </c>
       <c r="J18">
-        <v>1.042942328310611</v>
+        <v>1.059845956481164</v>
       </c>
       <c r="K18">
-        <v>1.050128346486769</v>
+        <v>1.064136571670775</v>
       </c>
       <c r="L18">
-        <v>1.044783143104991</v>
+        <v>1.064094118981171</v>
       </c>
       <c r="M18">
-        <v>1.055688566203982</v>
+        <v>1.075502269054729</v>
       </c>
       <c r="N18">
-        <v>1.017564458780333</v>
+        <v>1.023658206707354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016882720393305</v>
+        <v>1.053936240007458</v>
       </c>
       <c r="D19">
-        <v>1.037223027090348</v>
+        <v>1.060957776181764</v>
       </c>
       <c r="E19">
-        <v>1.031810973168375</v>
+        <v>1.060920785401347</v>
       </c>
       <c r="F19">
-        <v>1.042907984432677</v>
+        <v>1.072369548928263</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053435078377335</v>
+        <v>1.049932181096747</v>
       </c>
       <c r="J19">
-        <v>1.043191756545804</v>
+        <v>1.059896149185992</v>
       </c>
       <c r="K19">
-        <v>1.050367483208921</v>
+        <v>1.064184172426322</v>
       </c>
       <c r="L19">
-        <v>1.045040581101458</v>
+        <v>1.06414730183096</v>
       </c>
       <c r="M19">
-        <v>1.055964210090337</v>
+        <v>1.075559300855544</v>
       </c>
       <c r="N19">
-        <v>1.01765053814456</v>
+        <v>1.023675317880558</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015111770198902</v>
+        <v>1.053591711041076</v>
       </c>
       <c r="D20">
-        <v>1.035853830561271</v>
+        <v>1.060681757923069</v>
       </c>
       <c r="E20">
-        <v>1.03035613576182</v>
+        <v>1.060619744483657</v>
       </c>
       <c r="F20">
-        <v>1.041375039238018</v>
+        <v>1.07205201966016</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052831397377329</v>
+        <v>1.049833141322624</v>
       </c>
       <c r="J20">
-        <v>1.042072335363879</v>
+        <v>1.059671668224622</v>
       </c>
       <c r="K20">
-        <v>1.049294228939839</v>
+        <v>1.063971276534237</v>
       </c>
       <c r="L20">
-        <v>1.043885415097322</v>
+        <v>1.063909468822189</v>
       </c>
       <c r="M20">
-        <v>1.05472738616327</v>
+        <v>1.075304258644143</v>
       </c>
       <c r="N20">
-        <v>1.017264197804563</v>
+        <v>1.023598782181461</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00924607017806</v>
+        <v>1.052472365180831</v>
       </c>
       <c r="D21">
-        <v>1.031325569361317</v>
+        <v>1.059785075513411</v>
       </c>
       <c r="E21">
-        <v>1.025547460012578</v>
+        <v>1.059642168875036</v>
       </c>
       <c r="F21">
-        <v>1.036308014821396</v>
+        <v>1.071020900962973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050821817117423</v>
+        <v>1.04950994575204</v>
       </c>
       <c r="J21">
-        <v>1.038362239696652</v>
+        <v>1.058941732899053</v>
       </c>
       <c r="K21">
-        <v>1.045736817534062</v>
+        <v>1.063278887308114</v>
       </c>
       <c r="L21">
-        <v>1.04006047068955</v>
+        <v>1.06313648657548</v>
       </c>
       <c r="M21">
-        <v>1.050632692036556</v>
+        <v>1.0744754019483</v>
       </c>
       <c r="N21">
-        <v>1.015983416658398</v>
+        <v>1.023349774346081</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.005470933407641</v>
+        <v>1.051769167624243</v>
       </c>
       <c r="D22">
-        <v>1.028416799984331</v>
+        <v>1.059221822890486</v>
       </c>
       <c r="E22">
-        <v>1.022460686632534</v>
+        <v>1.059028406537458</v>
       </c>
       <c r="F22">
-        <v>1.033055264857702</v>
+        <v>1.07037352185652</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04952093259585</v>
+        <v>1.049305816605784</v>
       </c>
       <c r="J22">
-        <v>1.035972865636665</v>
+        <v>1.058482701307661</v>
       </c>
       <c r="K22">
-        <v>1.043445579269089</v>
+        <v>1.062843372179898</v>
       </c>
       <c r="L22">
-        <v>1.037599949045699</v>
+        <v>1.062650667655449</v>
       </c>
       <c r="M22">
-        <v>1.047999150963902</v>
+        <v>1.073954509996742</v>
       </c>
       <c r="N22">
-        <v>1.015158349904404</v>
+        <v>1.023193075006595</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.007480747861041</v>
+        <v>1.052141890761509</v>
       </c>
       <c r="D23">
-        <v>1.0299648235031</v>
+        <v>1.059520363385884</v>
       </c>
       <c r="E23">
-        <v>1.024103245786374</v>
+        <v>1.059353689907698</v>
       </c>
       <c r="F23">
-        <v>1.034786157834153</v>
+        <v>1.070716621554401</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050214192562233</v>
+        <v>1.049414116684595</v>
       </c>
       <c r="J23">
-        <v>1.037245056334912</v>
+        <v>1.058726051106946</v>
       </c>
       <c r="K23">
-        <v>1.044665533595398</v>
+        <v>1.063074263996557</v>
       </c>
       <c r="L23">
-        <v>1.038909754396016</v>
+        <v>1.062908191536663</v>
       </c>
       <c r="M23">
-        <v>1.049401010607927</v>
+        <v>1.074230621278933</v>
       </c>
       <c r="N23">
-        <v>1.015597663863873</v>
+        <v>1.023276157267817</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.015208693560665</v>
+        <v>1.053610486793749</v>
       </c>
       <c r="D24">
-        <v>1.035928741875336</v>
+        <v>1.060696799770498</v>
       </c>
       <c r="E24">
-        <v>1.030435722011407</v>
+        <v>1.060636148466261</v>
       </c>
       <c r="F24">
-        <v>1.041458899006387</v>
+        <v>1.07206932210783</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052864474727049</v>
+        <v>1.049838544053201</v>
       </c>
       <c r="J24">
-        <v>1.042133610283216</v>
+        <v>1.059683904061412</v>
       </c>
       <c r="K24">
-        <v>1.049352978124814</v>
+        <v>1.063982881371969</v>
       </c>
       <c r="L24">
-        <v>1.043948633202282</v>
+        <v>1.06392243105006</v>
       </c>
       <c r="M24">
-        <v>1.054795070799114</v>
+        <v>1.075318158581699</v>
       </c>
       <c r="N24">
-        <v>1.017285346655777</v>
+        <v>1.023602954459765</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.023823904278533</v>
+        <v>1.055317209353449</v>
       </c>
       <c r="D25">
-        <v>1.042598450562735</v>
+        <v>1.062064243574082</v>
       </c>
       <c r="E25">
-        <v>1.037526830840236</v>
+        <v>1.062128153186672</v>
       </c>
       <c r="F25">
-        <v>1.04893045865096</v>
+        <v>1.073643045548366</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05578602798522</v>
+        <v>1.050327032306785</v>
       </c>
       <c r="J25">
-        <v>1.047575264907181</v>
+        <v>1.060795009188912</v>
       </c>
       <c r="K25">
-        <v>1.054569606914922</v>
+        <v>1.06503645669858</v>
       </c>
       <c r="L25">
-        <v>1.049569239924495</v>
+        <v>1.065100176153199</v>
       </c>
       <c r="M25">
-        <v>1.060813873551433</v>
+        <v>1.0765812087573</v>
       </c>
       <c r="N25">
-        <v>1.019162822415006</v>
+        <v>1.023981569819025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056680474601468</v>
+        <v>1.03043767572562</v>
       </c>
       <c r="D2">
-        <v>1.063156687288193</v>
+        <v>1.047733159708305</v>
       </c>
       <c r="E2">
-        <v>1.063321178223701</v>
+        <v>1.042993669845476</v>
       </c>
       <c r="F2">
-        <v>1.074901414098865</v>
+        <v>1.054690146568888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050713376927185</v>
+        <v>1.058000901778149</v>
       </c>
       <c r="J2">
-        <v>1.061680846436217</v>
+        <v>1.051744610101726</v>
       </c>
       <c r="K2">
-        <v>1.065876088249257</v>
+        <v>1.058565260998161</v>
       </c>
       <c r="L2">
-        <v>1.066040134039477</v>
+        <v>1.053884847702843</v>
       </c>
       <c r="M2">
-        <v>1.077589401630622</v>
+        <v>1.06543672631673</v>
       </c>
       <c r="N2">
-        <v>1.024283042918393</v>
+        <v>1.020600151357787</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057671467213246</v>
+        <v>1.035102404863081</v>
       </c>
       <c r="D3">
-        <v>1.063950906507674</v>
+        <v>1.051361985798829</v>
       </c>
       <c r="E3">
-        <v>1.064189142821644</v>
+        <v>1.046861840319086</v>
       </c>
       <c r="F3">
-        <v>1.075816918658263</v>
+        <v>1.05876526840993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050991991129252</v>
+        <v>1.05954616311559</v>
       </c>
       <c r="J3">
-        <v>1.062323809802936</v>
+        <v>1.054679826404014</v>
       </c>
       <c r="K3">
-        <v>1.066485315557876</v>
+        <v>1.061377297664735</v>
       </c>
       <c r="L3">
-        <v>1.06672295364499</v>
+        <v>1.056928271144673</v>
       </c>
       <c r="M3">
-        <v>1.078321877910922</v>
+        <v>1.068697646616702</v>
       </c>
       <c r="N3">
-        <v>1.024501637001314</v>
+        <v>1.021611228707138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058313229880396</v>
+        <v>1.038060836992349</v>
       </c>
       <c r="D4">
-        <v>1.064465279099526</v>
+        <v>1.053666474111209</v>
       </c>
       <c r="E4">
-        <v>1.064751564188039</v>
+        <v>1.049320513713479</v>
       </c>
       <c r="F4">
-        <v>1.076410145136492</v>
+        <v>1.0613553652859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051171388272868</v>
+        <v>1.060518134910213</v>
       </c>
       <c r="J4">
-        <v>1.062739737547908</v>
+        <v>1.056538627033129</v>
       </c>
       <c r="K4">
-        <v>1.066879327129088</v>
+        <v>1.063157623809427</v>
       </c>
       <c r="L4">
-        <v>1.067164929440821</v>
+        <v>1.058858007509943</v>
       </c>
       <c r="M4">
-        <v>1.078796036208186</v>
+        <v>1.07076565860763</v>
       </c>
       <c r="N4">
-        <v>1.024642939986186</v>
+        <v>1.022251109117255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05858315153497</v>
+        <v>1.039290716654505</v>
       </c>
       <c r="D5">
-        <v>1.064681630122715</v>
+        <v>1.054625178223268</v>
       </c>
       <c r="E5">
-        <v>1.064988194043055</v>
+        <v>1.050343894101374</v>
       </c>
       <c r="F5">
-        <v>1.076659735838593</v>
+        <v>1.062433420388702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051246594474671</v>
+        <v>1.060920237105431</v>
       </c>
       <c r="J5">
-        <v>1.062914565729982</v>
+        <v>1.057310674186368</v>
       </c>
       <c r="K5">
-        <v>1.067044920957239</v>
+        <v>1.063896957233143</v>
       </c>
       <c r="L5">
-        <v>1.067350769978704</v>
+        <v>1.059660094623037</v>
       </c>
       <c r="M5">
-        <v>1.078995418462022</v>
+        <v>1.071625305900053</v>
       </c>
       <c r="N5">
-        <v>1.024702309367839</v>
+        <v>1.02251677727826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058628479851921</v>
+        <v>1.039496421315206</v>
       </c>
       <c r="D6">
-        <v>1.064717962754279</v>
+        <v>1.054785565915898</v>
       </c>
       <c r="E6">
-        <v>1.065027936219321</v>
+        <v>1.05051513343292</v>
       </c>
       <c r="F6">
-        <v>1.076701654805112</v>
+        <v>1.062613806646964</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051259209459187</v>
+        <v>1.060987374546369</v>
       </c>
       <c r="J6">
-        <v>1.062943918492331</v>
+        <v>1.057439761924173</v>
       </c>
       <c r="K6">
-        <v>1.067072722010328</v>
+        <v>1.064020567932941</v>
       </c>
       <c r="L6">
-        <v>1.067381975382309</v>
+        <v>1.059794238985767</v>
       </c>
       <c r="M6">
-        <v>1.079028898291617</v>
+        <v>1.071769081898439</v>
       </c>
       <c r="N6">
-        <v>1.024712275719886</v>
+        <v>1.022561191200504</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058316836098109</v>
+        <v>1.038077324450275</v>
       </c>
       <c r="D7">
-        <v>1.064468169566604</v>
+        <v>1.053679323624998</v>
       </c>
       <c r="E7">
-        <v>1.064754725310964</v>
+        <v>1.049334227969819</v>
       </c>
       <c r="F7">
-        <v>1.076413479402178</v>
+        <v>1.061369812344909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051172394016876</v>
+        <v>1.060523533200544</v>
       </c>
       <c r="J7">
-        <v>1.062742073721152</v>
+        <v>1.056548979686262</v>
       </c>
       <c r="K7">
-        <v>1.066881539994204</v>
+        <v>1.063167538274695</v>
       </c>
       <c r="L7">
-        <v>1.067167412519181</v>
+        <v>1.058868760701196</v>
       </c>
       <c r="M7">
-        <v>1.078798700183825</v>
+        <v>1.070777183140865</v>
       </c>
       <c r="N7">
-        <v>1.024643733418407</v>
+        <v>1.02225467197491</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05701527613995</v>
+        <v>1.032026872479931</v>
       </c>
       <c r="D8">
-        <v>1.063425001463481</v>
+        <v>1.048968774745829</v>
       </c>
       <c r="E8">
-        <v>1.063614346536102</v>
+        <v>1.044310327747734</v>
       </c>
       <c r="F8">
-        <v>1.075210639707813</v>
+        <v>1.056077272052338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050807718809315</v>
+        <v>1.058529014196122</v>
       </c>
       <c r="J8">
-        <v>1.061898161679331</v>
+        <v>1.052745146355184</v>
       </c>
       <c r="K8">
-        <v>1.066082020158347</v>
+        <v>1.059523902244756</v>
       </c>
       <c r="L8">
-        <v>1.066270865318219</v>
+        <v>1.054921762028048</v>
       </c>
       <c r="M8">
-        <v>1.077836903935206</v>
+        <v>1.066547664976572</v>
       </c>
       <c r="N8">
-        <v>1.024356946976098</v>
+        <v>1.020944882912259</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054725813850599</v>
+        <v>1.020881774988339</v>
       </c>
       <c r="D9">
-        <v>1.06159038178578</v>
+        <v>1.040318278962267</v>
       </c>
       <c r="E9">
-        <v>1.061610961793768</v>
+        <v>1.035101401318253</v>
       </c>
       <c r="F9">
-        <v>1.073097527022051</v>
+        <v>1.04637497293583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05015836027081</v>
+        <v>1.054792617426351</v>
       </c>
       <c r="J9">
-        <v>1.060410258531516</v>
+        <v>1.045718096970497</v>
       </c>
       <c r="K9">
-        <v>1.064671679640514</v>
+        <v>1.052789416558127</v>
       </c>
       <c r="L9">
-        <v>1.064692196005017</v>
+        <v>1.047649543284744</v>
       </c>
       <c r="M9">
-        <v>1.076143654524518</v>
+        <v>1.058757930721581</v>
       </c>
       <c r="N9">
-        <v>1.023850522573919</v>
+        <v>1.018522232574116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053202280309503</v>
+        <v>1.013090657498185</v>
       </c>
       <c r="D10">
-        <v>1.060369780196602</v>
+        <v>1.03429237186588</v>
       </c>
       <c r="E10">
-        <v>1.060279553781436</v>
+        <v>1.028697505786492</v>
       </c>
       <c r="F10">
-        <v>1.071693196305571</v>
+        <v>1.039627329033844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04972094382439</v>
+        <v>1.052140667146297</v>
       </c>
       <c r="J10">
-        <v>1.059417822916556</v>
+        <v>1.040794353530717</v>
       </c>
       <c r="K10">
-        <v>1.06373050982645</v>
+        <v>1.04806889236279</v>
       </c>
       <c r="L10">
-        <v>1.063640589717172</v>
+        <v>1.042567253876736</v>
       </c>
       <c r="M10">
-        <v>1.075015933938505</v>
+        <v>1.053316153973337</v>
       </c>
       <c r="N10">
-        <v>1.023512210246773</v>
+        <v>1.016823073168504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052543241622474</v>
+        <v>1.009622657215592</v>
       </c>
       <c r="D11">
-        <v>1.059841849406636</v>
+        <v>1.031615974987925</v>
       </c>
       <c r="E11">
-        <v>1.059704046831899</v>
+        <v>1.025855725141628</v>
       </c>
       <c r="F11">
-        <v>1.071086168066576</v>
+        <v>1.036632849654469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049530474044087</v>
+        <v>1.050951276078256</v>
       </c>
       <c r="J11">
-        <v>1.05898797954601</v>
+        <v>1.03860053010306</v>
       </c>
       <c r="K11">
-        <v>1.063322760696779</v>
+        <v>1.045965313915258</v>
       </c>
       <c r="L11">
-        <v>1.06318544401363</v>
+        <v>1.040305975121154</v>
       </c>
       <c r="M11">
-        <v>1.074527895670464</v>
+        <v>1.050895481479427</v>
       </c>
       <c r="N11">
-        <v>1.023365557023962</v>
+        <v>1.016065691575497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052298545425799</v>
+        <v>1.008319502555133</v>
       </c>
       <c r="D12">
-        <v>1.059645843422153</v>
+        <v>1.030611231963856</v>
       </c>
       <c r="E12">
-        <v>1.059490429617683</v>
+        <v>1.02478926114299</v>
       </c>
       <c r="F12">
-        <v>1.070860850715792</v>
+        <v>1.03550905711951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049459565469169</v>
+        <v>1.050503047194081</v>
       </c>
       <c r="J12">
-        <v>1.058828300557671</v>
+        <v>1.037775892338038</v>
       </c>
       <c r="K12">
-        <v>1.063171272888628</v>
+        <v>1.045174563801229</v>
       </c>
       <c r="L12">
-        <v>1.063016414648362</v>
+        <v>1.039456464692398</v>
       </c>
       <c r="M12">
-        <v>1.074346658464358</v>
+        <v>1.049986177054218</v>
       </c>
       <c r="N12">
-        <v>1.023311059563185</v>
+        <v>1.015780960700357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052351029048101</v>
+        <v>1.008599725275539</v>
       </c>
       <c r="D13">
-        <v>1.059687883233005</v>
+        <v>1.030827241669183</v>
       </c>
       <c r="E13">
-        <v>1.059536244351215</v>
+        <v>1.025018523885474</v>
       </c>
       <c r="F13">
-        <v>1.070909174793082</v>
+        <v>1.035750645116852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049474782814621</v>
+        <v>1.050599489503378</v>
       </c>
       <c r="J13">
-        <v>1.058862552954291</v>
+        <v>1.037953229196269</v>
       </c>
       <c r="K13">
-        <v>1.063203768954657</v>
+        <v>1.045344614567489</v>
       </c>
       <c r="L13">
-        <v>1.06305267055698</v>
+        <v>1.039639128466306</v>
       </c>
       <c r="M13">
-        <v>1.074385532545796</v>
+        <v>1.050181693909477</v>
       </c>
       <c r="N13">
-        <v>1.02332275053007</v>
+        <v>1.01584219316342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052523012911843</v>
+        <v>1.009515248578064</v>
       </c>
       <c r="D14">
-        <v>1.059825645627083</v>
+        <v>1.03153314220749</v>
       </c>
       <c r="E14">
-        <v>1.059686386064778</v>
+        <v>1.025767796601491</v>
       </c>
       <c r="F14">
-        <v>1.071067539993428</v>
+        <v>1.036540194935036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049524615972576</v>
+        <v>1.050914358226061</v>
       </c>
       <c r="J14">
-        <v>1.058974780753019</v>
+        <v>1.038532567086878</v>
       </c>
       <c r="K14">
-        <v>1.063310239307347</v>
+        <v>1.045900144409921</v>
       </c>
       <c r="L14">
-        <v>1.063171471334974</v>
+        <v>1.040235952362211</v>
       </c>
       <c r="M14">
-        <v>1.074512913684933</v>
+        <v>1.050820528289506</v>
       </c>
       <c r="N14">
-        <v>1.023361052732713</v>
+        <v>1.016042226042252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052628991135262</v>
+        <v>1.010077322068719</v>
       </c>
       <c r="D15">
-        <v>1.05991053768171</v>
+        <v>1.031966648649375</v>
       </c>
       <c r="E15">
-        <v>1.05977891346709</v>
+        <v>1.026227986615297</v>
       </c>
       <c r="F15">
-        <v>1.071165135255292</v>
+        <v>1.037025119300497</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049555298689167</v>
+        <v>1.051107498179493</v>
       </c>
       <c r="J15">
-        <v>1.059043925905799</v>
+        <v>1.038888209237993</v>
       </c>
       <c r="K15">
-        <v>1.063375835041288</v>
+        <v>1.046241167115268</v>
       </c>
       <c r="L15">
-        <v>1.063244672685931</v>
+        <v>1.0406023926156</v>
       </c>
       <c r="M15">
-        <v>1.074591402997122</v>
+        <v>1.05121277382316</v>
       </c>
       <c r="N15">
-        <v>1.023384648825016</v>
+        <v>1.016165016795652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053246032535178</v>
+        <v>1.013318761182489</v>
       </c>
       <c r="D16">
-        <v>1.060404829921771</v>
+        <v>1.034468537103573</v>
       </c>
       <c r="E16">
-        <v>1.060317769487506</v>
+        <v>1.02888460817259</v>
       </c>
       <c r="F16">
-        <v>1.071733505133212</v>
+        <v>1.039824481786215</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049733562266271</v>
+        <v>1.052218715463701</v>
       </c>
       <c r="J16">
-        <v>1.059446347912683</v>
+        <v>1.040938608893823</v>
       </c>
       <c r="K16">
-        <v>1.063757566309589</v>
+        <v>1.048207208259049</v>
       </c>
       <c r="L16">
-        <v>1.063670800675838</v>
+        <v>1.042716011519303</v>
       </c>
       <c r="M16">
-        <v>1.075048329254726</v>
+        <v>1.053475409114758</v>
       </c>
       <c r="N16">
-        <v>1.023521939762445</v>
+        <v>1.016872869263492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053633263902979</v>
+        <v>1.015326208529665</v>
       </c>
       <c r="D17">
-        <v>1.060715047275115</v>
+        <v>1.036019572057281</v>
       </c>
       <c r="E17">
-        <v>1.060656048629486</v>
+        <v>1.030532222201049</v>
       </c>
       <c r="F17">
-        <v>1.072090312225895</v>
+        <v>1.041560580834777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049845097346996</v>
+        <v>1.052904573585298</v>
       </c>
       <c r="J17">
-        <v>1.059698747155148</v>
+        <v>1.042207901775967</v>
       </c>
       <c r="K17">
-        <v>1.063996958938424</v>
+        <v>1.049424207140927</v>
       </c>
       <c r="L17">
-        <v>1.063938155531724</v>
+        <v>1.044025282740348</v>
       </c>
       <c r="M17">
-        <v>1.075335020632478</v>
+        <v>1.054877136193963</v>
       </c>
       <c r="N17">
-        <v>1.02360801570087</v>
+        <v>1.017310987935025</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053859193172354</v>
+        <v>1.01648806800211</v>
       </c>
       <c r="D18">
-        <v>1.060896049402034</v>
+        <v>1.036917823665594</v>
       </c>
       <c r="E18">
-        <v>1.060853457678228</v>
+        <v>1.031486643870578</v>
       </c>
       <c r="F18">
-        <v>1.072298533591221</v>
+        <v>1.042566244680115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049910051028413</v>
+        <v>1.053300678275479</v>
       </c>
       <c r="J18">
-        <v>1.059845956481164</v>
+        <v>1.042942328310611</v>
       </c>
       <c r="K18">
-        <v>1.064136571670775</v>
+        <v>1.05012834648677</v>
       </c>
       <c r="L18">
-        <v>1.064094118981171</v>
+        <v>1.044783143104991</v>
       </c>
       <c r="M18">
-        <v>1.075502269054729</v>
+        <v>1.055688566203982</v>
       </c>
       <c r="N18">
-        <v>1.023658206707354</v>
+        <v>1.017564458780333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053936240007458</v>
+        <v>1.016882720393305</v>
       </c>
       <c r="D19">
-        <v>1.060957776181764</v>
+        <v>1.037223027090349</v>
       </c>
       <c r="E19">
-        <v>1.060920785401347</v>
+        <v>1.031810973168375</v>
       </c>
       <c r="F19">
-        <v>1.072369548928263</v>
+        <v>1.042907984432677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049932181096747</v>
+        <v>1.053435078377335</v>
       </c>
       <c r="J19">
-        <v>1.059896149185992</v>
+        <v>1.043191756545804</v>
       </c>
       <c r="K19">
-        <v>1.064184172426322</v>
+        <v>1.050367483208921</v>
       </c>
       <c r="L19">
-        <v>1.06414730183096</v>
+        <v>1.045040581101458</v>
       </c>
       <c r="M19">
-        <v>1.075559300855544</v>
+        <v>1.055964210090338</v>
       </c>
       <c r="N19">
-        <v>1.023675317880558</v>
+        <v>1.01765053814456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053591711041076</v>
+        <v>1.015111770198902</v>
       </c>
       <c r="D20">
-        <v>1.060681757923069</v>
+        <v>1.035853830561271</v>
       </c>
       <c r="E20">
-        <v>1.060619744483657</v>
+        <v>1.03035613576182</v>
       </c>
       <c r="F20">
-        <v>1.07205201966016</v>
+        <v>1.041375039238018</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049833141322624</v>
+        <v>1.052831397377329</v>
       </c>
       <c r="J20">
-        <v>1.059671668224622</v>
+        <v>1.042072335363879</v>
       </c>
       <c r="K20">
-        <v>1.063971276534237</v>
+        <v>1.049294228939838</v>
       </c>
       <c r="L20">
-        <v>1.063909468822189</v>
+        <v>1.043885415097322</v>
       </c>
       <c r="M20">
-        <v>1.075304258644143</v>
+        <v>1.05472738616327</v>
       </c>
       <c r="N20">
-        <v>1.023598782181461</v>
+        <v>1.017264197804563</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052472365180831</v>
+        <v>1.009246070178059</v>
       </c>
       <c r="D21">
-        <v>1.059785075513411</v>
+        <v>1.031325569361316</v>
       </c>
       <c r="E21">
-        <v>1.059642168875036</v>
+        <v>1.025547460012577</v>
       </c>
       <c r="F21">
-        <v>1.071020900962973</v>
+        <v>1.036308014821394</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04950994575204</v>
+        <v>1.050821817117422</v>
       </c>
       <c r="J21">
-        <v>1.058941732899053</v>
+        <v>1.038362239696651</v>
       </c>
       <c r="K21">
-        <v>1.063278887308114</v>
+        <v>1.045736817534061</v>
       </c>
       <c r="L21">
-        <v>1.06313648657548</v>
+        <v>1.040060470689548</v>
       </c>
       <c r="M21">
-        <v>1.0744754019483</v>
+        <v>1.050632692036554</v>
       </c>
       <c r="N21">
-        <v>1.023349774346081</v>
+        <v>1.015983416658397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051769167624243</v>
+        <v>1.00547093340764</v>
       </c>
       <c r="D22">
-        <v>1.059221822890486</v>
+        <v>1.028416799984331</v>
       </c>
       <c r="E22">
-        <v>1.059028406537458</v>
+        <v>1.022460686632533</v>
       </c>
       <c r="F22">
-        <v>1.07037352185652</v>
+        <v>1.033055264857702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049305816605784</v>
+        <v>1.04952093259585</v>
       </c>
       <c r="J22">
-        <v>1.058482701307661</v>
+        <v>1.035972865636665</v>
       </c>
       <c r="K22">
-        <v>1.062843372179898</v>
+        <v>1.043445579269088</v>
       </c>
       <c r="L22">
-        <v>1.062650667655449</v>
+        <v>1.037599949045699</v>
       </c>
       <c r="M22">
-        <v>1.073954509996742</v>
+        <v>1.047999150963902</v>
       </c>
       <c r="N22">
-        <v>1.023193075006595</v>
+        <v>1.015158349904404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052141890761509</v>
+        <v>1.007480747861041</v>
       </c>
       <c r="D23">
-        <v>1.059520363385884</v>
+        <v>1.0299648235031</v>
       </c>
       <c r="E23">
-        <v>1.059353689907698</v>
+        <v>1.024103245786374</v>
       </c>
       <c r="F23">
-        <v>1.070716621554401</v>
+        <v>1.034786157834153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049414116684595</v>
+        <v>1.050214192562233</v>
       </c>
       <c r="J23">
-        <v>1.058726051106946</v>
+        <v>1.037245056334912</v>
       </c>
       <c r="K23">
-        <v>1.063074263996557</v>
+        <v>1.044665533595399</v>
       </c>
       <c r="L23">
-        <v>1.062908191536663</v>
+        <v>1.038909754396017</v>
       </c>
       <c r="M23">
-        <v>1.074230621278933</v>
+        <v>1.049401010607927</v>
       </c>
       <c r="N23">
-        <v>1.023276157267817</v>
+        <v>1.015597663863873</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053610486793749</v>
+        <v>1.015208693560664</v>
       </c>
       <c r="D24">
-        <v>1.060696799770498</v>
+        <v>1.035928741875335</v>
       </c>
       <c r="E24">
-        <v>1.060636148466261</v>
+        <v>1.030435722011407</v>
       </c>
       <c r="F24">
-        <v>1.07206932210783</v>
+        <v>1.041458899006386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049838544053201</v>
+        <v>1.052864474727049</v>
       </c>
       <c r="J24">
-        <v>1.059683904061412</v>
+        <v>1.042133610283215</v>
       </c>
       <c r="K24">
-        <v>1.063982881371969</v>
+        <v>1.049352978124813</v>
       </c>
       <c r="L24">
-        <v>1.06392243105006</v>
+        <v>1.043948633202281</v>
       </c>
       <c r="M24">
-        <v>1.075318158581699</v>
+        <v>1.054795070799113</v>
       </c>
       <c r="N24">
-        <v>1.023602954459765</v>
+        <v>1.017285346655777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055317209353449</v>
+        <v>1.023823904278533</v>
       </c>
       <c r="D25">
-        <v>1.062064243574082</v>
+        <v>1.042598450562735</v>
       </c>
       <c r="E25">
-        <v>1.062128153186672</v>
+        <v>1.037526830840236</v>
       </c>
       <c r="F25">
-        <v>1.073643045548366</v>
+        <v>1.04893045865096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050327032306785</v>
+        <v>1.05578602798522</v>
       </c>
       <c r="J25">
-        <v>1.060795009188912</v>
+        <v>1.047575264907181</v>
       </c>
       <c r="K25">
-        <v>1.06503645669858</v>
+        <v>1.054569606914922</v>
       </c>
       <c r="L25">
-        <v>1.065100176153199</v>
+        <v>1.049569239924495</v>
       </c>
       <c r="M25">
-        <v>1.0765812087573</v>
+        <v>1.060813873551433</v>
       </c>
       <c r="N25">
-        <v>1.023981569819025</v>
+        <v>1.019162822415006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03043767572562</v>
+        <v>1.018279257062473</v>
       </c>
       <c r="D2">
-        <v>1.047733159708305</v>
+        <v>1.037282501514568</v>
       </c>
       <c r="E2">
-        <v>1.042993669845476</v>
+        <v>1.022103469341612</v>
       </c>
       <c r="F2">
-        <v>1.054690146568888</v>
+        <v>1.040184160250883</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058000901778149</v>
+        <v>1.055245016397552</v>
       </c>
       <c r="J2">
-        <v>1.051744610101726</v>
+        <v>1.039926653612828</v>
       </c>
       <c r="K2">
-        <v>1.058565260998161</v>
+        <v>1.048245763165667</v>
       </c>
       <c r="L2">
-        <v>1.053884847702843</v>
+        <v>1.033263222379281</v>
       </c>
       <c r="M2">
-        <v>1.06543672631673</v>
+        <v>1.051110675041773</v>
       </c>
       <c r="N2">
-        <v>1.020600151357787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016792879792071</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049023011872961</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045184193695145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035102404863081</v>
+        <v>1.022256471518335</v>
       </c>
       <c r="D3">
-        <v>1.051361985798829</v>
+        <v>1.039987315521389</v>
       </c>
       <c r="E3">
-        <v>1.046861840319086</v>
+        <v>1.025271618893674</v>
       </c>
       <c r="F3">
-        <v>1.05876526840993</v>
+        <v>1.042942021948891</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05954616311559</v>
+        <v>1.056439289453144</v>
       </c>
       <c r="J3">
-        <v>1.054679826404014</v>
+        <v>1.042158258141581</v>
       </c>
       <c r="K3">
-        <v>1.061377297664735</v>
+        <v>1.050132892279426</v>
       </c>
       <c r="L3">
-        <v>1.056928271144673</v>
+        <v>1.035591041736134</v>
       </c>
       <c r="M3">
-        <v>1.068697646616702</v>
+        <v>1.053053423470657</v>
       </c>
       <c r="N3">
-        <v>1.021611228707138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017573862384881</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05056054750793</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04651589439769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038060836992349</v>
+        <v>1.024783219789854</v>
       </c>
       <c r="D4">
-        <v>1.053666474111209</v>
+        <v>1.041709771787605</v>
       </c>
       <c r="E4">
-        <v>1.049320513713479</v>
+        <v>1.027289806630386</v>
       </c>
       <c r="F4">
-        <v>1.0613553652859</v>
+        <v>1.044702306381084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060518134910213</v>
+        <v>1.057188771971433</v>
       </c>
       <c r="J4">
-        <v>1.056538627033129</v>
+        <v>1.043573533583211</v>
       </c>
       <c r="K4">
-        <v>1.063157623809427</v>
+        <v>1.051329567529498</v>
       </c>
       <c r="L4">
-        <v>1.058858007509943</v>
+        <v>1.037069657233273</v>
       </c>
       <c r="M4">
-        <v>1.07076565860763</v>
+        <v>1.05428956563736</v>
       </c>
       <c r="N4">
-        <v>1.022251109117255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018069045580586</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051538857104069</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047362918426071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039290716654505</v>
+        <v>1.02583892944247</v>
       </c>
       <c r="D5">
-        <v>1.054625178223268</v>
+        <v>1.042432368607094</v>
       </c>
       <c r="E5">
-        <v>1.050343894101374</v>
+        <v>1.028135002837635</v>
       </c>
       <c r="F5">
-        <v>1.062433420388702</v>
+        <v>1.045440249208319</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060920237105431</v>
+        <v>1.0575013357306</v>
       </c>
       <c r="J5">
-        <v>1.057310674186368</v>
+        <v>1.044166032210664</v>
       </c>
       <c r="K5">
-        <v>1.063896957233143</v>
+        <v>1.051831831799541</v>
       </c>
       <c r="L5">
-        <v>1.059660094623037</v>
+        <v>1.037688925409531</v>
       </c>
       <c r="M5">
-        <v>1.071625305900053</v>
+        <v>1.054807875219477</v>
       </c>
       <c r="N5">
-        <v>1.02251677727826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018277223426883</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051949058116571</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047725151691223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039496421315206</v>
+        <v>1.026020821300969</v>
       </c>
       <c r="D6">
-        <v>1.054785565915898</v>
+        <v>1.042559337168328</v>
       </c>
       <c r="E6">
-        <v>1.05051513343292</v>
+        <v>1.028281542352301</v>
       </c>
       <c r="F6">
-        <v>1.062613806646964</v>
+        <v>1.045568161338351</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060987374546369</v>
+        <v>1.05755709587</v>
       </c>
       <c r="J6">
-        <v>1.057439761924173</v>
+        <v>1.044270266618919</v>
       </c>
       <c r="K6">
-        <v>1.064020567932941</v>
+        <v>1.051921785683385</v>
       </c>
       <c r="L6">
-        <v>1.059794238985767</v>
+        <v>1.037797530179975</v>
       </c>
       <c r="M6">
-        <v>1.071769081898439</v>
+        <v>1.054898907879011</v>
       </c>
       <c r="N6">
-        <v>1.022561191200504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018314942014184</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052021103238658</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047797409515066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038077324450275</v>
+        <v>1.024811570361277</v>
       </c>
       <c r="D7">
-        <v>1.053679323624998</v>
+        <v>1.041735641357509</v>
       </c>
       <c r="E7">
-        <v>1.049334227969819</v>
+        <v>1.027314794467778</v>
       </c>
       <c r="F7">
-        <v>1.061369812344909</v>
+        <v>1.044723857820836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060523533200544</v>
+        <v>1.057202655931003</v>
       </c>
       <c r="J7">
-        <v>1.056548979686262</v>
+        <v>1.043595338616211</v>
       </c>
       <c r="K7">
-        <v>1.063167538274695</v>
+        <v>1.051352313482643</v>
       </c>
       <c r="L7">
-        <v>1.058868760701196</v>
+        <v>1.037091468260139</v>
       </c>
       <c r="M7">
-        <v>1.070777183140865</v>
+        <v>1.054308053016418</v>
       </c>
       <c r="N7">
-        <v>1.02225467197491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018079700488416</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051553488405261</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047398909050782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032026872479931</v>
+        <v>1.019651249907341</v>
       </c>
       <c r="D8">
-        <v>1.048968774745829</v>
+        <v>1.038222730505759</v>
       </c>
       <c r="E8">
-        <v>1.044310327747734</v>
+        <v>1.023198252486804</v>
       </c>
       <c r="F8">
-        <v>1.056077272052338</v>
+        <v>1.04113594041644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058529014196122</v>
+        <v>1.055665660927331</v>
       </c>
       <c r="J8">
-        <v>1.052745146355184</v>
+        <v>1.04070437237989</v>
       </c>
       <c r="K8">
-        <v>1.059523902244756</v>
+        <v>1.048908693381755</v>
       </c>
       <c r="L8">
-        <v>1.054921762028048</v>
+        <v>1.034072896397699</v>
       </c>
       <c r="M8">
-        <v>1.066547664976572</v>
+        <v>1.051786102525265</v>
       </c>
       <c r="N8">
-        <v>1.020944882912259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017069025032745</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049557561024082</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045675628674597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020881774988339</v>
+        <v>1.010160539783862</v>
       </c>
       <c r="D9">
-        <v>1.040318278962267</v>
+        <v>1.03178576376165</v>
       </c>
       <c r="E9">
-        <v>1.035101401318253</v>
+        <v>1.015668125544023</v>
       </c>
       <c r="F9">
-        <v>1.04637497293583</v>
+        <v>1.034601585962634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054792617426351</v>
+        <v>1.052758426781054</v>
       </c>
       <c r="J9">
-        <v>1.045718096970497</v>
+        <v>1.035359535457534</v>
       </c>
       <c r="K9">
-        <v>1.052789416558127</v>
+        <v>1.044383361562927</v>
       </c>
       <c r="L9">
-        <v>1.047649543284744</v>
+        <v>1.028512012023729</v>
       </c>
       <c r="M9">
-        <v>1.058757930721581</v>
+        <v>1.047157157343947</v>
       </c>
       <c r="N9">
-        <v>1.018522232574116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015194650523526</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045894097512232</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042472818674458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013090657498185</v>
+        <v>1.003633352073139</v>
       </c>
       <c r="D10">
-        <v>1.03429237186588</v>
+        <v>1.027418331633986</v>
       </c>
       <c r="E10">
-        <v>1.028697505786492</v>
+        <v>1.01053478095444</v>
       </c>
       <c r="F10">
-        <v>1.039627329033844</v>
+        <v>1.030259195123909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052140667146297</v>
+        <v>1.050740289151326</v>
       </c>
       <c r="J10">
-        <v>1.040794353530717</v>
+        <v>1.031703552752438</v>
       </c>
       <c r="K10">
-        <v>1.04806889236279</v>
+        <v>1.041309578595665</v>
       </c>
       <c r="L10">
-        <v>1.042567253876736</v>
+        <v>1.024716396590129</v>
       </c>
       <c r="M10">
-        <v>1.053316153973337</v>
+        <v>1.044102789419105</v>
       </c>
       <c r="N10">
-        <v>1.016823073168504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013927733439709</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043527909146226</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040316180617038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009622657215592</v>
+        <v>1.001315037487026</v>
       </c>
       <c r="D11">
-        <v>1.031615974987925</v>
+        <v>1.026132190236394</v>
       </c>
       <c r="E11">
-        <v>1.025855725141628</v>
+        <v>1.008820808053637</v>
       </c>
       <c r="F11">
-        <v>1.036632849654469</v>
+        <v>1.029550494608343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050951276078256</v>
+        <v>1.05021864431261</v>
       </c>
       <c r="J11">
-        <v>1.03860053010306</v>
+        <v>1.030633211507321</v>
       </c>
       <c r="K11">
-        <v>1.045965313915258</v>
+        <v>1.040577563397929</v>
       </c>
       <c r="L11">
-        <v>1.040305975121154</v>
+        <v>1.023578272211806</v>
       </c>
       <c r="M11">
-        <v>1.050895481479427</v>
+        <v>1.043935849497277</v>
       </c>
       <c r="N11">
-        <v>1.016065691575497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013679930028722</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043829326138949</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03983125031866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008319502555133</v>
+        <v>1.000631140945267</v>
       </c>
       <c r="D12">
-        <v>1.030611231963856</v>
+        <v>1.025857253646526</v>
       </c>
       <c r="E12">
-        <v>1.02478926114299</v>
+        <v>1.008360574719141</v>
       </c>
       <c r="F12">
-        <v>1.03550905711951</v>
+        <v>1.029699740560361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050503047194081</v>
+        <v>1.050143909786885</v>
       </c>
       <c r="J12">
-        <v>1.037775892338038</v>
+        <v>1.030408813751178</v>
       </c>
       <c r="K12">
-        <v>1.045174563801229</v>
+        <v>1.040505288085189</v>
       </c>
       <c r="L12">
-        <v>1.039456464692398</v>
+        <v>1.023329333252213</v>
       </c>
       <c r="M12">
-        <v>1.049986177054218</v>
+        <v>1.044279233990881</v>
       </c>
       <c r="N12">
-        <v>1.015780960700357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013696386764567</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044425427530628</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039780149956728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008599725275539</v>
+        <v>1.001180055721072</v>
       </c>
       <c r="D13">
-        <v>1.030827241669183</v>
+        <v>1.026365238095642</v>
       </c>
       <c r="E13">
-        <v>1.025018523885474</v>
+        <v>1.008851504598684</v>
       </c>
       <c r="F13">
-        <v>1.035750645116852</v>
+        <v>1.03054964854006</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050599489503378</v>
+        <v>1.050426456630034</v>
       </c>
       <c r="J13">
-        <v>1.037953229196269</v>
+        <v>1.030842118619604</v>
       </c>
       <c r="K13">
-        <v>1.045344614567489</v>
+        <v>1.040961773982122</v>
       </c>
       <c r="L13">
-        <v>1.039639128466306</v>
+        <v>1.023767594887273</v>
       </c>
       <c r="M13">
-        <v>1.050181693909477</v>
+        <v>1.045071920447944</v>
       </c>
       <c r="N13">
-        <v>1.01584219316342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013928799205377</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045327378680542</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040100420438091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009515248578064</v>
+        <v>1.002120350571967</v>
       </c>
       <c r="D14">
-        <v>1.03153314220749</v>
+        <v>1.02707311899555</v>
       </c>
       <c r="E14">
-        <v>1.025767796601491</v>
+        <v>1.009623674595825</v>
       </c>
       <c r="F14">
-        <v>1.036540194935036</v>
+        <v>1.031458188625875</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050914358226061</v>
+        <v>1.050784231500101</v>
       </c>
       <c r="J14">
-        <v>1.038532567086878</v>
+        <v>1.031440714144779</v>
       </c>
       <c r="K14">
-        <v>1.045900144409921</v>
+        <v>1.041518243818137</v>
       </c>
       <c r="L14">
-        <v>1.040235952362211</v>
+        <v>1.024383090160975</v>
       </c>
       <c r="M14">
-        <v>1.050820528289506</v>
+        <v>1.045826496502793</v>
       </c>
       <c r="N14">
-        <v>1.016042226042252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014188190398456</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046096343315681</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040495272785295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010077322068719</v>
+        <v>1.002626615290849</v>
       </c>
       <c r="D15">
-        <v>1.031966648649375</v>
+        <v>1.027428688036724</v>
       </c>
       <c r="E15">
-        <v>1.026227986615297</v>
+        <v>1.010027782475951</v>
       </c>
       <c r="F15">
-        <v>1.037025119300497</v>
+        <v>1.031854333153385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051107498179493</v>
+        <v>1.050956753489392</v>
       </c>
       <c r="J15">
-        <v>1.038888209237993</v>
+        <v>1.031740100604393</v>
       </c>
       <c r="K15">
-        <v>1.046241167115268</v>
+        <v>1.041782074985067</v>
       </c>
       <c r="L15">
-        <v>1.0406023926156</v>
+        <v>1.024692144205137</v>
       </c>
       <c r="M15">
-        <v>1.05121277382316</v>
+        <v>1.04613079280049</v>
       </c>
       <c r="N15">
-        <v>1.016165016795652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014303451654759</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046374228111354</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040687637090073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013318761182489</v>
+        <v>1.00528661329586</v>
       </c>
       <c r="D16">
-        <v>1.034468537103573</v>
+        <v>1.029188290311037</v>
       </c>
       <c r="E16">
-        <v>1.02888460817259</v>
+        <v>1.012101941838736</v>
       </c>
       <c r="F16">
-        <v>1.039824481786215</v>
+        <v>1.033571105600979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052218715463701</v>
+        <v>1.051775583697782</v>
       </c>
       <c r="J16">
-        <v>1.040938608893823</v>
+        <v>1.03321592163233</v>
       </c>
       <c r="K16">
-        <v>1.048207208259049</v>
+        <v>1.043014617074298</v>
       </c>
       <c r="L16">
-        <v>1.042716011519303</v>
+        <v>1.026220030253828</v>
       </c>
       <c r="M16">
-        <v>1.053475409114758</v>
+        <v>1.047324593413211</v>
       </c>
       <c r="N16">
-        <v>1.016872869263492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014799297356367</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047279274526313</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041562217983689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015326208529665</v>
+        <v>1.006838726529591</v>
       </c>
       <c r="D17">
-        <v>1.036019572057281</v>
+        <v>1.030170811146183</v>
       </c>
       <c r="E17">
-        <v>1.030532222201049</v>
+        <v>1.013293928670698</v>
       </c>
       <c r="F17">
-        <v>1.041560580834777</v>
+        <v>1.034408652551891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052904573585298</v>
+        <v>1.052215416270846</v>
       </c>
       <c r="J17">
-        <v>1.042207901775967</v>
+        <v>1.034036615718065</v>
       </c>
       <c r="K17">
-        <v>1.049424207140927</v>
+        <v>1.043669738080762</v>
       </c>
       <c r="L17">
-        <v>1.044025282740348</v>
+        <v>1.027072814132355</v>
       </c>
       <c r="M17">
-        <v>1.054877136193963</v>
+        <v>1.04783912187559</v>
       </c>
       <c r="N17">
-        <v>1.017310987935025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015044744049705</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047557586744825</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04202797345789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01648806800211</v>
+        <v>1.007559086600168</v>
       </c>
       <c r="D18">
-        <v>1.036917823665594</v>
+        <v>1.030537974954146</v>
       </c>
       <c r="E18">
-        <v>1.031486643870578</v>
+        <v>1.013811022931362</v>
       </c>
       <c r="F18">
-        <v>1.042566244680115</v>
+        <v>1.034496473312815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053300678275479</v>
+        <v>1.052349235577039</v>
       </c>
       <c r="J18">
-        <v>1.042942328310611</v>
+        <v>1.03433953130013</v>
       </c>
       <c r="K18">
-        <v>1.05012834648677</v>
+        <v>1.043849610941028</v>
       </c>
       <c r="L18">
-        <v>1.044783143104991</v>
+        <v>1.027395543765421</v>
       </c>
       <c r="M18">
-        <v>1.055688566203982</v>
+        <v>1.047745183683554</v>
       </c>
       <c r="N18">
-        <v>1.017564458780333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01508141386469</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047246980518794</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042143600877717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016882720393305</v>
+        <v>1.007526695958897</v>
       </c>
       <c r="D19">
-        <v>1.037223027090349</v>
+        <v>1.030349865473164</v>
       </c>
       <c r="E19">
-        <v>1.031810973168375</v>
+        <v>1.013718999431927</v>
       </c>
       <c r="F19">
-        <v>1.042907984432677</v>
+        <v>1.033895643933122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053435078377335</v>
+        <v>1.052208582882753</v>
       </c>
       <c r="J19">
-        <v>1.043191756545804</v>
+        <v>1.034175355248788</v>
       </c>
       <c r="K19">
-        <v>1.050367483208921</v>
+        <v>1.043602658551624</v>
       </c>
       <c r="L19">
-        <v>1.045040581101458</v>
+        <v>1.027241757040993</v>
       </c>
       <c r="M19">
-        <v>1.055964210090338</v>
+        <v>1.047092317106777</v>
       </c>
       <c r="N19">
-        <v>1.01765053814456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014937488478552</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046407282911565</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041975346798453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015111770198902</v>
+        <v>1.00536530080107</v>
       </c>
       <c r="D20">
-        <v>1.035853830561271</v>
+        <v>1.028593071233106</v>
       </c>
       <c r="E20">
-        <v>1.03035613576182</v>
+        <v>1.011902026922698</v>
       </c>
       <c r="F20">
-        <v>1.041375039238018</v>
+        <v>1.031417836495853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052831397377329</v>
+        <v>1.051293615189026</v>
       </c>
       <c r="J20">
-        <v>1.042072335363879</v>
+        <v>1.032690954388067</v>
       </c>
       <c r="K20">
-        <v>1.049294228939838</v>
+        <v>1.042151112551688</v>
       </c>
       <c r="L20">
-        <v>1.043885415097322</v>
+        <v>1.025738772986319</v>
       </c>
       <c r="M20">
-        <v>1.05472738616327</v>
+        <v>1.044929856559909</v>
       </c>
       <c r="N20">
-        <v>1.017264197804563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014279625609392</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044171956413983</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040952960553402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009246070178059</v>
+        <v>1.000346366705565</v>
       </c>
       <c r="D21">
-        <v>1.031325569361316</v>
+        <v>1.025191377299596</v>
       </c>
       <c r="E21">
-        <v>1.025547460012577</v>
+        <v>1.007946973419276</v>
       </c>
       <c r="F21">
-        <v>1.036308014821394</v>
+        <v>1.027934930478895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050821817117422</v>
+        <v>1.049684295071324</v>
       </c>
       <c r="J21">
-        <v>1.038362239696651</v>
+        <v>1.029829613604362</v>
       </c>
       <c r="K21">
-        <v>1.045736817534061</v>
+        <v>1.039710707899539</v>
       </c>
       <c r="L21">
-        <v>1.040060470689548</v>
+        <v>1.022779336013374</v>
       </c>
       <c r="M21">
-        <v>1.050632692036554</v>
+        <v>1.042405713845803</v>
       </c>
       <c r="N21">
-        <v>1.015983416658397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01326448035649</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042133666762803</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039230738382759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00547093340764</v>
+        <v>0.9971446195170333</v>
       </c>
       <c r="D22">
-        <v>1.028416799984331</v>
+        <v>1.023037253484988</v>
       </c>
       <c r="E22">
-        <v>1.022460686632533</v>
+        <v>1.005434625643685</v>
       </c>
       <c r="F22">
-        <v>1.033055264857702</v>
+        <v>1.025774632267058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04952093259585</v>
+        <v>1.048656060577598</v>
       </c>
       <c r="J22">
-        <v>1.035972865636665</v>
+        <v>1.028010651607841</v>
       </c>
       <c r="K22">
-        <v>1.043445579269088</v>
+        <v>1.038165747458208</v>
       </c>
       <c r="L22">
-        <v>1.037599949045699</v>
+        <v>1.020899184892052</v>
       </c>
       <c r="M22">
-        <v>1.047999150963902</v>
+        <v>1.040852216062919</v>
       </c>
       <c r="N22">
-        <v>1.015158349904404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012622353133822</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040904179161049</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038124972013123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007480747861041</v>
+        <v>0.9988341981172127</v>
       </c>
       <c r="D23">
-        <v>1.0299648235031</v>
+        <v>1.02416755092139</v>
       </c>
       <c r="E23">
-        <v>1.024103245786374</v>
+        <v>1.006756950750775</v>
       </c>
       <c r="F23">
-        <v>1.034786157834153</v>
+        <v>1.026911968269552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050214192562233</v>
+        <v>1.049194791126198</v>
       </c>
       <c r="J23">
-        <v>1.037245056334912</v>
+        <v>1.028965149835977</v>
       </c>
       <c r="K23">
-        <v>1.044665533595399</v>
+        <v>1.038972890307536</v>
       </c>
       <c r="L23">
-        <v>1.038909754396017</v>
+        <v>1.021885990877813</v>
       </c>
       <c r="M23">
-        <v>1.049401010607927</v>
+        <v>1.041667584921035</v>
       </c>
       <c r="N23">
-        <v>1.015597663863873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012955921403843</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041549488293558</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038686068164282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015208693560664</v>
+        <v>1.005370149764004</v>
       </c>
       <c r="D24">
-        <v>1.035928741875335</v>
+        <v>1.028562153218954</v>
       </c>
       <c r="E24">
-        <v>1.030435722011407</v>
+        <v>1.01189239574927</v>
       </c>
       <c r="F24">
-        <v>1.041458899006386</v>
+        <v>1.031337194432135</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052864474727049</v>
+        <v>1.051267928058567</v>
       </c>
       <c r="J24">
-        <v>1.042133610283215</v>
+        <v>1.032663035857966</v>
       </c>
       <c r="K24">
-        <v>1.049352978124813</v>
+        <v>1.042105588194878</v>
       </c>
       <c r="L24">
-        <v>1.043948633202281</v>
+        <v>1.025713837379355</v>
       </c>
       <c r="M24">
-        <v>1.054795070799113</v>
+        <v>1.044835469772535</v>
       </c>
       <c r="N24">
-        <v>1.017285346655777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014253798625119</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044056648778999</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040893553494772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023823904278533</v>
+        <v>1.012684282737837</v>
       </c>
       <c r="D25">
-        <v>1.042598450562735</v>
+        <v>1.033503275742226</v>
       </c>
       <c r="E25">
-        <v>1.037526830840236</v>
+        <v>1.017669162534329</v>
       </c>
       <c r="F25">
-        <v>1.04893045865096</v>
+        <v>1.036333693473543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05578602798522</v>
+        <v>1.053548073482136</v>
       </c>
       <c r="J25">
-        <v>1.047575264907181</v>
+        <v>1.036792182799325</v>
       </c>
       <c r="K25">
-        <v>1.054569606914922</v>
+        <v>1.045602842445589</v>
       </c>
       <c r="L25">
-        <v>1.049569239924495</v>
+        <v>1.029999242615756</v>
       </c>
       <c r="M25">
-        <v>1.060813873551433</v>
+        <v>1.048392993433496</v>
       </c>
       <c r="N25">
-        <v>1.019162822415006</v>
+        <v>1.015702432844364</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04687217101866</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043363413469403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018279257062473</v>
+        <v>1.016971022825585</v>
       </c>
       <c r="D2">
-        <v>1.037282501514568</v>
+        <v>1.035381203740655</v>
       </c>
       <c r="E2">
-        <v>1.022103469341612</v>
+        <v>1.021018267178335</v>
       </c>
       <c r="F2">
-        <v>1.040184160250883</v>
+        <v>1.038811519418787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055245016397552</v>
+        <v>1.054196940715378</v>
       </c>
       <c r="J2">
-        <v>1.039926653612828</v>
+        <v>1.038655716925559</v>
       </c>
       <c r="K2">
-        <v>1.048245763165667</v>
+        <v>1.046368683138123</v>
       </c>
       <c r="L2">
-        <v>1.033263222379281</v>
+        <v>1.03219234872968</v>
       </c>
       <c r="M2">
-        <v>1.051110675041773</v>
+        <v>1.049755385514853</v>
       </c>
       <c r="N2">
-        <v>1.016792879792071</v>
+        <v>1.017197393000641</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049023011872961</v>
+        <v>1.047950402795832</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045184193695145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043865657775741</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024216037878106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022256471518335</v>
+        <v>1.020738193365939</v>
       </c>
       <c r="D3">
-        <v>1.039987315521389</v>
+        <v>1.037851197446556</v>
       </c>
       <c r="E3">
-        <v>1.025271618893674</v>
+        <v>1.023996630415627</v>
       </c>
       <c r="F3">
-        <v>1.042942021948891</v>
+        <v>1.041401340348959</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056439289453144</v>
+        <v>1.055247988756945</v>
       </c>
       <c r="J3">
-        <v>1.042158258141581</v>
+        <v>1.040679047508144</v>
       </c>
       <c r="K3">
-        <v>1.050132892279426</v>
+        <v>1.048021631213377</v>
       </c>
       <c r="L3">
-        <v>1.035591041736134</v>
+        <v>1.034331407454284</v>
       </c>
       <c r="M3">
-        <v>1.053053423470657</v>
+        <v>1.051530532072184</v>
       </c>
       <c r="N3">
-        <v>1.017573862384881</v>
+        <v>1.017752911714709</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05056054750793</v>
+        <v>1.049355296618819</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04651589439769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04503149857419</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024568785521987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024783219789854</v>
+        <v>1.023133059404483</v>
       </c>
       <c r="D4">
-        <v>1.041709771787605</v>
+        <v>1.039425467916195</v>
       </c>
       <c r="E4">
-        <v>1.027289806630386</v>
+        <v>1.025895596722648</v>
       </c>
       <c r="F4">
-        <v>1.044702306381084</v>
+        <v>1.043055746801131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057188771971433</v>
+        <v>1.055906980935195</v>
       </c>
       <c r="J4">
-        <v>1.043573533583211</v>
+        <v>1.041962975346034</v>
       </c>
       <c r="K4">
-        <v>1.051329567529498</v>
+        <v>1.049070254716114</v>
       </c>
       <c r="L4">
-        <v>1.037069657233273</v>
+        <v>1.035691216385735</v>
       </c>
       <c r="M4">
-        <v>1.05428956563736</v>
+        <v>1.052660880013712</v>
       </c>
       <c r="N4">
-        <v>1.018069045580586</v>
+        <v>1.018105516273263</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051538857104069</v>
+        <v>1.050249879874392</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047362918426071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045773922044714</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024790246675778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.02583892944247</v>
+        <v>1.024133781935458</v>
       </c>
       <c r="D5">
-        <v>1.042432368607094</v>
+        <v>1.040086273297956</v>
       </c>
       <c r="E5">
-        <v>1.028135002837635</v>
+        <v>1.026691020010036</v>
       </c>
       <c r="F5">
-        <v>1.045440249208319</v>
+        <v>1.043749575330918</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0575013357306</v>
+        <v>1.056181750802903</v>
       </c>
       <c r="J5">
-        <v>1.044166032210664</v>
+        <v>1.042500589837535</v>
       </c>
       <c r="K5">
-        <v>1.051831831799541</v>
+        <v>1.049510725465744</v>
       </c>
       <c r="L5">
-        <v>1.037688925409531</v>
+        <v>1.036260836289635</v>
       </c>
       <c r="M5">
-        <v>1.054807875219477</v>
+        <v>1.053135068801839</v>
       </c>
       <c r="N5">
-        <v>1.018277223426883</v>
+        <v>1.018253796241721</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051949058116571</v>
+        <v>1.050625163424998</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047725151691223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046093175944923</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024883442942945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026020821300969</v>
+        <v>1.024305926586604</v>
       </c>
       <c r="D6">
-        <v>1.042559337168328</v>
+        <v>1.040202476906665</v>
       </c>
       <c r="E6">
-        <v>1.028281542352301</v>
+        <v>1.026828667542574</v>
       </c>
       <c r="F6">
-        <v>1.045568161338351</v>
+        <v>1.043869801471478</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05755709587</v>
+        <v>1.056230882256485</v>
       </c>
       <c r="J6">
-        <v>1.044270266618919</v>
+        <v>1.04259509953408</v>
       </c>
       <c r="K6">
-        <v>1.051921785683385</v>
+        <v>1.049589914853377</v>
       </c>
       <c r="L6">
-        <v>1.037797530179975</v>
+        <v>1.036360573092028</v>
       </c>
       <c r="M6">
-        <v>1.054898907879011</v>
+        <v>1.053218415028099</v>
       </c>
       <c r="N6">
-        <v>1.018314942014184</v>
+        <v>1.018280610125661</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052021103238658</v>
+        <v>1.050691125462211</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047797409515066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046158693635404</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024901058626822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024811570361277</v>
+        <v>1.023168333011439</v>
       </c>
       <c r="D7">
-        <v>1.041735641357509</v>
+        <v>1.039455739290518</v>
       </c>
       <c r="E7">
-        <v>1.027314794467778</v>
+        <v>1.025926963609467</v>
       </c>
       <c r="F7">
-        <v>1.044723857820836</v>
+        <v>1.043080477145206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057202655931003</v>
+        <v>1.055924262935336</v>
       </c>
       <c r="J7">
-        <v>1.043595338616211</v>
+        <v>1.04199151964133</v>
       </c>
       <c r="K7">
-        <v>1.051352313482643</v>
+        <v>1.049097344371087</v>
       </c>
       <c r="L7">
-        <v>1.037091468260139</v>
+        <v>1.03571932801218</v>
       </c>
       <c r="M7">
-        <v>1.054308053016418</v>
+        <v>1.052682504892585</v>
       </c>
       <c r="N7">
-        <v>1.018079700488416</v>
+        <v>1.018141940790875</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051553488405261</v>
+        <v>1.050266994288468</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047398909050782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045814987770158</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024799482077984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019651249907341</v>
+        <v>1.018297431166147</v>
       </c>
       <c r="D8">
-        <v>1.038222730505759</v>
+        <v>1.036259514887313</v>
       </c>
       <c r="E8">
-        <v>1.023198252486804</v>
+        <v>1.022072709957038</v>
       </c>
       <c r="F8">
-        <v>1.04113594041644</v>
+        <v>1.039719065849979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055665660927331</v>
+        <v>1.054582201268376</v>
       </c>
       <c r="J8">
-        <v>1.04070437237989</v>
+        <v>1.039387857727226</v>
       </c>
       <c r="K8">
-        <v>1.048908693381755</v>
+        <v>1.04696974530218</v>
       </c>
       <c r="L8">
-        <v>1.034072896397699</v>
+        <v>1.03296176784999</v>
       </c>
       <c r="M8">
-        <v>1.051786102525265</v>
+        <v>1.050386608916909</v>
       </c>
       <c r="N8">
-        <v>1.017069025032745</v>
+        <v>1.017481894522731</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049557561024082</v>
+        <v>1.048449968533449</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045675628674597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04431561897052</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024351282055329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010160539783862</v>
+        <v>1.009322931679388</v>
       </c>
       <c r="D9">
-        <v>1.03178576376165</v>
+        <v>1.030392523070321</v>
       </c>
       <c r="E9">
-        <v>1.015668125544023</v>
+        <v>1.015008961664344</v>
       </c>
       <c r="F9">
-        <v>1.034601585962634</v>
+        <v>1.033593724579321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052758426781054</v>
+        <v>1.052022392594246</v>
       </c>
       <c r="J9">
-        <v>1.035359535457534</v>
+        <v>1.034550714736668</v>
       </c>
       <c r="K9">
-        <v>1.044383361562927</v>
+        <v>1.043011023249133</v>
       </c>
       <c r="L9">
-        <v>1.028512012023729</v>
+        <v>1.027863133470504</v>
       </c>
       <c r="M9">
-        <v>1.047157157343947</v>
+        <v>1.046164304925498</v>
       </c>
       <c r="N9">
-        <v>1.015194650523526</v>
+        <v>1.016162268923573</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045894097512232</v>
+        <v>1.045108326794484</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042472818674458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041513156837511</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023491447630479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003633352073139</v>
+        <v>1.003191989762307</v>
       </c>
       <c r="D10">
-        <v>1.027418331633986</v>
+        <v>1.026443643336274</v>
       </c>
       <c r="E10">
-        <v>1.01053478095444</v>
+        <v>1.010233171476636</v>
       </c>
       <c r="F10">
-        <v>1.030259195123909</v>
+        <v>1.029553085185604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050740289151326</v>
+        <v>1.050261687679201</v>
       </c>
       <c r="J10">
-        <v>1.031703552752438</v>
+        <v>1.031279533679474</v>
       </c>
       <c r="K10">
-        <v>1.041309578595665</v>
+        <v>1.040351318127515</v>
       </c>
       <c r="L10">
-        <v>1.024716396590129</v>
+        <v>1.024420088656826</v>
       </c>
       <c r="M10">
-        <v>1.044102789419105</v>
+        <v>1.043408492121196</v>
       </c>
       <c r="N10">
-        <v>1.013927733439709</v>
+        <v>1.01539435867818</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043527909146226</v>
+        <v>1.042978455336157</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040316180617038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039650977456301</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022917884414648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001315037487026</v>
+        <v>1.001000694577731</v>
       </c>
       <c r="D11">
-        <v>1.026132190236394</v>
+        <v>1.025283433779568</v>
       </c>
       <c r="E11">
-        <v>1.008820808053637</v>
+        <v>1.008623931925224</v>
       </c>
       <c r="F11">
-        <v>1.029550494608343</v>
+        <v>1.028936140747451</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05021864431261</v>
+        <v>1.049819143164288</v>
       </c>
       <c r="J11">
-        <v>1.030633211507321</v>
+        <v>1.030331902659537</v>
       </c>
       <c r="K11">
-        <v>1.040577563397929</v>
+        <v>1.039743789762356</v>
       </c>
       <c r="L11">
-        <v>1.023578272211806</v>
+        <v>1.023385025676287</v>
       </c>
       <c r="M11">
-        <v>1.043935849497277</v>
+        <v>1.043332244323392</v>
       </c>
       <c r="N11">
-        <v>1.013679930028722</v>
+        <v>1.015445725528796</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043829326138949</v>
+        <v>1.043351881873078</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03983125031866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039257279163108</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022873643964554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000631140945267</v>
+        <v>1.000329425446239</v>
       </c>
       <c r="D12">
-        <v>1.025857253646526</v>
+        <v>1.025022153815438</v>
       </c>
       <c r="E12">
-        <v>1.008360574719141</v>
+        <v>1.008165812642141</v>
       </c>
       <c r="F12">
-        <v>1.029699740560361</v>
+        <v>1.029095772063133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050143909786885</v>
+        <v>1.049752801479586</v>
       </c>
       <c r="J12">
-        <v>1.030408813751178</v>
+        <v>1.030119849936437</v>
       </c>
       <c r="K12">
-        <v>1.040505288085189</v>
+        <v>1.039685172811856</v>
       </c>
       <c r="L12">
-        <v>1.023329333252213</v>
+        <v>1.023138223081311</v>
       </c>
       <c r="M12">
-        <v>1.044279233990881</v>
+        <v>1.043685994884702</v>
       </c>
       <c r="N12">
-        <v>1.013696386764567</v>
+        <v>1.015547357778389</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044425427530628</v>
+        <v>1.043956339755242</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039780149956728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039215836385553</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022920235655739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001180055721072</v>
+        <v>1.000789205944681</v>
       </c>
       <c r="D13">
-        <v>1.026365238095642</v>
+        <v>1.025448207414186</v>
       </c>
       <c r="E13">
-        <v>1.008851504598684</v>
+        <v>1.008566986641527</v>
       </c>
       <c r="F13">
-        <v>1.03054964854006</v>
+        <v>1.029887014672451</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050426456630034</v>
+        <v>1.049982534344236</v>
       </c>
       <c r="J13">
-        <v>1.030842118619604</v>
+        <v>1.030467703668067</v>
       </c>
       <c r="K13">
-        <v>1.040961773982122</v>
+        <v>1.040061123703041</v>
       </c>
       <c r="L13">
-        <v>1.023767594887273</v>
+        <v>1.023488387790381</v>
       </c>
       <c r="M13">
-        <v>1.045071920447944</v>
+        <v>1.044420994699477</v>
       </c>
       <c r="N13">
-        <v>1.013928799205377</v>
+        <v>1.01566555223843</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045327378680542</v>
+        <v>1.044812804772878</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040100420438091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039478919060798</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023047185041595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002120350571967</v>
+        <v>1.001623156190711</v>
       </c>
       <c r="D14">
-        <v>1.02707311899555</v>
+        <v>1.026057392924876</v>
       </c>
       <c r="E14">
-        <v>1.009623674595825</v>
+        <v>1.009237265361789</v>
       </c>
       <c r="F14">
-        <v>1.031458188625875</v>
+        <v>1.030724707041781</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050784231500101</v>
+        <v>1.050276836253538</v>
       </c>
       <c r="J14">
-        <v>1.031440714144779</v>
+        <v>1.030964123311133</v>
       </c>
       <c r="K14">
-        <v>1.041518243818137</v>
+        <v>1.040520432526525</v>
       </c>
       <c r="L14">
-        <v>1.024383090160975</v>
+        <v>1.024003801030603</v>
       </c>
       <c r="M14">
-        <v>1.045826496502793</v>
+        <v>1.045105804980616</v>
       </c>
       <c r="N14">
-        <v>1.014188190398456</v>
+        <v>1.015757369328568</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046096343315681</v>
+        <v>1.045526693978936</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040495272785295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039805208757804</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023172625101739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002626615290849</v>
+        <v>1.002080923122631</v>
       </c>
       <c r="D15">
-        <v>1.027428688036724</v>
+        <v>1.026367521846735</v>
       </c>
       <c r="E15">
-        <v>1.010027782475951</v>
+        <v>1.009596338077084</v>
       </c>
       <c r="F15">
-        <v>1.031854333153385</v>
+        <v>1.031088190163716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050956753489392</v>
+        <v>1.050420195311736</v>
       </c>
       <c r="J15">
-        <v>1.031740100604393</v>
+        <v>1.031216822187661</v>
       </c>
       <c r="K15">
-        <v>1.041782074985067</v>
+        <v>1.040739481920759</v>
       </c>
       <c r="L15">
-        <v>1.024692144205137</v>
+        <v>1.024268587550395</v>
       </c>
       <c r="M15">
-        <v>1.04613079280049</v>
+        <v>1.045377905880678</v>
       </c>
       <c r="N15">
-        <v>1.014303451654759</v>
+        <v>1.015790115023105</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046374228111354</v>
+        <v>1.045779146420245</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040687637090073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039966480007811</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023225367414229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00528661329586</v>
+        <v>1.004530933163277</v>
       </c>
       <c r="D16">
-        <v>1.029188290311037</v>
+        <v>1.027924804700468</v>
       </c>
       <c r="E16">
-        <v>1.012101941838736</v>
+        <v>1.011482634825039</v>
       </c>
       <c r="F16">
-        <v>1.033571105600979</v>
+        <v>1.032659359401613</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051775583697782</v>
+        <v>1.051110237561157</v>
       </c>
       <c r="J16">
-        <v>1.03321592163233</v>
+        <v>1.032489716368718</v>
       </c>
       <c r="K16">
-        <v>1.043014617074298</v>
+        <v>1.041772278279777</v>
       </c>
       <c r="L16">
-        <v>1.026220030253828</v>
+        <v>1.025611538110338</v>
       </c>
       <c r="M16">
-        <v>1.047324593413211</v>
+        <v>1.046427934155654</v>
       </c>
       <c r="N16">
-        <v>1.014799297356367</v>
+        <v>1.015916146986255</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047279274526313</v>
+        <v>1.046570535091667</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041562217983689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040700132691373</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023438717810315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006838726529591</v>
+        <v>1.005986795270514</v>
       </c>
       <c r="D17">
-        <v>1.030170811146183</v>
+        <v>1.02880972248698</v>
       </c>
       <c r="E17">
-        <v>1.013293928670698</v>
+        <v>1.012591629424894</v>
       </c>
       <c r="F17">
-        <v>1.034408652551891</v>
+        <v>1.033426525066035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052215416270846</v>
+        <v>1.051488951729941</v>
       </c>
       <c r="J17">
-        <v>1.034036615718065</v>
+        <v>1.033216837998899</v>
       </c>
       <c r="K17">
-        <v>1.043669738080762</v>
+        <v>1.042330790029062</v>
       </c>
       <c r="L17">
-        <v>1.027072814132355</v>
+        <v>1.026382425899807</v>
       </c>
       <c r="M17">
-        <v>1.04783912187559</v>
+        <v>1.046872795431567</v>
       </c>
       <c r="N17">
-        <v>1.015044744049705</v>
+        <v>1.015994684889325</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047557586744825</v>
+        <v>1.046793705354935</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04202797345789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041097829533685</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02353799315813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007559086600168</v>
+        <v>1.006692193001856</v>
       </c>
       <c r="D18">
-        <v>1.030537974954146</v>
+        <v>1.029156411548043</v>
       </c>
       <c r="E18">
-        <v>1.013811022931362</v>
+        <v>1.013101501876683</v>
       </c>
       <c r="F18">
-        <v>1.034496473312815</v>
+        <v>1.033499133268323</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052349235577039</v>
+        <v>1.05161103719152</v>
       </c>
       <c r="J18">
-        <v>1.03433953130013</v>
+        <v>1.033504739750112</v>
       </c>
       <c r="K18">
-        <v>1.043849610941028</v>
+        <v>1.042490155464392</v>
       </c>
       <c r="L18">
-        <v>1.027395543765421</v>
+        <v>1.02669785455604</v>
       </c>
       <c r="M18">
-        <v>1.047745183683554</v>
+        <v>1.046763639508457</v>
       </c>
       <c r="N18">
-        <v>1.01508141386469</v>
+        <v>1.015989979458581</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047246980518794</v>
+        <v>1.04647090946665</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042143600877717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041197820727005</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023532850615498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007526695958897</v>
+        <v>1.006711900435118</v>
       </c>
       <c r="D19">
-        <v>1.030349865473164</v>
+        <v>1.029014015523624</v>
       </c>
       <c r="E19">
-        <v>1.013718999431927</v>
+        <v>1.013064470686629</v>
       </c>
       <c r="F19">
-        <v>1.033895643933122</v>
+        <v>1.03293040265074</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052208582882753</v>
+        <v>1.051500477333712</v>
       </c>
       <c r="J19">
-        <v>1.034175355248788</v>
+        <v>1.033390556946274</v>
       </c>
       <c r="K19">
-        <v>1.043602658551624</v>
+        <v>1.042288079978638</v>
       </c>
       <c r="L19">
-        <v>1.027241757040993</v>
+        <v>1.02659808650421</v>
       </c>
       <c r="M19">
-        <v>1.047092317106777</v>
+        <v>1.046142304071606</v>
       </c>
       <c r="N19">
-        <v>1.014937488478552</v>
+        <v>1.015894850923223</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046407282911565</v>
+        <v>1.045655899843969</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041975346798453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041061922197269</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023435220237545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00536530080107</v>
+        <v>1.004789081859265</v>
       </c>
       <c r="D20">
-        <v>1.028593071233106</v>
+        <v>1.027486863427157</v>
       </c>
       <c r="E20">
-        <v>1.011902026922698</v>
+        <v>1.011476761770085</v>
       </c>
       <c r="F20">
-        <v>1.031417836495853</v>
+        <v>1.030616758971047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051293615189026</v>
+        <v>1.050731743000864</v>
       </c>
       <c r="J20">
-        <v>1.032690954388067</v>
+        <v>1.032136632562527</v>
       </c>
       <c r="K20">
-        <v>1.042151112551688</v>
+        <v>1.041063015804957</v>
       </c>
       <c r="L20">
-        <v>1.025738772986319</v>
+        <v>1.025320764068234</v>
       </c>
       <c r="M20">
-        <v>1.044929856559909</v>
+        <v>1.044141797320422</v>
       </c>
       <c r="N20">
-        <v>1.014279625609392</v>
+        <v>1.01553163298611</v>
       </c>
       <c r="O20">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P20">
-        <v>1.044171956413983</v>
+        <v>1.043548293788862</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040952960553402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040200059014962</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023075821712458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000346366705565</v>
+        <v>1.000218992454022</v>
       </c>
       <c r="D21">
-        <v>1.025191377299596</v>
+        <v>1.024510866807494</v>
       </c>
       <c r="E21">
-        <v>1.007946973419276</v>
+        <v>1.007935553323093</v>
       </c>
       <c r="F21">
-        <v>1.027934930478895</v>
+        <v>1.027441438992086</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049684295071324</v>
+        <v>1.049394498325188</v>
       </c>
       <c r="J21">
-        <v>1.029829613604362</v>
+        <v>1.029707560535812</v>
       </c>
       <c r="K21">
-        <v>1.039710707899539</v>
+        <v>1.039042291287035</v>
       </c>
       <c r="L21">
-        <v>1.022779336013374</v>
+        <v>1.022768127851144</v>
       </c>
       <c r="M21">
-        <v>1.042405713845803</v>
+        <v>1.041920929903264</v>
       </c>
       <c r="N21">
-        <v>1.01326448035649</v>
+        <v>1.015291481528925</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042133666762803</v>
+        <v>1.04174999354155</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039230738382759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03877489579087</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022636713118049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9971446195170333</v>
+        <v>0.9973008510857138</v>
       </c>
       <c r="D22">
-        <v>1.023037253484988</v>
+        <v>1.022625622509557</v>
       </c>
       <c r="E22">
-        <v>1.005434625643685</v>
+        <v>1.005685124871399</v>
       </c>
       <c r="F22">
-        <v>1.025774632267058</v>
+        <v>1.025475885689753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048656060577598</v>
+        <v>1.048537496724629</v>
       </c>
       <c r="J22">
-        <v>1.028010651607841</v>
+        <v>1.028159971247949</v>
       </c>
       <c r="K22">
-        <v>1.038165747458208</v>
+        <v>1.037761802825341</v>
       </c>
       <c r="L22">
-        <v>1.020899184892052</v>
+        <v>1.02114479340169</v>
       </c>
       <c r="M22">
-        <v>1.040852216062919</v>
+        <v>1.040559008388305</v>
       </c>
       <c r="N22">
-        <v>1.012622353133822</v>
+        <v>1.0151338842458</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040904179161049</v>
+        <v>1.040672125038314</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038124972013123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037854824681357</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022359393498259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9988341981172127</v>
+        <v>0.9988266014855889</v>
       </c>
       <c r="D23">
-        <v>1.02416755092139</v>
+        <v>1.023603790761761</v>
       </c>
       <c r="E23">
-        <v>1.006756950750775</v>
+        <v>1.006855733495055</v>
       </c>
       <c r="F23">
-        <v>1.026911968269552</v>
+        <v>1.026502987418519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049194791126198</v>
+        <v>1.048978573821153</v>
       </c>
       <c r="J23">
-        <v>1.028965149835977</v>
+        <v>1.02895787931104</v>
       </c>
       <c r="K23">
-        <v>1.038972890307536</v>
+        <v>1.038419387185229</v>
       </c>
       <c r="L23">
-        <v>1.021885990877813</v>
+        <v>1.02198289573901</v>
       </c>
       <c r="M23">
-        <v>1.041667584921035</v>
+        <v>1.041265991973177</v>
       </c>
       <c r="N23">
-        <v>1.012955921403843</v>
+        <v>1.015167678354887</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041549488293558</v>
+        <v>1.041231654793405</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038686068164282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038309234042367</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022497390908773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005370149764004</v>
+        <v>1.004801971398944</v>
       </c>
       <c r="D24">
-        <v>1.028562153218954</v>
+        <v>1.027462484239789</v>
       </c>
       <c r="E24">
-        <v>1.01189239574927</v>
+        <v>1.011475819347795</v>
       </c>
       <c r="F24">
-        <v>1.031337194432135</v>
+        <v>1.030540747302749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051267928058567</v>
+        <v>1.050710531006935</v>
       </c>
       <c r="J24">
-        <v>1.032663035857966</v>
+        <v>1.032116418236559</v>
       </c>
       <c r="K24">
-        <v>1.042105588194878</v>
+        <v>1.041023901436934</v>
       </c>
       <c r="L24">
-        <v>1.025713837379355</v>
+        <v>1.025304359919422</v>
       </c>
       <c r="M24">
-        <v>1.044835469772535</v>
+        <v>1.044051951663458</v>
       </c>
       <c r="N24">
-        <v>1.014253798625119</v>
+        <v>1.015512139997131</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044056648778999</v>
+        <v>1.043436549505575</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040893553494772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040142510492594</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023055978838269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012684282737837</v>
+        <v>1.011694749354623</v>
       </c>
       <c r="D25">
-        <v>1.033503275742226</v>
+        <v>1.031948619858207</v>
       </c>
       <c r="E25">
-        <v>1.017669162534329</v>
+        <v>1.016871981597964</v>
       </c>
       <c r="F25">
-        <v>1.036333693473543</v>
+        <v>1.035209760935705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053548073482136</v>
+        <v>1.052712558485521</v>
       </c>
       <c r="J25">
-        <v>1.036792182799325</v>
+        <v>1.035834848061943</v>
       </c>
       <c r="K25">
-        <v>1.045602842445589</v>
+        <v>1.044070422746481</v>
       </c>
       <c r="L25">
-        <v>1.029999242615756</v>
+        <v>1.02921390836508</v>
       </c>
       <c r="M25">
-        <v>1.048392993433496</v>
+        <v>1.047285017105167</v>
       </c>
       <c r="N25">
-        <v>1.015702432844364</v>
+        <v>1.016484630850854</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04687217101866</v>
+        <v>1.045995289183634</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043363413469403</v>
+        <v>1.04229337138843</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023726182420769</v>
       </c>
     </row>
   </sheetData>
